--- a/input/g_filter.xlsx
+++ b/input/g_filter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DDPTemplateAutomationV2\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{700597A9-7540-48AD-B34B-7E3F00BDA03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD80ECFE-D71C-4596-80A7-15E78FA5394F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10575" windowWidth="19200" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transport_Freight" sheetId="1" r:id="rId1"/>
@@ -190,9 +190,6 @@
     <t>['LCVElectric', 'LCVOil']</t>
   </si>
   <si>
-    <t>['NewCapacity (GW)']</t>
-  </si>
-  <si>
     <t>['HCV1Oil', 'HCV2-5Oil', 'HCV6-9Oil']</t>
   </si>
   <si>
@@ -233,6 +230,9 @@
   </si>
   <si>
     <t>kt</t>
+  </si>
+  <si>
+    <t>['NewCapacity']</t>
   </si>
 </sst>
 </file>
@@ -620,10 +620,10 @@
   <dimension ref="A1:U593"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L59" sqref="L59"/>
+      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,11 +790,11 @@
         <v>21</v>
       </c>
       <c r="F3" s="6" t="str">
-        <f>F2</f>
+        <f t="shared" ref="F3:G6" si="0">F2</f>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G3" s="6" t="str">
-        <f>G2</f>
+        <f t="shared" si="0"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H3" t="s">
@@ -859,11 +859,11 @@
         <v>21</v>
       </c>
       <c r="F4" s="6" t="str">
-        <f>F3</f>
+        <f t="shared" si="0"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G4" s="6" t="str">
-        <f>G3</f>
+        <f t="shared" si="0"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H4" t="s">
@@ -915,7 +915,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <f t="shared" ref="B5" si="0">B4</f>
+        <f t="shared" ref="B5" si="1">B4</f>
         <v>10</v>
       </c>
       <c r="C5">
@@ -928,11 +928,11 @@
         <v>21</v>
       </c>
       <c r="F5" s="6" t="str">
-        <f>F4</f>
+        <f t="shared" si="0"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G5" s="6" t="str">
-        <f>G4</f>
+        <f t="shared" si="0"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H5" t="s">
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="6">
-        <f t="shared" ref="B6" si="1">B5</f>
+        <f t="shared" ref="B6" si="2">B5</f>
         <v>10</v>
       </c>
       <c r="C6">
@@ -997,11 +997,11 @@
         <v>21</v>
       </c>
       <c r="F6" s="6" t="str">
-        <f>F5</f>
+        <f t="shared" si="0"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G6" s="6" t="str">
-        <f>G5</f>
+        <f t="shared" si="0"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H6" t="s">
@@ -1049,11 +1049,11 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <f t="shared" ref="A7:A70" si="2">A6</f>
+        <f t="shared" ref="A7:A70" si="3">A6</f>
         <v>1</v>
       </c>
       <c r="B7" s="6">
-        <f t="shared" ref="B7:B70" si="3">B6</f>
+        <f t="shared" ref="B7:B70" si="4">B6</f>
         <v>10</v>
       </c>
       <c r="C7">
@@ -1066,11 +1066,11 @@
         <v>21</v>
       </c>
       <c r="F7" s="6" t="str">
-        <f t="shared" ref="F7:F70" si="4">F6</f>
+        <f t="shared" ref="F7:F70" si="5">F6</f>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G7" s="6" t="str">
-        <f t="shared" ref="G7:G70" si="5">G6</f>
+        <f t="shared" ref="G7:G70" si="6">G6</f>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H7" t="s">
@@ -1118,11 +1118,11 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C8">
@@ -1135,11 +1135,11 @@
         <v>21</v>
       </c>
       <c r="F8" s="6" t="str">
-        <f t="shared" ref="F8" si="6">F7</f>
+        <f t="shared" ref="F8" si="7">F7</f>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G8" s="6" t="str">
-        <f t="shared" ref="G8" si="7">G7</f>
+        <f t="shared" ref="G8" si="8">G7</f>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H8" t="s">
@@ -1187,11 +1187,11 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C9">
@@ -1204,11 +1204,11 @@
         <v>21</v>
       </c>
       <c r="F9" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G9" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H9" t="s">
@@ -1256,11 +1256,11 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C10">
@@ -1273,11 +1273,11 @@
         <v>21</v>
       </c>
       <c r="F10" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G10" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H10" t="s">
@@ -1325,11 +1325,11 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C11">
@@ -1342,11 +1342,11 @@
         <v>21</v>
       </c>
       <c r="F11" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G11" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H11" t="s">
@@ -1394,11 +1394,11 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C12">
@@ -1411,15 +1411,15 @@
         <v>21</v>
       </c>
       <c r="F12" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G12" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I12" t="s">
         <v>21</v>
@@ -1463,11 +1463,11 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C13">
@@ -1480,11 +1480,11 @@
         <v>21</v>
       </c>
       <c r="F13" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G13" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H13" t="s">
@@ -1532,11 +1532,11 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B14" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C14">
@@ -1549,15 +1549,15 @@
         <v>21</v>
       </c>
       <c r="F14" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G14" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I14" t="s">
         <v>21</v>
@@ -1601,11 +1601,11 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C15">
@@ -1618,11 +1618,11 @@
         <v>21</v>
       </c>
       <c r="F15" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G15" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H15" t="s">
@@ -1638,7 +1638,7 @@
         <v>36</v>
       </c>
       <c r="L15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M15" t="s">
         <v>21</v>
@@ -1670,11 +1670,11 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C16">
@@ -1687,11 +1687,11 @@
         <v>21</v>
       </c>
       <c r="F16" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G16" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H16" t="s">
@@ -1707,7 +1707,7 @@
         <v>36</v>
       </c>
       <c r="L16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M16" t="s">
         <v>21</v>
@@ -1739,11 +1739,11 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C17">
@@ -1756,11 +1756,11 @@
         <v>21</v>
       </c>
       <c r="F17" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G17" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H17" t="s">
@@ -1776,7 +1776,7 @@
         <v>36</v>
       </c>
       <c r="L17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M17" t="s">
         <v>21</v>
@@ -1825,15 +1825,15 @@
         <v>21</v>
       </c>
       <c r="F18" s="6" t="str">
-        <f t="shared" ref="F18:F20" si="8">F17</f>
+        <f t="shared" ref="F18:F20" si="9">F17</f>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G18" s="6" t="str">
-        <f t="shared" ref="G18:G20" si="9">G17</f>
+        <f t="shared" ref="G18:G20" si="10">G17</f>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I18" t="s">
         <v>21</v>
@@ -1845,7 +1845,7 @@
         <v>36</v>
       </c>
       <c r="L18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M18" t="s">
         <v>21</v>
@@ -1877,11 +1877,11 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C19">
@@ -1894,15 +1894,15 @@
         <v>21</v>
       </c>
       <c r="F19" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G19" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I19" t="s">
         <v>21</v>
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="L19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M19" t="s">
         <v>21</v>
@@ -1946,11 +1946,11 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C20">
@@ -1963,15 +1963,15 @@
         <v>21</v>
       </c>
       <c r="F20" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G20" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I20" t="s">
         <v>21</v>
@@ -1983,7 +1983,7 @@
         <v>36</v>
       </c>
       <c r="L20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M20" t="s">
         <v>21</v>
@@ -2015,11 +2015,11 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C21">
@@ -2032,11 +2032,11 @@
         <v>21</v>
       </c>
       <c r="F21" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G21" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H21" t="s">
@@ -2052,7 +2052,7 @@
         <v>36</v>
       </c>
       <c r="L21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M21" t="s">
         <v>21</v>
@@ -2084,11 +2084,11 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C22">
@@ -2101,11 +2101,11 @@
         <v>21</v>
       </c>
       <c r="F22" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G22" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H22" t="s">
@@ -2121,7 +2121,7 @@
         <v>36</v>
       </c>
       <c r="L22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M22" t="s">
         <v>21</v>
@@ -2153,11 +2153,11 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C23">
@@ -2170,15 +2170,15 @@
         <v>21</v>
       </c>
       <c r="F23" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G23" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I23" t="s">
         <v>21</v>
@@ -2190,7 +2190,7 @@
         <v>36</v>
       </c>
       <c r="L23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M23" t="s">
         <v>21</v>
@@ -2222,11 +2222,11 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C24">
@@ -2239,15 +2239,15 @@
         <v>21</v>
       </c>
       <c r="F24" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G24" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I24" t="s">
         <v>21</v>
@@ -2259,7 +2259,7 @@
         <v>36</v>
       </c>
       <c r="L24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M24" t="s">
         <v>21</v>
@@ -2291,11 +2291,11 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C25">
@@ -2308,11 +2308,11 @@
         <v>21</v>
       </c>
       <c r="F25" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G25" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H25" t="s">
@@ -2360,11 +2360,11 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B26" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C26">
@@ -2377,11 +2377,11 @@
         <v>21</v>
       </c>
       <c r="F26" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G26" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H26" t="s">
@@ -2429,11 +2429,11 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B27" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C27">
@@ -2446,11 +2446,11 @@
         <v>21</v>
       </c>
       <c r="F27" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G27" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H27" t="s">
@@ -2498,11 +2498,11 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B28" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C28">
@@ -2515,11 +2515,11 @@
         <v>21</v>
       </c>
       <c r="F28" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G28" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H28" t="s">
@@ -2535,7 +2535,7 @@
         <v>36</v>
       </c>
       <c r="L28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M28" t="s">
         <v>21</v>
@@ -2567,11 +2567,11 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B29" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C29">
@@ -2584,11 +2584,11 @@
         <v>21</v>
       </c>
       <c r="F29" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G29" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H29" t="s">
@@ -2604,7 +2604,7 @@
         <v>36</v>
       </c>
       <c r="L29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M29" t="s">
         <v>21</v>
@@ -2636,11 +2636,11 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B30" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C30">
@@ -2653,11 +2653,11 @@
         <v>21</v>
       </c>
       <c r="F30" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G30" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H30" t="s">
@@ -2673,7 +2673,7 @@
         <v>36</v>
       </c>
       <c r="L30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M30" t="s">
         <v>21</v>
@@ -2705,11 +2705,11 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B31" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C31">
@@ -2722,11 +2722,11 @@
         <v>21</v>
       </c>
       <c r="F31" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G31" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H31" t="s">
@@ -2742,7 +2742,7 @@
         <v>36</v>
       </c>
       <c r="L31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M31" t="s">
         <v>21</v>
@@ -2774,11 +2774,11 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B32" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C32">
@@ -2791,11 +2791,11 @@
         <v>21</v>
       </c>
       <c r="F32" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G32" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H32" t="s">
@@ -2811,7 +2811,7 @@
         <v>36</v>
       </c>
       <c r="L32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M32" t="s">
         <v>21</v>
@@ -2843,11 +2843,11 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B33" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C33">
@@ -2860,11 +2860,11 @@
         <v>21</v>
       </c>
       <c r="F33" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G33" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H33" t="s">
@@ -2880,7 +2880,7 @@
         <v>36</v>
       </c>
       <c r="L33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M33" t="s">
         <v>21</v>
@@ -2912,11 +2912,11 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B34" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C34">
@@ -2926,14 +2926,14 @@
         <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F34" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G34" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H34" t="s">
@@ -2981,11 +2981,11 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B35" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C35">
@@ -2995,14 +2995,14 @@
         <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F35" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G35" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H35" t="s">
@@ -3050,11 +3050,11 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B36" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C36">
@@ -3064,14 +3064,14 @@
         <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F36" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G36" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H36" t="s">
@@ -3119,11 +3119,11 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B37" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C37">
@@ -3136,11 +3136,11 @@
         <v>21</v>
       </c>
       <c r="F37" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G37" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H37" t="s">
@@ -3188,11 +3188,11 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B38" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C38">
@@ -3205,11 +3205,11 @@
         <v>21</v>
       </c>
       <c r="F38" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G38" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H38" t="s">
@@ -3257,11 +3257,11 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B39" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C39">
@@ -3274,11 +3274,11 @@
         <v>21</v>
       </c>
       <c r="F39" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G39" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H39" t="s">
@@ -3326,11 +3326,11 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C40">
@@ -3343,11 +3343,11 @@
         <v>21</v>
       </c>
       <c r="F40" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G40" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H40" t="s">
@@ -3363,7 +3363,7 @@
         <v>36</v>
       </c>
       <c r="L40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M40" t="s">
         <v>21</v>
@@ -3395,11 +3395,11 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B41" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C41">
@@ -3412,11 +3412,11 @@
         <v>21</v>
       </c>
       <c r="F41" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G41" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H41" t="s">
@@ -3432,7 +3432,7 @@
         <v>36</v>
       </c>
       <c r="L41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M41" t="s">
         <v>21</v>
@@ -3464,11 +3464,11 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B42" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C42">
@@ -3481,15 +3481,15 @@
         <v>21</v>
       </c>
       <c r="F42" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G42" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
         <v>21</v>
@@ -3533,11 +3533,11 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B43" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C43">
@@ -3550,15 +3550,15 @@
         <v>21</v>
       </c>
       <c r="F43" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G43" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I43" t="s">
         <v>21</v>
@@ -3602,11 +3602,11 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B44" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C44">
@@ -3619,15 +3619,15 @@
         <v>21</v>
       </c>
       <c r="F44" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G44" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
         <v>21</v>
@@ -3639,7 +3639,7 @@
         <v>36</v>
       </c>
       <c r="L44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M44" t="s">
         <v>21</v>
@@ -3671,11 +3671,11 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B45" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C45">
@@ -3688,15 +3688,15 @@
         <v>21</v>
       </c>
       <c r="F45" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G45" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I45" t="s">
         <v>21</v>
@@ -3708,7 +3708,7 @@
         <v>36</v>
       </c>
       <c r="L45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M45" t="s">
         <v>21</v>
@@ -3740,11 +3740,11 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B46" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C46">
@@ -3754,18 +3754,18 @@
         <v>21</v>
       </c>
       <c r="E46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F46" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G46" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I46" t="s">
         <v>21</v>
@@ -3804,16 +3804,16 @@
         <v>21</v>
       </c>
       <c r="U46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B47" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C47">
@@ -3823,18 +3823,18 @@
         <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F47" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G47" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="H47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I47" t="s">
         <v>21</v>
@@ -3873,24 +3873,24 @@
         <v>21</v>
       </c>
       <c r="U47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B48" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F48" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G48" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I48" t="s">
@@ -3920,19 +3920,19 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B49" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F49" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G49" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I49" t="s">
@@ -3962,19 +3962,19 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B50" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F50" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G50" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I50" t="s">
@@ -4004,19 +4004,19 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B51" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F51" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G51" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I51" t="s">
@@ -4046,19 +4046,19 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B52" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F52" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G52" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I52" t="s">
@@ -4088,19 +4088,19 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B53" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F53" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G53" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I53" t="s">
@@ -4130,19 +4130,19 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B54" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F54" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G54" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I54" t="s">
@@ -4172,19 +4172,19 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B55" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F55" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G55" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I55" t="s">
@@ -4214,19 +4214,19 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B56" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F56" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G56" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I56" t="s">
@@ -4256,19 +4256,19 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B57" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F57" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G57" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I57" t="s">
@@ -4298,19 +4298,19 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B58" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F58" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G58" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I58" t="s">
@@ -4340,19 +4340,19 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B59" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F59" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G59" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I59" t="s">
@@ -4382,19 +4382,19 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B60" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F60" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G60" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I60" t="s">
@@ -4424,19 +4424,19 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B61" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F61" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G61" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I61" t="s">
@@ -4466,19 +4466,19 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B62" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F62" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G62" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I62" t="s">
@@ -4508,19 +4508,19 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B63" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F63" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G63" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I63" t="s">
@@ -4550,19 +4550,19 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B64" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F64" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G64" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I64" t="s">
@@ -4592,19 +4592,19 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B65" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F65" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G65" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I65" t="s">
@@ -4634,19 +4634,19 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B66" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F66" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G66" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I66" t="s">
@@ -4676,19 +4676,19 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B67" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F67" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G67" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I67" t="s">
@@ -4718,19 +4718,19 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B68" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F68" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G68" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I68" t="s">
@@ -4760,19 +4760,19 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B69" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F69" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G69" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I69" t="s">
@@ -4802,19 +4802,19 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B70" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F70" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G70" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I70" t="s">
@@ -4844,19 +4844,19 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <f t="shared" ref="A71:A134" si="10">A70</f>
+        <f t="shared" ref="A71:A134" si="11">A70</f>
         <v>1</v>
       </c>
       <c r="B71" s="6">
-        <f t="shared" ref="B71:B134" si="11">B70</f>
+        <f t="shared" ref="B71:B134" si="12">B70</f>
         <v>10</v>
       </c>
       <c r="F71" s="6" t="str">
-        <f t="shared" ref="F71:F134" si="12">F70</f>
+        <f t="shared" ref="F71:F134" si="13">F70</f>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G71" s="6" t="str">
-        <f t="shared" ref="G71:G134" si="13">G70</f>
+        <f t="shared" ref="G71:G134" si="14">G70</f>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I71" t="s">
@@ -4886,19 +4886,19 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B72" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F72" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G72" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I72" t="s">
@@ -4928,19 +4928,19 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B73" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F73" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G73" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I73" t="s">
@@ -4970,19 +4970,19 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B74" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F74" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G74" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I74" t="s">
@@ -5012,19 +5012,19 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B75" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F75" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G75" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I75" t="s">
@@ -5054,19 +5054,19 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B76" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F76" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G76" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I76" t="s">
@@ -5096,19 +5096,19 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B77" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F77" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G77" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I77" t="s">
@@ -5138,19 +5138,19 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B78" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F78" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G78" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I78" t="s">
@@ -5180,19 +5180,19 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B79" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F79" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G79" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I79" t="s">
@@ -5222,19 +5222,19 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B80" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F80" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G80" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I80" t="s">
@@ -5264,19 +5264,19 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B81" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F81" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G81" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I81" t="s">
@@ -5306,19 +5306,19 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B82" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F82" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G82" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I82" t="s">
@@ -5348,19 +5348,19 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B83" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F83" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G83" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I83" t="s">
@@ -5390,19 +5390,19 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B84" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F84" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G84" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I84" t="s">
@@ -5432,19 +5432,19 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B85" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F85" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G85" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I85" t="s">
@@ -5474,19 +5474,19 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B86" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F86" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G86" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I86" t="s">
@@ -5516,19 +5516,19 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B87" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F87" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G87" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I87" t="s">
@@ -5558,19 +5558,19 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B88" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F88" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G88" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I88" t="s">
@@ -5600,19 +5600,19 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B89" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F89" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G89" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I89" t="s">
@@ -5642,19 +5642,19 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B90" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F90" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G90" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I90" t="s">
@@ -5684,19 +5684,19 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B91" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F91" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G91" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I91" t="s">
@@ -5726,19 +5726,19 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B92" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F92" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G92" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I92" t="s">
@@ -5768,19 +5768,19 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B93" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F93" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G93" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I93" t="s">
@@ -5810,19 +5810,19 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B94" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F94" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G94" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I94" t="s">
@@ -5852,19 +5852,19 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B95" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F95" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G95" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I95" t="s">
@@ -5894,19 +5894,19 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B96" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F96" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G96" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I96" t="s">
@@ -5936,19 +5936,19 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B97" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F97" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G97" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I97" t="s">
@@ -5978,19 +5978,19 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B98" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F98" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G98" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I98" t="s">
@@ -6020,19 +6020,19 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B99" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F99" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G99" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I99" t="s">
@@ -6062,19 +6062,19 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B100" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F100" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G100" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I100" t="s">
@@ -6104,19 +6104,19 @@
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B101" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F101" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G101" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I101" t="s">
@@ -6146,19 +6146,19 @@
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B102" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F102" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G102" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I102" t="s">
@@ -6188,19 +6188,19 @@
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B103" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F103" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G103" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I103" t="s">
@@ -6230,19 +6230,19 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B104" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F104" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G104" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I104" t="s">
@@ -6272,19 +6272,19 @@
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B105" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F105" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G105" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I105" t="s">
@@ -6314,19 +6314,19 @@
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B106" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F106" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G106" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I106" t="s">
@@ -6356,19 +6356,19 @@
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B107" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F107" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G107" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I107" t="s">
@@ -6398,19 +6398,19 @@
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B108" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F108" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G108" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I108" t="s">
@@ -6440,19 +6440,19 @@
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B109" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F109" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G109" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I109" t="s">
@@ -6482,19 +6482,19 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B110" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F110" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G110" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I110" t="s">
@@ -6524,19 +6524,19 @@
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B111" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F111" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G111" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I111" t="s">
@@ -6566,19 +6566,19 @@
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B112" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F112" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G112" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I112" t="s">
@@ -6608,19 +6608,19 @@
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B113" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F113" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G113" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I113" t="s">
@@ -6650,19 +6650,19 @@
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B114" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F114" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G114" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I114" t="s">
@@ -6692,19 +6692,19 @@
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B115" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F115" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G115" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I115" t="s">
@@ -6734,19 +6734,19 @@
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B116" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F116" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G116" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I116" t="s">
@@ -6776,19 +6776,19 @@
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B117" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F117" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G117" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I117" t="s">
@@ -6818,19 +6818,19 @@
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B118" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F118" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G118" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I118" t="s">
@@ -6860,19 +6860,19 @@
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B119" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F119" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G119" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I119" t="s">
@@ -6902,19 +6902,19 @@
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B120" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F120" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G120" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I120" t="s">
@@ -6944,19 +6944,19 @@
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B121" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F121" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G121" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I121" t="s">
@@ -6986,19 +6986,19 @@
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B122" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F122" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G122" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I122" t="s">
@@ -7028,19 +7028,19 @@
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B123" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F123" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G123" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I123" t="s">
@@ -7070,19 +7070,19 @@
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B124" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F124" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G124" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I124" t="s">
@@ -7112,19 +7112,19 @@
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B125" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F125" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G125" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I125" t="s">
@@ -7154,19 +7154,19 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B126" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F126" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G126" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I126" t="s">
@@ -7196,19 +7196,19 @@
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B127" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F127" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G127" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I127" t="s">
@@ -7238,19 +7238,19 @@
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B128" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F128" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G128" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I128" t="s">
@@ -7280,19 +7280,19 @@
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B129" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F129" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G129" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I129" t="s">
@@ -7322,19 +7322,19 @@
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B130" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F130" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G130" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I130" t="s">
@@ -7364,19 +7364,19 @@
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B131" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F131" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G131" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I131" t="s">
@@ -7406,19 +7406,19 @@
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B132" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F132" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G132" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I132" t="s">
@@ -7448,19 +7448,19 @@
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B133" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F133" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G133" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I133" t="s">
@@ -7490,19 +7490,19 @@
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B134" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F134" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G134" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I134" t="s">
@@ -7532,19 +7532,19 @@
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
-        <f t="shared" ref="A135:A198" si="14">A134</f>
+        <f t="shared" ref="A135:A198" si="15">A134</f>
         <v>1</v>
       </c>
       <c r="B135" s="6">
-        <f t="shared" ref="B135:B198" si="15">B134</f>
+        <f t="shared" ref="B135:B198" si="16">B134</f>
         <v>10</v>
       </c>
       <c r="F135" s="6" t="str">
-        <f t="shared" ref="F135:F198" si="16">F134</f>
+        <f t="shared" ref="F135:F198" si="17">F134</f>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G135" s="6" t="str">
-        <f t="shared" ref="G135:G198" si="17">G134</f>
+        <f t="shared" ref="G135:G198" si="18">G134</f>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I135" t="s">
@@ -7574,19 +7574,19 @@
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B136" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F136" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G136" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I136" t="s">
@@ -7616,19 +7616,19 @@
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B137" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F137" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G137" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I137" t="s">
@@ -7658,19 +7658,19 @@
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B138" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F138" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G138" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I138" t="s">
@@ -7700,19 +7700,19 @@
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B139" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F139" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G139" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I139" t="s">
@@ -7742,19 +7742,19 @@
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B140" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F140" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G140" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I140" t="s">
@@ -7784,19 +7784,19 @@
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B141" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F141" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G141" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I141" t="s">
@@ -7826,19 +7826,19 @@
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B142" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F142" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G142" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I142" t="s">
@@ -7868,19 +7868,19 @@
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B143" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F143" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G143" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I143" t="s">
@@ -7910,19 +7910,19 @@
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B144" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F144" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G144" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I144" t="s">
@@ -7952,19 +7952,19 @@
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B145" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F145" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G145" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I145" t="s">
@@ -7994,19 +7994,19 @@
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B146" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F146" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G146" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I146" t="s">
@@ -8036,19 +8036,19 @@
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B147" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F147" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G147" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I147" t="s">
@@ -8078,19 +8078,19 @@
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B148" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F148" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G148" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I148" t="s">
@@ -8120,19 +8120,19 @@
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B149" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F149" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G149" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I149" t="s">
@@ -8162,19 +8162,19 @@
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B150" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F150" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G150" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I150" t="s">
@@ -8204,19 +8204,19 @@
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B151" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F151" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G151" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I151" t="s">
@@ -8246,19 +8246,19 @@
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B152" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F152" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G152" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I152" t="s">
@@ -8288,19 +8288,19 @@
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B153" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F153" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G153" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I153" t="s">
@@ -8330,19 +8330,19 @@
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B154" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F154" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G154" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I154" t="s">
@@ -8372,19 +8372,19 @@
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B155" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F155" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G155" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I155" t="s">
@@ -8414,19 +8414,19 @@
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B156" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F156" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G156" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I156" t="s">
@@ -8456,19 +8456,19 @@
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B157" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F157" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G157" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I157" t="s">
@@ -8498,19 +8498,19 @@
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B158" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F158" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G158" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I158" t="s">
@@ -8540,19 +8540,19 @@
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B159" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F159" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G159" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I159" t="s">
@@ -8582,19 +8582,19 @@
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B160" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F160" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G160" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I160" t="s">
@@ -8624,19 +8624,19 @@
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B161" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F161" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G161" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I161" t="s">
@@ -8666,19 +8666,19 @@
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B162" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F162" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G162" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I162" t="s">
@@ -8708,19 +8708,19 @@
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B163" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F163" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G163" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I163" t="s">
@@ -8750,19 +8750,19 @@
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B164" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F164" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G164" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I164" t="s">
@@ -8792,19 +8792,19 @@
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B165" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F165" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G165" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I165" t="s">
@@ -8834,19 +8834,19 @@
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B166" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F166" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G166" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I166" t="s">
@@ -8876,19 +8876,19 @@
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B167" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F167" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G167" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I167" t="s">
@@ -8918,19 +8918,19 @@
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B168" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F168" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G168" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I168" t="s">
@@ -8960,19 +8960,19 @@
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B169" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F169" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G169" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I169" t="s">
@@ -9002,19 +9002,19 @@
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B170" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F170" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G170" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I170" t="s">
@@ -9044,19 +9044,19 @@
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B171" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F171" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G171" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I171" t="s">
@@ -9086,19 +9086,19 @@
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B172" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F172" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G172" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I172" t="s">
@@ -9128,19 +9128,19 @@
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B173" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F173" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G173" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I173" t="s">
@@ -9170,19 +9170,19 @@
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B174" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F174" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G174" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I174" t="s">
@@ -9212,19 +9212,19 @@
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B175" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F175" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G175" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I175" t="s">
@@ -9254,19 +9254,19 @@
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B176" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F176" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G176" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I176" t="s">
@@ -9296,19 +9296,19 @@
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B177" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F177" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G177" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I177" t="s">
@@ -9338,19 +9338,19 @@
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B178" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F178" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G178" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I178" t="s">
@@ -9380,19 +9380,19 @@
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B179" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F179" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G179" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I179" t="s">
@@ -9422,19 +9422,19 @@
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B180" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F180" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G180" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I180" t="s">
@@ -9464,19 +9464,19 @@
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B181" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F181" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G181" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I181" t="s">
@@ -9506,19 +9506,19 @@
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B182" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F182" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G182" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I182" t="s">
@@ -9548,19 +9548,19 @@
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B183" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F183" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G183" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I183" t="s">
@@ -9590,19 +9590,19 @@
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B184" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F184" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G184" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I184" t="s">
@@ -9632,19 +9632,19 @@
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B185" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F185" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G185" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I185" t="s">
@@ -9674,19 +9674,19 @@
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B186" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F186" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G186" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I186" t="s">
@@ -9716,19 +9716,19 @@
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B187" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F187" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G187" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I187" t="s">
@@ -9758,19 +9758,19 @@
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B188" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F188" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G188" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I188" t="s">
@@ -9800,19 +9800,19 @@
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B189" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F189" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G189" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I189" t="s">
@@ -9842,19 +9842,19 @@
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B190" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F190" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G190" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I190" t="s">
@@ -9884,19 +9884,19 @@
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B191" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F191" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G191" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I191" t="s">
@@ -9926,19 +9926,19 @@
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B192" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F192" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G192" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I192" t="s">
@@ -9968,19 +9968,19 @@
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B193" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F193" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G193" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I193" t="s">
@@ -10010,19 +10010,19 @@
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B194" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F194" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G194" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I194" t="s">
@@ -10052,19 +10052,19 @@
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B195" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F195" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G195" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I195" t="s">
@@ -10094,19 +10094,19 @@
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B196" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F196" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G196" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I196" t="s">
@@ -10136,19 +10136,19 @@
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B197" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F197" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G197" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I197" t="s">
@@ -10178,19 +10178,19 @@
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B198" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F198" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G198" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I198" t="s">
@@ -10220,19 +10220,19 @@
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
-        <f t="shared" ref="A199:A249" si="18">A198</f>
+        <f t="shared" ref="A199:A249" si="19">A198</f>
         <v>1</v>
       </c>
       <c r="B199" s="6">
-        <f t="shared" ref="B199:B249" si="19">B198</f>
+        <f t="shared" ref="B199:B249" si="20">B198</f>
         <v>10</v>
       </c>
       <c r="F199" s="6" t="str">
-        <f t="shared" ref="F199:F249" si="20">F198</f>
+        <f t="shared" ref="F199:F249" si="21">F198</f>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G199" s="6" t="str">
-        <f t="shared" ref="G199:G249" si="21">G198</f>
+        <f t="shared" ref="G199:G249" si="22">G198</f>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I199" t="s">
@@ -10262,19 +10262,19 @@
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B200" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F200" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G200" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I200" t="s">
@@ -10304,19 +10304,19 @@
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B201" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F201" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G201" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I201" t="s">
@@ -10346,19 +10346,19 @@
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B202" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F202" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G202" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I202" t="s">
@@ -10388,19 +10388,19 @@
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B203" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F203" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G203" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I203" t="s">
@@ -10430,19 +10430,19 @@
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B204" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F204" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G204" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I204" t="s">
@@ -10472,19 +10472,19 @@
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B205" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F205" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G205" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I205" t="s">
@@ -10514,19 +10514,19 @@
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B206" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F206" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G206" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I206" t="s">
@@ -10556,19 +10556,19 @@
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B207" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F207" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G207" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I207" t="s">
@@ -10598,19 +10598,19 @@
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B208" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F208" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G208" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I208" t="s">
@@ -10640,19 +10640,19 @@
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B209" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F209" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G209" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I209" t="s">
@@ -10682,19 +10682,19 @@
     </row>
     <row r="210" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B210" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F210" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G210" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I210" t="s">
@@ -10724,19 +10724,19 @@
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B211" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F211" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G211" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I211" t="s">
@@ -10766,19 +10766,19 @@
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B212" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F212" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G212" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I212" t="s">
@@ -10808,19 +10808,19 @@
     </row>
     <row r="213" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B213" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F213" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G213" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I213" t="s">
@@ -10850,19 +10850,19 @@
     </row>
     <row r="214" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B214" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F214" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G214" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I214" t="s">
@@ -10892,19 +10892,19 @@
     </row>
     <row r="215" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B215" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F215" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G215" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I215" t="s">
@@ -10934,19 +10934,19 @@
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B216" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F216" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G216" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I216" t="s">
@@ -10976,19 +10976,19 @@
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B217" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F217" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G217" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I217" t="s">
@@ -11018,19 +11018,19 @@
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B218" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F218" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G218" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I218" t="s">
@@ -11060,19 +11060,19 @@
     </row>
     <row r="219" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B219" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F219" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G219" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I219" t="s">
@@ -11102,19 +11102,19 @@
     </row>
     <row r="220" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B220" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F220" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G220" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I220" t="s">
@@ -11144,19 +11144,19 @@
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B221" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F221" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G221" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I221" t="s">
@@ -11186,19 +11186,19 @@
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B222" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F222" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G222" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I222" t="s">
@@ -11228,19 +11228,19 @@
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B223" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F223" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G223" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I223" t="s">
@@ -11270,19 +11270,19 @@
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B224" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F224" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G224" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I224" t="s">
@@ -11312,19 +11312,19 @@
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B225" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F225" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G225" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I225" t="s">
@@ -11354,19 +11354,19 @@
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B226" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F226" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G226" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I226" t="s">
@@ -11396,19 +11396,19 @@
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B227" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F227" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G227" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I227" t="s">
@@ -11438,19 +11438,19 @@
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B228" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F228" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G228" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I228" t="s">
@@ -11480,19 +11480,19 @@
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B229" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F229" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G229" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I229" t="s">
@@ -11522,19 +11522,19 @@
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B230" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F230" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G230" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I230" t="s">
@@ -11564,19 +11564,19 @@
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B231" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F231" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G231" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I231" t="s">
@@ -11606,19 +11606,19 @@
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B232" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F232" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G232" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I232" t="s">
@@ -11648,19 +11648,19 @@
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B233" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F233" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G233" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I233" t="s">
@@ -11690,19 +11690,19 @@
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B234" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F234" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G234" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I234" t="s">
@@ -11732,19 +11732,19 @@
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B235" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F235" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G235" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I235" t="s">
@@ -11774,19 +11774,19 @@
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B236" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F236" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G236" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I236" t="s">
@@ -11816,19 +11816,19 @@
     </row>
     <row r="237" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B237" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F237" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G237" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I237" t="s">
@@ -11858,19 +11858,19 @@
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B238" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F238" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G238" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I238" t="s">
@@ -11900,19 +11900,19 @@
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B239" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F239" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G239" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I239" t="s">
@@ -11942,19 +11942,19 @@
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B240" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F240" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G240" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I240" t="s">
@@ -11984,19 +11984,19 @@
     </row>
     <row r="241" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B241" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F241" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G241" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I241" t="s">
@@ -12026,19 +12026,19 @@
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B242" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F242" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G242" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I242" t="s">
@@ -12068,19 +12068,19 @@
     </row>
     <row r="243" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B243" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F243" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G243" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I243" t="s">
@@ -12110,19 +12110,19 @@
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B244" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F244" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G244" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I244" t="s">
@@ -12152,19 +12152,19 @@
     </row>
     <row r="245" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B245" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F245" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G245" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I245" t="s">
@@ -12194,19 +12194,19 @@
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B246" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F246" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G246" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I246" t="s">
@@ -12236,19 +12236,19 @@
     </row>
     <row r="247" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B247" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F247" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G247" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I247" t="s">
@@ -12278,19 +12278,19 @@
     </row>
     <row r="248" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B248" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F248" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G248" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I248" t="s">
@@ -12320,19 +12320,19 @@
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="B249" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F249" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G249" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>['netzero_9_imagine']</v>
       </c>
       <c r="I249" t="s">

--- a/input/g_filter.xlsx
+++ b/input/g_filter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DDPTemplateAutomationV2\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616FC4F8-AFE8-4311-8F2C-3DCB8A91BA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF75356E-66EA-4877-AC3F-0FC30C44BBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
     <author>Joseph Masenda</author>
   </authors>
   <commentList>
-    <comment ref="H487" authorId="0" shapeId="0" xr:uid="{37BFBA4E-EF15-4B07-92FA-626630E25285}">
+    <comment ref="H488" authorId="0" shapeId="0" xr:uid="{37BFBA4E-EF15-4B07-92FA-626630E25285}">
       <text>
         <r>
           <rPr>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3150" uniqueCount="100">
   <si>
     <t>WorkbookID</t>
   </si>
@@ -283,9 +283,6 @@
     <t>['FreightRail', 'FreightRoad', 'FreightPip']</t>
   </si>
   <si>
-    <t>['Ammonia', 'Chemicals33', 'FuelCells', 'Iron_Steel351', 'NMMProducts34','FerroAlloys', 'Electrolysers', Pulp_Paper323', Aluminium35220]</t>
-  </si>
-  <si>
     <t>['Mining2', 'PGM', 'PNFMetals352', 'Food_Bev_Tob30', 'IndOther']</t>
   </si>
   <si>
@@ -325,9 +322,6 @@
     <t>['Power']</t>
   </si>
   <si>
-    <t>q</t>
-  </si>
-  <si>
     <t>ETRANS</t>
   </si>
   <si>
@@ -347,12 +341,6 @@
   </si>
   <si>
     <t>['ECoal_Existing', 'AutoGen-Chemical-Coal', 'AutoGen-EnergySupply-Coal']</t>
-  </si>
-  <si>
-    <t>['EGas_Existing', 'AutoGen-Chemical-Gas', 'AutoGen-EnergySupply-Gas']</t>
-  </si>
-  <si>
-    <t>['Ebattery', 'Ehydrogen', 'EPumpStorage']</t>
   </si>
   <si>
     <t>EHydrogen</t>
@@ -394,10 +382,28 @@
     <t>['Electricity']</t>
   </si>
   <si>
-    <t>['ECoal', 'AutoGen-Chemical', 'AutoGen-Supply']</t>
+    <t>['ECoal', 'AutoGen-Chemical', 'AutoGen-EnergySupply']</t>
   </si>
   <si>
-    <t>['EGas', 'AutoGen-Chemical', 'AutoGen-Supply']</t>
+    <t>['EGas', 'AutoGen-Chemical', 'AutoGen-EnergySupply']</t>
+  </si>
+  <si>
+    <t>['EGas', 'AutoGen-Chemical-Gas', 'AutoGen-EnergySupply-Gas']</t>
+  </si>
+  <si>
+    <t>['EGas_CCS']</t>
+  </si>
+  <si>
+    <t>['Ammonia', 'Chemicals33', 'FuelCells', 'Iron_Steel351', 'NMMProducts34','FerroAlloys', 'Electrolysers', Pulp_Paper323', 'NMMGlass', 'Aluminium35220']</t>
+  </si>
+  <si>
+    <t>['EBattery', 'EHydrogen', 'EPumpStorage']</t>
+  </si>
+  <si>
+    <t>['ETRANSDUM']</t>
+  </si>
+  <si>
+    <t>['ACTGRP']</t>
   </si>
 </sst>
 </file>
@@ -19273,13 +19279,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E315B7-6BA4-4849-9C2A-6D0381C907C8}">
-  <dimension ref="A1:U557"/>
+  <dimension ref="A1:U558"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19290,8 +19296,8 @@
     <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27" customWidth="1"/>
+    <col min="11" max="11" width="55.28515625" customWidth="1"/>
+    <col min="12" max="12" width="80.42578125" customWidth="1"/>
     <col min="18" max="18" width="14.85546875" customWidth="1"/>
     <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -19373,10 +19379,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>22</v>
@@ -19385,13 +19391,13 @@
         <v>23</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>21</v>
@@ -19415,7 +19421,7 @@
         <v>21</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>21</v>
@@ -19429,7 +19435,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <f t="shared" ref="A3:B41" si="0">A$2</f>
+        <f t="shared" ref="A3:B42" si="0">A$2</f>
         <v>1</v>
       </c>
       <c r="B3" s="6">
@@ -19446,7 +19452,7 @@
         <v>21</v>
       </c>
       <c r="F3" s="6" t="str">
-        <f t="shared" ref="F3:G41" si="1">F$2</f>
+        <f t="shared" ref="F3:G42" si="1">F$2</f>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G3" s="6" t="str">
@@ -19487,7 +19493,7 @@
         <v>21</v>
       </c>
       <c r="S3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T3" t="s">
         <v>21</v>
@@ -19556,7 +19562,7 @@
         <v>21</v>
       </c>
       <c r="S4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T4" t="s">
         <v>21</v>
@@ -19598,7 +19604,7 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s">
         <v>21</v>
@@ -19625,7 +19631,7 @@
         <v>21</v>
       </c>
       <c r="S5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T5" t="s">
         <v>21</v>
@@ -19667,7 +19673,7 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
@@ -19694,7 +19700,7 @@
         <v>21</v>
       </c>
       <c r="S6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T6" t="s">
         <v>21</v>
@@ -19736,34 +19742,34 @@
         <v>21</v>
       </c>
       <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" t="s">
         <v>91</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R7" t="s">
-        <v>21</v>
-      </c>
-      <c r="S7" t="s">
-        <v>95</v>
       </c>
       <c r="T7" t="s">
         <v>21</v>
@@ -19805,34 +19811,34 @@
         <v>21</v>
       </c>
       <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" t="s">
         <v>91</v>
-      </c>
-      <c r="K8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>21</v>
-      </c>
-      <c r="R8" t="s">
-        <v>21</v>
-      </c>
-      <c r="S8" t="s">
-        <v>95</v>
       </c>
       <c r="T8" t="s">
         <v>21</v>
@@ -19874,7 +19880,7 @@
         <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s">
         <v>21</v>
@@ -19901,7 +19907,7 @@
         <v>21</v>
       </c>
       <c r="S9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T9" t="s">
         <v>21</v>
@@ -19943,7 +19949,7 @@
         <v>21</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>21</v>
@@ -19970,7 +19976,7 @@
         <v>21</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T10" s="8" t="s">
         <v>21</v>
@@ -20012,14 +20018,14 @@
         <v>21</v>
       </c>
       <c r="J11" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>74</v>
-      </c>
       <c r="M11" s="11" t="s">
         <v>21</v>
       </c>
@@ -20045,7 +20051,7 @@
         <v>21</v>
       </c>
       <c r="U11" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -20081,13 +20087,13 @@
         <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M12" t="s">
         <v>21</v>
@@ -20108,7 +20114,7 @@
         <v>21</v>
       </c>
       <c r="S12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T12" t="s">
         <v>21</v>
@@ -20150,10 +20156,10 @@
         <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L13" t="s">
         <v>21</v>
@@ -20177,7 +20183,7 @@
         <v>21</v>
       </c>
       <c r="S13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T13" t="s">
         <v>21</v>
@@ -20219,13 +20225,13 @@
         <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L14" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="M14" t="s">
         <v>21</v>
@@ -20246,7 +20252,7 @@
         <v>21</v>
       </c>
       <c r="S14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T14" t="s">
         <v>21</v>
@@ -20288,10 +20294,10 @@
         <v>21</v>
       </c>
       <c r="J15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L15" t="s">
         <v>21</v>
@@ -20315,7 +20321,7 @@
         <v>21</v>
       </c>
       <c r="S15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T15" t="s">
         <v>21</v>
@@ -20357,10 +20363,10 @@
         <v>21</v>
       </c>
       <c r="J16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L16" t="s">
         <v>21</v>
@@ -20384,7 +20390,7 @@
         <v>21</v>
       </c>
       <c r="S16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T16" t="s">
         <v>21</v>
@@ -20426,10 +20432,10 @@
         <v>21</v>
       </c>
       <c r="J17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L17" t="s">
         <v>21</v>
@@ -20453,7 +20459,7 @@
         <v>21</v>
       </c>
       <c r="S17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T17" t="s">
         <v>21</v>
@@ -20495,10 +20501,10 @@
         <v>21</v>
       </c>
       <c r="J18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L18" t="s">
         <v>21</v>
@@ -20522,7 +20528,7 @@
         <v>21</v>
       </c>
       <c r="S18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T18" t="s">
         <v>21</v>
@@ -20564,10 +20570,10 @@
         <v>21</v>
       </c>
       <c r="J19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L19" t="s">
         <v>21</v>
@@ -20591,7 +20597,7 @@
         <v>21</v>
       </c>
       <c r="S19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T19" t="s">
         <v>21</v>
@@ -20633,13 +20639,13 @@
         <v>21</v>
       </c>
       <c r="J20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M20" t="s">
         <v>21</v>
@@ -20660,7 +20666,7 @@
         <v>21</v>
       </c>
       <c r="S20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T20" t="s">
         <v>21</v>
@@ -20702,13 +20708,13 @@
         <v>21</v>
       </c>
       <c r="J21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M21" t="s">
         <v>21</v>
@@ -20729,7 +20735,7 @@
         <v>21</v>
       </c>
       <c r="S21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T21" t="s">
         <v>21</v>
@@ -20771,10 +20777,10 @@
         <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L22" t="s">
         <v>21</v>
@@ -20798,7 +20804,7 @@
         <v>21</v>
       </c>
       <c r="S22" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T22" t="s">
         <v>21</v>
@@ -20840,10 +20846,10 @@
         <v>21</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>21</v>
@@ -20867,7 +20873,7 @@
         <v>21</v>
       </c>
       <c r="S23" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T23" s="8" t="s">
         <v>21</v>
@@ -20909,13 +20915,13 @@
         <v>21</v>
       </c>
       <c r="J24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K24" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M24" t="s">
         <v>21</v>
@@ -20978,13 +20984,13 @@
         <v>21</v>
       </c>
       <c r="J25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L25" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="M25" t="s">
         <v>21</v>
@@ -21024,7 +21030,7 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -21047,10 +21053,10 @@
         <v>21</v>
       </c>
       <c r="J26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K26" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="L26" t="s">
         <v>21</v>
@@ -21083,280 +21089,280 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C27" s="11">
-        <v>79</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="10" t="str">
+      <c r="C27">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="6" t="str">
         <f t="shared" si="1"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
-      <c r="G27" s="10" t="str">
+      <c r="G27" s="6" t="str">
         <f t="shared" si="1"/>
         <v>['netzero_9_imagine']</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="P27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="T27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="U27" s="11" t="s">
+      <c r="H27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>21</v>
+      </c>
+      <c r="R27" t="s">
+        <v>21</v>
+      </c>
+      <c r="S27" t="s">
+        <v>21</v>
+      </c>
+      <c r="T27" t="s">
+        <v>21</v>
+      </c>
+      <c r="U27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+    <row r="28" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C28">
-        <v>81</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="6" t="str">
+      <c r="C28" s="11">
+        <v>79</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="10" t="str">
         <f t="shared" si="1"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
-      <c r="G28" s="6" t="str">
+      <c r="G28" s="10" t="str">
         <f t="shared" si="1"/>
         <v>['netzero_9_imagine']</v>
       </c>
-      <c r="H28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" t="s">
-        <v>72</v>
-      </c>
-      <c r="K28" t="s">
-        <v>62</v>
-      </c>
-      <c r="L28" t="s">
-        <v>21</v>
-      </c>
-      <c r="M28" t="s">
-        <v>21</v>
-      </c>
-      <c r="N28" t="s">
-        <v>21</v>
-      </c>
-      <c r="O28" t="s">
-        <v>21</v>
-      </c>
-      <c r="P28" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>21</v>
-      </c>
-      <c r="R28" t="s">
-        <v>21</v>
-      </c>
-      <c r="S28" t="s">
-        <v>21</v>
-      </c>
-      <c r="T28" t="s">
-        <v>21</v>
-      </c>
-      <c r="U28" t="s">
+      <c r="H28" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="U28" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C29" s="8">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="9" t="str">
+      <c r="C29">
+        <v>81</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="6" t="str">
         <f t="shared" si="1"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
-      <c r="G29" s="9" t="str">
+      <c r="G29" s="6" t="str">
         <f t="shared" si="1"/>
         <v>['netzero_9_imagine']</v>
       </c>
-      <c r="H29" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="P29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="R29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="S29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="T29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="U29" s="8" t="s">
+      <c r="H29" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>71</v>
+      </c>
+      <c r="K29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R29" t="s">
+        <v>21</v>
+      </c>
+      <c r="S29" t="s">
+        <v>21</v>
+      </c>
+      <c r="T29" t="s">
+        <v>21</v>
+      </c>
+      <c r="U29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+    <row r="30" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C30">
-        <v>91</v>
-      </c>
-      <c r="D30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="6" t="str">
+      <c r="C30" s="8">
+        <v>82</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="9" t="str">
         <f t="shared" si="1"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
-      <c r="G30" s="6" t="str">
+      <c r="G30" s="9" t="str">
         <f t="shared" si="1"/>
         <v>['netzero_9_imagine']</v>
       </c>
-      <c r="H30" t="s">
-        <v>34</v>
-      </c>
-      <c r="I30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" t="s">
-        <v>72</v>
-      </c>
-      <c r="K30" t="s">
-        <v>96</v>
-      </c>
-      <c r="L30" t="s">
-        <v>80</v>
-      </c>
-      <c r="M30" t="s">
-        <v>21</v>
-      </c>
-      <c r="N30" t="s">
-        <v>21</v>
-      </c>
-      <c r="O30" t="s">
-        <v>21</v>
-      </c>
-      <c r="P30" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R30" t="s">
-        <v>21</v>
-      </c>
-      <c r="S30" t="s">
-        <v>21</v>
-      </c>
-      <c r="T30" t="s">
-        <v>21</v>
-      </c>
-      <c r="U30" t="s">
-        <v>78</v>
+      <c r="H30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="U30" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -21369,7 +21375,7 @@
         <v>24</v>
       </c>
       <c r="C31">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
@@ -21392,13 +21398,13 @@
         <v>21</v>
       </c>
       <c r="J31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K31" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="L31" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="M31" t="s">
         <v>21</v>
@@ -21425,7 +21431,7 @@
         <v>21</v>
       </c>
       <c r="U31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -21438,7 +21444,7 @@
         <v>24</v>
       </c>
       <c r="C32">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
         <v>21</v>
@@ -21461,13 +21467,13 @@
         <v>21</v>
       </c>
       <c r="J32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K32" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="L32" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="M32" t="s">
         <v>21</v>
@@ -21494,7 +21500,7 @@
         <v>21</v>
       </c>
       <c r="U32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -21507,7 +21513,7 @@
         <v>24</v>
       </c>
       <c r="C33">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
@@ -21530,13 +21536,13 @@
         <v>21</v>
       </c>
       <c r="J33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K33" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="L33" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="M33" t="s">
         <v>21</v>
@@ -21563,7 +21569,7 @@
         <v>21</v>
       </c>
       <c r="U33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -21576,7 +21582,7 @@
         <v>24</v>
       </c>
       <c r="C34">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
@@ -21599,10 +21605,10 @@
         <v>21</v>
       </c>
       <c r="J34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L34" t="s">
         <v>21</v>
@@ -21632,7 +21638,7 @@
         <v>21</v>
       </c>
       <c r="U34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -21645,7 +21651,7 @@
         <v>24</v>
       </c>
       <c r="C35">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
         <v>21</v>
@@ -21668,10 +21674,10 @@
         <v>21</v>
       </c>
       <c r="J35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L35" t="s">
         <v>21</v>
@@ -21701,7 +21707,7 @@
         <v>21</v>
       </c>
       <c r="U35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -21714,7 +21720,7 @@
         <v>24</v>
       </c>
       <c r="C36">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
         <v>21</v>
@@ -21737,10 +21743,10 @@
         <v>21</v>
       </c>
       <c r="J36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L36" t="s">
         <v>21</v>
@@ -21770,7 +21776,7 @@
         <v>21</v>
       </c>
       <c r="U36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -21783,7 +21789,7 @@
         <v>24</v>
       </c>
       <c r="C37">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D37" t="s">
         <v>21</v>
@@ -21806,10 +21812,10 @@
         <v>21</v>
       </c>
       <c r="J37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L37" t="s">
         <v>21</v>
@@ -21839,7 +21845,7 @@
         <v>21</v>
       </c>
       <c r="U37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -21852,7 +21858,7 @@
         <v>24</v>
       </c>
       <c r="C38">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s">
         <v>21</v>
@@ -21875,40 +21881,40 @@
         <v>21</v>
       </c>
       <c r="J38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K38" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="L38" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O38" t="s">
+        <v>21</v>
+      </c>
+      <c r="P38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>21</v>
+      </c>
+      <c r="R38" t="s">
+        <v>21</v>
+      </c>
+      <c r="S38" t="s">
+        <v>21</v>
+      </c>
+      <c r="T38" t="s">
+        <v>21</v>
+      </c>
+      <c r="U38" t="s">
         <v>76</v>
-      </c>
-      <c r="M38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N38" t="s">
-        <v>21</v>
-      </c>
-      <c r="O38" t="s">
-        <v>21</v>
-      </c>
-      <c r="P38" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>21</v>
-      </c>
-      <c r="R38" t="s">
-        <v>21</v>
-      </c>
-      <c r="S38" t="s">
-        <v>21</v>
-      </c>
-      <c r="T38" t="s">
-        <v>21</v>
-      </c>
-      <c r="U38" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
@@ -21921,7 +21927,7 @@
         <v>24</v>
       </c>
       <c r="C39">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
         <v>21</v>
@@ -21944,13 +21950,13 @@
         <v>21</v>
       </c>
       <c r="J39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K39" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="L39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M39" t="s">
         <v>21</v>
@@ -21977,7 +21983,7 @@
         <v>21</v>
       </c>
       <c r="U39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -21990,7 +21996,7 @@
         <v>24</v>
       </c>
       <c r="C40">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D40" t="s">
         <v>21</v>
@@ -22013,13 +22019,13 @@
         <v>21</v>
       </c>
       <c r="J40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L40" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="M40" t="s">
         <v>21</v>
@@ -22046,150 +22052,150 @@
         <v>21</v>
       </c>
       <c r="U40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41">
+        <v>103</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>[2020, 2030, 2040, 2050]</v>
+      </c>
+      <c r="G41" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>['netzero_9_imagine']</v>
+      </c>
+      <c r="H41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>71</v>
+      </c>
+      <c r="K41" t="s">
+        <v>68</v>
+      </c>
+      <c r="L41" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41" t="s">
+        <v>21</v>
+      </c>
+      <c r="O41" t="s">
+        <v>21</v>
+      </c>
+      <c r="P41" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>21</v>
+      </c>
+      <c r="R41" t="s">
+        <v>21</v>
+      </c>
+      <c r="S41" t="s">
+        <v>21</v>
+      </c>
+      <c r="T41" t="s">
+        <v>21</v>
+      </c>
+      <c r="U41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B42" s="9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C42" s="8">
         <v>106</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="9" t="str">
+      <c r="D42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="9" t="str">
         <f t="shared" si="1"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
-      <c r="G41" s="9" t="str">
+      <c r="G42" s="9" t="str">
         <f t="shared" si="1"/>
         <v>['netzero_9_imagine']</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H42" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="O41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="P41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="R41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="S41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="T41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="U41" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
-        <f t="shared" ref="A42:B63" si="2">A$2</f>
-        <v>1</v>
-      </c>
-      <c r="B42" s="6">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="C42">
-        <v>146</v>
-      </c>
-      <c r="D42" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="6" t="str">
-        <f t="shared" ref="F42:G63" si="3">F$2</f>
-        <v>[2020, 2030, 2040, 2050]</v>
-      </c>
-      <c r="G42" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>['netzero_9_imagine']</v>
-      </c>
-      <c r="H42" t="s">
-        <v>26</v>
-      </c>
-      <c r="I42" t="s">
-        <v>21</v>
-      </c>
-      <c r="J42" t="s">
-        <v>72</v>
-      </c>
-      <c r="K42" t="s">
-        <v>21</v>
-      </c>
-      <c r="L42" t="s">
-        <v>21</v>
-      </c>
-      <c r="M42" t="s">
-        <v>21</v>
-      </c>
-      <c r="N42" t="s">
-        <v>21</v>
-      </c>
-      <c r="O42" t="s">
-        <v>21</v>
-      </c>
-      <c r="P42" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>21</v>
-      </c>
-      <c r="R42" t="s">
-        <v>21</v>
-      </c>
-      <c r="S42" t="s">
-        <v>84</v>
-      </c>
-      <c r="T42" t="s">
-        <v>21</v>
-      </c>
-      <c r="U42" t="s">
-        <v>25</v>
+      <c r="I42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="U42" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A43:B64" si="2">A$2</f>
         <v>1</v>
       </c>
       <c r="B43" s="6">
@@ -22197,7 +22203,7 @@
         <v>24</v>
       </c>
       <c r="C43">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D43" t="s">
         <v>21</v>
@@ -22206,7 +22212,7 @@
         <v>21</v>
       </c>
       <c r="F43" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F43:G64" si="3">F$2</f>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G43" s="6" t="str">
@@ -22220,7 +22226,7 @@
         <v>21</v>
       </c>
       <c r="J43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K43" t="s">
         <v>21</v>
@@ -22247,7 +22253,7 @@
         <v>21</v>
       </c>
       <c r="S43" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="T43" t="s">
         <v>21</v>
@@ -22266,7 +22272,7 @@
         <v>24</v>
       </c>
       <c r="C44">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D44" t="s">
         <v>21</v>
@@ -22289,7 +22295,7 @@
         <v>21</v>
       </c>
       <c r="J44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K44" t="s">
         <v>21</v>
@@ -22316,7 +22322,7 @@
         <v>21</v>
       </c>
       <c r="S44" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="T44" t="s">
         <v>21</v>
@@ -22335,7 +22341,7 @@
         <v>24</v>
       </c>
       <c r="C45">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D45" t="s">
         <v>21</v>
@@ -22358,7 +22364,7 @@
         <v>21</v>
       </c>
       <c r="J45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K45" t="s">
         <v>21</v>
@@ -22385,7 +22391,7 @@
         <v>21</v>
       </c>
       <c r="S45" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="T45" t="s">
         <v>21</v>
@@ -22394,160 +22400,211 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="6">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="C46" s="8">
-        <v>152</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" s="9" t="str">
+      <c r="C46">
+        <v>151</v>
+      </c>
+      <c r="D46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="6" t="str">
         <f t="shared" si="3"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
-      <c r="G46" s="9" t="str">
+      <c r="G46" s="6" t="str">
         <f t="shared" si="3"/>
         <v>['netzero_9_imagine']</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="H46" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K46" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L46" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N46" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="O46" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="P46" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q46" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="R46" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="S46" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="T46" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="U46" s="8" t="s">
+      <c r="I46" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" t="s">
+        <v>71</v>
+      </c>
+      <c r="K46" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46" t="s">
+        <v>21</v>
+      </c>
+      <c r="N46" t="s">
+        <v>21</v>
+      </c>
+      <c r="O46" t="s">
+        <v>21</v>
+      </c>
+      <c r="P46" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>21</v>
+      </c>
+      <c r="R46" t="s">
+        <v>21</v>
+      </c>
+      <c r="S46" t="s">
+        <v>83</v>
+      </c>
+      <c r="T46" t="s">
+        <v>21</v>
+      </c>
+      <c r="U46" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
+    <row r="47" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="9">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="C47" s="11">
-        <v>157</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" s="10" t="str">
+      <c r="C47" s="8">
+        <v>152</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="9" t="str">
         <f t="shared" si="3"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
-      <c r="G47" s="10" t="str">
+      <c r="G47" s="9" t="str">
         <f t="shared" si="3"/>
         <v>['netzero_9_imagine']</v>
       </c>
-      <c r="H47" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L47" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M47" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N47" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O47" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="P47" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q47" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R47" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S47" s="11" t="s">
+      <c r="H47" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S47" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="T47" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="U47" s="11" t="s">
+      <c r="T47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="U47" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
+    <row r="48" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="10">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="F48" s="6" t="str">
+      <c r="C48" s="11">
+        <v>157</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="10" t="str">
         <f t="shared" si="3"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
-      <c r="G48" s="6" t="str">
+      <c r="G48" s="10" t="str">
         <f t="shared" si="3"/>
         <v>['netzero_9_imagine']</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S48" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="T48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="U48" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -22822,25 +22879,25 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <f t="shared" ref="A64:B95" si="4">A$2</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="B64" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="F64" s="6" t="str">
-        <f t="shared" ref="F64:G95" si="5">F$2</f>
+        <f t="shared" si="3"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G64" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>['netzero_9_imagine']</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A65:B96" si="4">A$2</f>
         <v>1</v>
       </c>
       <c r="B65" s="6">
@@ -22848,7 +22905,7 @@
         <v>24</v>
       </c>
       <c r="F65" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F65:G96" si="5">F$2</f>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G65" s="6" t="str">
@@ -23398,25 +23455,25 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
-        <f t="shared" ref="A96:B127" si="6">A$2</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B96" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="F96" s="6" t="str">
-        <f t="shared" ref="F96:G127" si="7">F$2</f>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G96" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>['netzero_9_imagine']</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A97:B128" si="6">A$2</f>
         <v>1</v>
       </c>
       <c r="B97" s="6">
@@ -23424,7 +23481,7 @@
         <v>24</v>
       </c>
       <c r="F97" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F97:G128" si="7">F$2</f>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G97" s="6" t="str">
@@ -23974,25 +24031,25 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
-        <f t="shared" ref="A128:B159" si="8">A$2</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="B128" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="F128" s="6" t="str">
-        <f t="shared" ref="F128:G159" si="9">F$2</f>
+        <f t="shared" si="7"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G128" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>['netzero_9_imagine']</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="A129:B160" si="8">A$2</f>
         <v>1</v>
       </c>
       <c r="B129" s="6">
@@ -24000,7 +24057,7 @@
         <v>24</v>
       </c>
       <c r="F129" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="F129:G160" si="9">F$2</f>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G129" s="6" t="str">
@@ -24550,25 +24607,25 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
-        <f t="shared" ref="A160:B191" si="10">A$2</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B160" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="F160" s="6" t="str">
-        <f t="shared" ref="F160:G191" si="11">F$2</f>
+        <f t="shared" si="9"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G160" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>['netzero_9_imagine']</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="A161:B192" si="10">A$2</f>
         <v>1</v>
       </c>
       <c r="B161" s="6">
@@ -24576,7 +24633,7 @@
         <v>24</v>
       </c>
       <c r="F161" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="F161:G192" si="11">F$2</f>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G161" s="6" t="str">
@@ -25126,25 +25183,25 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
-        <f t="shared" ref="A192:B213" si="12">A$2</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="B192" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="F192" s="6" t="str">
-        <f t="shared" ref="F192:G213" si="13">F$2</f>
+        <f t="shared" si="11"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G192" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>['netzero_9_imagine']</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="A193:B214" si="12">A$2</f>
         <v>1</v>
       </c>
       <c r="B193" s="6">
@@ -25152,7 +25209,7 @@
         <v>24</v>
       </c>
       <c r="F193" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="F193:G214" si="13">F$2</f>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G193" s="6" t="str">
@@ -25520,40 +25577,35 @@
         <v>['netzero_9_imagine']</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A266" s="1"/>
-      <c r="B266" s="1"/>
-      <c r="C266" s="1"/>
-      <c r="D266" s="1"/>
-      <c r="E266" s="1"/>
-      <c r="F266" s="1"/>
-      <c r="G266" s="2"/>
-      <c r="H266" s="2"/>
-      <c r="I266" s="1"/>
-      <c r="J266" s="2"/>
-      <c r="K266" s="2"/>
-      <c r="L266" s="2"/>
-      <c r="M266" s="1"/>
-      <c r="N266" s="1"/>
-      <c r="O266" s="1"/>
-      <c r="P266" s="1"/>
-      <c r="Q266" s="1"/>
-      <c r="R266" s="1"/>
-      <c r="S266" s="1"/>
-      <c r="T266" s="1"/>
-      <c r="U266" s="3"/>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="B214" s="6">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="F214" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>[2020, 2030, 2040, 2050]</v>
+      </c>
+      <c r="G214" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>['netzero_9_imagine']</v>
+      </c>
     </row>
     <row r="267" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
-      <c r="E267" s="3"/>
+      <c r="E267" s="1"/>
       <c r="F267" s="1"/>
       <c r="G267" s="2"/>
       <c r="H267" s="2"/>
       <c r="I267" s="1"/>
-      <c r="J267" s="1"/>
+      <c r="J267" s="2"/>
       <c r="K267" s="2"/>
       <c r="L267" s="2"/>
       <c r="M267" s="1"/>
@@ -25564,168 +25616,168 @@
       <c r="R267" s="1"/>
       <c r="S267" s="1"/>
       <c r="T267" s="1"/>
-      <c r="U267" s="1"/>
+      <c r="U267" s="3"/>
     </row>
     <row r="268" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
-      <c r="B268" s="3"/>
-      <c r="C268" s="3"/>
-      <c r="D268" s="3"/>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
       <c r="E268" s="3"/>
-      <c r="F268" s="3"/>
-      <c r="G268" s="4"/>
-      <c r="H268" s="4"/>
-      <c r="I268" s="3"/>
-      <c r="J268" s="3"/>
-      <c r="K268" s="3"/>
-      <c r="L268" s="4"/>
-      <c r="M268" s="3"/>
-      <c r="N268" s="3"/>
-      <c r="O268" s="3"/>
-      <c r="P268" s="3"/>
-      <c r="Q268" s="3"/>
-      <c r="R268" s="3"/>
-      <c r="S268" s="4"/>
-      <c r="T268" s="3"/>
-      <c r="U268" s="3"/>
+      <c r="F268" s="1"/>
+      <c r="G268" s="2"/>
+      <c r="H268" s="2"/>
+      <c r="I268" s="1"/>
+      <c r="J268" s="1"/>
+      <c r="K268" s="2"/>
+      <c r="L268" s="2"/>
+      <c r="M268" s="1"/>
+      <c r="N268" s="1"/>
+      <c r="O268" s="1"/>
+      <c r="P268" s="1"/>
+      <c r="Q268" s="1"/>
+      <c r="R268" s="1"/>
+      <c r="S268" s="1"/>
+      <c r="T268" s="1"/>
+      <c r="U268" s="1"/>
     </row>
     <row r="269" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
-      <c r="B269" s="1"/>
-      <c r="C269" s="1"/>
-      <c r="D269" s="1"/>
-      <c r="E269" s="1"/>
-      <c r="F269" s="1"/>
-      <c r="G269" s="2"/>
-      <c r="H269" s="2"/>
-      <c r="I269" s="1"/>
-      <c r="J269" s="1"/>
-      <c r="K269" s="4"/>
-      <c r="L269" s="2"/>
-      <c r="M269" s="1"/>
-      <c r="N269" s="1"/>
-      <c r="O269" s="1"/>
-      <c r="P269" s="1"/>
-      <c r="Q269" s="1"/>
-      <c r="R269" s="1"/>
-      <c r="S269" s="2"/>
-      <c r="T269" s="1"/>
-      <c r="U269" s="1"/>
+      <c r="B269" s="3"/>
+      <c r="C269" s="3"/>
+      <c r="D269" s="3"/>
+      <c r="E269" s="3"/>
+      <c r="F269" s="3"/>
+      <c r="G269" s="4"/>
+      <c r="H269" s="4"/>
+      <c r="I269" s="3"/>
+      <c r="J269" s="3"/>
+      <c r="K269" s="3"/>
+      <c r="L269" s="4"/>
+      <c r="M269" s="3"/>
+      <c r="N269" s="3"/>
+      <c r="O269" s="3"/>
+      <c r="P269" s="3"/>
+      <c r="Q269" s="3"/>
+      <c r="R269" s="3"/>
+      <c r="S269" s="4"/>
+      <c r="T269" s="3"/>
+      <c r="U269" s="3"/>
     </row>
     <row r="270" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
-      <c r="B270" s="3"/>
-      <c r="C270" s="3"/>
-      <c r="D270" s="3"/>
-      <c r="E270" s="3"/>
-      <c r="F270" s="3"/>
-      <c r="G270" s="4"/>
-      <c r="H270" s="4"/>
-      <c r="I270" s="3"/>
-      <c r="J270" s="3"/>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+      <c r="E270" s="1"/>
+      <c r="F270" s="1"/>
+      <c r="G270" s="2"/>
+      <c r="H270" s="2"/>
+      <c r="I270" s="1"/>
+      <c r="J270" s="1"/>
       <c r="K270" s="4"/>
-      <c r="L270" s="4"/>
-      <c r="M270" s="3"/>
-      <c r="N270" s="3"/>
-      <c r="O270" s="3"/>
-      <c r="P270" s="3"/>
-      <c r="Q270" s="3"/>
-      <c r="R270" s="2"/>
-      <c r="S270" s="3"/>
-      <c r="T270" s="3"/>
-      <c r="U270" s="3"/>
+      <c r="L270" s="2"/>
+      <c r="M270" s="1"/>
+      <c r="N270" s="1"/>
+      <c r="O270" s="1"/>
+      <c r="P270" s="1"/>
+      <c r="Q270" s="1"/>
+      <c r="R270" s="1"/>
+      <c r="S270" s="2"/>
+      <c r="T270" s="1"/>
+      <c r="U270" s="1"/>
     </row>
     <row r="271" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
-      <c r="B271" s="1"/>
-      <c r="C271" s="1"/>
-      <c r="D271" s="1"/>
-      <c r="E271" s="1"/>
-      <c r="F271" s="1"/>
-      <c r="G271" s="2"/>
-      <c r="H271" s="2"/>
-      <c r="I271" s="1"/>
-      <c r="J271" s="1"/>
+      <c r="B271" s="3"/>
+      <c r="C271" s="3"/>
+      <c r="D271" s="3"/>
+      <c r="E271" s="3"/>
+      <c r="F271" s="3"/>
+      <c r="G271" s="4"/>
+      <c r="H271" s="4"/>
+      <c r="I271" s="3"/>
+      <c r="J271" s="3"/>
       <c r="K271" s="4"/>
-      <c r="L271" s="2"/>
-      <c r="M271" s="1"/>
-      <c r="N271" s="1"/>
-      <c r="O271" s="1"/>
-      <c r="P271" s="1"/>
-      <c r="Q271" s="1"/>
-      <c r="R271" s="1"/>
-      <c r="S271" s="2"/>
-      <c r="T271" s="1"/>
-      <c r="U271" s="1"/>
+      <c r="L271" s="4"/>
+      <c r="M271" s="3"/>
+      <c r="N271" s="3"/>
+      <c r="O271" s="3"/>
+      <c r="P271" s="3"/>
+      <c r="Q271" s="3"/>
+      <c r="R271" s="2"/>
+      <c r="S271" s="3"/>
+      <c r="T271" s="3"/>
+      <c r="U271" s="3"/>
     </row>
     <row r="272" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
-      <c r="B272" s="3"/>
-      <c r="C272" s="3"/>
-      <c r="D272" s="3"/>
-      <c r="E272" s="3"/>
-      <c r="F272" s="3"/>
-      <c r="G272" s="4"/>
-      <c r="H272" s="4"/>
-      <c r="I272" s="3"/>
-      <c r="J272" s="3"/>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
+      <c r="F272" s="1"/>
+      <c r="G272" s="2"/>
+      <c r="H272" s="2"/>
+      <c r="I272" s="1"/>
+      <c r="J272" s="1"/>
       <c r="K272" s="4"/>
-      <c r="L272" s="4"/>
-      <c r="M272" s="3"/>
-      <c r="N272" s="3"/>
-      <c r="O272" s="3"/>
-      <c r="P272" s="3"/>
-      <c r="Q272" s="3"/>
-      <c r="R272" s="3"/>
+      <c r="L272" s="2"/>
+      <c r="M272" s="1"/>
+      <c r="N272" s="1"/>
+      <c r="O272" s="1"/>
+      <c r="P272" s="1"/>
+      <c r="Q272" s="1"/>
+      <c r="R272" s="1"/>
       <c r="S272" s="2"/>
-      <c r="T272" s="3"/>
-      <c r="U272" s="3"/>
+      <c r="T272" s="1"/>
+      <c r="U272" s="1"/>
     </row>
     <row r="273" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
-      <c r="C273" s="1"/>
-      <c r="D273" s="1"/>
-      <c r="E273" s="1"/>
-      <c r="F273" s="1"/>
-      <c r="G273" s="2"/>
-      <c r="H273" s="2"/>
-      <c r="I273" s="1"/>
-      <c r="J273" s="1"/>
+      <c r="B273" s="3"/>
+      <c r="C273" s="3"/>
+      <c r="D273" s="3"/>
+      <c r="E273" s="3"/>
+      <c r="F273" s="3"/>
+      <c r="G273" s="4"/>
+      <c r="H273" s="4"/>
+      <c r="I273" s="3"/>
+      <c r="J273" s="3"/>
       <c r="K273" s="4"/>
-      <c r="L273" s="2"/>
-      <c r="M273" s="1"/>
-      <c r="N273" s="1"/>
-      <c r="O273" s="1"/>
-      <c r="P273" s="1"/>
-      <c r="Q273" s="1"/>
-      <c r="R273" s="1"/>
+      <c r="L273" s="4"/>
+      <c r="M273" s="3"/>
+      <c r="N273" s="3"/>
+      <c r="O273" s="3"/>
+      <c r="P273" s="3"/>
+      <c r="Q273" s="3"/>
+      <c r="R273" s="3"/>
       <c r="S273" s="2"/>
-      <c r="T273" s="1"/>
-      <c r="U273" s="1"/>
+      <c r="T273" s="3"/>
+      <c r="U273" s="3"/>
     </row>
     <row r="274" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
-      <c r="B274" s="3"/>
-      <c r="C274" s="3"/>
-      <c r="D274" s="3"/>
-      <c r="E274" s="3"/>
-      <c r="F274" s="3"/>
-      <c r="G274" s="4"/>
-      <c r="H274" s="4"/>
-      <c r="I274" s="3"/>
-      <c r="J274" s="3"/>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
+      <c r="E274" s="1"/>
+      <c r="F274" s="1"/>
+      <c r="G274" s="2"/>
+      <c r="H274" s="2"/>
+      <c r="I274" s="1"/>
+      <c r="J274" s="1"/>
       <c r="K274" s="4"/>
-      <c r="L274" s="4"/>
-      <c r="M274" s="3"/>
-      <c r="N274" s="3"/>
-      <c r="O274" s="3"/>
-      <c r="P274" s="3"/>
-      <c r="Q274" s="3"/>
-      <c r="R274" s="3"/>
+      <c r="L274" s="2"/>
+      <c r="M274" s="1"/>
+      <c r="N274" s="1"/>
+      <c r="O274" s="1"/>
+      <c r="P274" s="1"/>
+      <c r="Q274" s="1"/>
+      <c r="R274" s="1"/>
       <c r="S274" s="2"/>
-      <c r="T274" s="3"/>
-      <c r="U274" s="3"/>
+      <c r="T274" s="1"/>
+      <c r="U274" s="1"/>
     </row>
     <row r="275" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
@@ -25738,7 +25790,7 @@
       <c r="H275" s="4"/>
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
-      <c r="K275" s="3"/>
+      <c r="K275" s="4"/>
       <c r="L275" s="4"/>
       <c r="M275" s="3"/>
       <c r="N275" s="3"/>
@@ -25746,7 +25798,7 @@
       <c r="P275" s="3"/>
       <c r="Q275" s="3"/>
       <c r="R275" s="3"/>
-      <c r="S275" s="3"/>
+      <c r="S275" s="2"/>
       <c r="T275" s="3"/>
       <c r="U275" s="3"/>
     </row>
@@ -25784,7 +25836,7 @@
       <c r="H277" s="4"/>
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
-      <c r="K277" s="4"/>
+      <c r="K277" s="3"/>
       <c r="L277" s="4"/>
       <c r="M277" s="3"/>
       <c r="N277" s="3"/>
@@ -25798,26 +25850,26 @@
     </row>
     <row r="278" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
-      <c r="B278" s="1"/>
-      <c r="C278" s="1"/>
-      <c r="D278" s="1"/>
-      <c r="E278" s="1"/>
-      <c r="F278" s="1"/>
-      <c r="G278" s="2"/>
-      <c r="H278" s="2"/>
-      <c r="I278" s="1"/>
-      <c r="J278" s="1"/>
-      <c r="K278" s="2"/>
-      <c r="L278" s="2"/>
-      <c r="M278" s="1"/>
-      <c r="N278" s="1"/>
-      <c r="O278" s="1"/>
-      <c r="P278" s="1"/>
-      <c r="Q278" s="1"/>
-      <c r="R278" s="1"/>
-      <c r="S278" s="1"/>
-      <c r="T278" s="1"/>
-      <c r="U278" s="1"/>
+      <c r="B278" s="3"/>
+      <c r="C278" s="3"/>
+      <c r="D278" s="3"/>
+      <c r="E278" s="3"/>
+      <c r="F278" s="3"/>
+      <c r="G278" s="4"/>
+      <c r="H278" s="4"/>
+      <c r="I278" s="3"/>
+      <c r="J278" s="3"/>
+      <c r="K278" s="4"/>
+      <c r="L278" s="4"/>
+      <c r="M278" s="3"/>
+      <c r="N278" s="3"/>
+      <c r="O278" s="3"/>
+      <c r="P278" s="3"/>
+      <c r="Q278" s="3"/>
+      <c r="R278" s="3"/>
+      <c r="S278" s="3"/>
+      <c r="T278" s="3"/>
+      <c r="U278" s="3"/>
     </row>
     <row r="279" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
@@ -25840,7 +25892,7 @@
       <c r="R279" s="1"/>
       <c r="S279" s="1"/>
       <c r="T279" s="1"/>
-      <c r="U279" s="2"/>
+      <c r="U279" s="1"/>
     </row>
     <row r="280" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
@@ -25853,7 +25905,7 @@
       <c r="H280" s="2"/>
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
-      <c r="K280" s="1"/>
+      <c r="K280" s="2"/>
       <c r="L280" s="2"/>
       <c r="M280" s="1"/>
       <c r="N280" s="1"/>
@@ -25876,7 +25928,7 @@
       <c r="H281" s="2"/>
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
-      <c r="K281" s="2"/>
+      <c r="K281" s="1"/>
       <c r="L281" s="2"/>
       <c r="M281" s="1"/>
       <c r="N281" s="1"/>
@@ -25955,7 +26007,7 @@
       <c r="R284" s="1"/>
       <c r="S284" s="1"/>
       <c r="T284" s="1"/>
-      <c r="U284" s="1"/>
+      <c r="U284" s="2"/>
     </row>
     <row r="285" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
@@ -25982,26 +26034,26 @@
     </row>
     <row r="286" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
-      <c r="B286" s="3"/>
-      <c r="C286" s="3"/>
-      <c r="D286" s="3"/>
-      <c r="E286" s="3"/>
-      <c r="F286" s="3"/>
-      <c r="G286" s="4"/>
-      <c r="H286" s="4"/>
-      <c r="I286" s="3"/>
-      <c r="J286" s="3"/>
-      <c r="K286" s="4"/>
-      <c r="L286" s="4"/>
-      <c r="M286" s="3"/>
-      <c r="N286" s="3"/>
-      <c r="O286" s="3"/>
-      <c r="P286" s="3"/>
-      <c r="Q286" s="3"/>
-      <c r="R286" s="3"/>
-      <c r="S286" s="3"/>
-      <c r="T286" s="3"/>
-      <c r="U286" s="4"/>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
+      <c r="F286" s="1"/>
+      <c r="G286" s="2"/>
+      <c r="H286" s="2"/>
+      <c r="I286" s="1"/>
+      <c r="J286" s="1"/>
+      <c r="K286" s="2"/>
+      <c r="L286" s="2"/>
+      <c r="M286" s="1"/>
+      <c r="N286" s="1"/>
+      <c r="O286" s="1"/>
+      <c r="P286" s="1"/>
+      <c r="Q286" s="1"/>
+      <c r="R286" s="1"/>
+      <c r="S286" s="1"/>
+      <c r="T286" s="1"/>
+      <c r="U286" s="1"/>
     </row>
     <row r="287" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
@@ -26024,7 +26076,7 @@
       <c r="R287" s="3"/>
       <c r="S287" s="3"/>
       <c r="T287" s="3"/>
-      <c r="U287" s="3"/>
+      <c r="U287" s="4"/>
     </row>
     <row r="288" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
@@ -26051,72 +26103,72 @@
     </row>
     <row r="289" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
-      <c r="B289" s="1"/>
-      <c r="C289" s="1"/>
-      <c r="D289" s="1"/>
-      <c r="E289" s="1"/>
-      <c r="F289" s="1"/>
-      <c r="G289" s="2"/>
-      <c r="H289" s="2"/>
-      <c r="I289" s="1"/>
-      <c r="J289" s="1"/>
-      <c r="K289" s="2"/>
-      <c r="L289" s="2"/>
-      <c r="M289" s="1"/>
-      <c r="N289" s="1"/>
-      <c r="O289" s="1"/>
-      <c r="P289" s="1"/>
-      <c r="Q289" s="1"/>
-      <c r="R289" s="1"/>
-      <c r="S289" s="2"/>
-      <c r="T289" s="1"/>
-      <c r="U289" s="1"/>
+      <c r="B289" s="3"/>
+      <c r="C289" s="3"/>
+      <c r="D289" s="3"/>
+      <c r="E289" s="3"/>
+      <c r="F289" s="3"/>
+      <c r="G289" s="4"/>
+      <c r="H289" s="4"/>
+      <c r="I289" s="3"/>
+      <c r="J289" s="3"/>
+      <c r="K289" s="4"/>
+      <c r="L289" s="4"/>
+      <c r="M289" s="3"/>
+      <c r="N289" s="3"/>
+      <c r="O289" s="3"/>
+      <c r="P289" s="3"/>
+      <c r="Q289" s="3"/>
+      <c r="R289" s="3"/>
+      <c r="S289" s="3"/>
+      <c r="T289" s="3"/>
+      <c r="U289" s="3"/>
     </row>
     <row r="290" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
-      <c r="B290" s="3"/>
-      <c r="C290" s="3"/>
-      <c r="D290" s="3"/>
-      <c r="E290" s="3"/>
-      <c r="F290" s="3"/>
-      <c r="G290" s="4"/>
-      <c r="H290" s="4"/>
-      <c r="I290" s="3"/>
-      <c r="J290" s="3"/>
-      <c r="K290" s="4"/>
-      <c r="L290" s="4"/>
-      <c r="M290" s="3"/>
-      <c r="N290" s="3"/>
-      <c r="O290" s="3"/>
-      <c r="P290" s="3"/>
-      <c r="Q290" s="3"/>
-      <c r="R290" s="3"/>
-      <c r="S290" s="3"/>
-      <c r="T290" s="3"/>
-      <c r="U290" s="3"/>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+      <c r="E290" s="1"/>
+      <c r="F290" s="1"/>
+      <c r="G290" s="2"/>
+      <c r="H290" s="2"/>
+      <c r="I290" s="1"/>
+      <c r="J290" s="1"/>
+      <c r="K290" s="2"/>
+      <c r="L290" s="2"/>
+      <c r="M290" s="1"/>
+      <c r="N290" s="1"/>
+      <c r="O290" s="1"/>
+      <c r="P290" s="1"/>
+      <c r="Q290" s="1"/>
+      <c r="R290" s="1"/>
+      <c r="S290" s="2"/>
+      <c r="T290" s="1"/>
+      <c r="U290" s="1"/>
     </row>
     <row r="291" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
-      <c r="B291" s="1"/>
-      <c r="C291" s="1"/>
-      <c r="D291" s="1"/>
-      <c r="E291" s="1"/>
-      <c r="F291" s="1"/>
-      <c r="G291" s="2"/>
-      <c r="H291" s="2"/>
-      <c r="I291" s="1"/>
-      <c r="J291" s="1"/>
-      <c r="K291" s="2"/>
-      <c r="L291" s="2"/>
-      <c r="M291" s="1"/>
-      <c r="N291" s="1"/>
-      <c r="O291" s="1"/>
-      <c r="P291" s="1"/>
-      <c r="Q291" s="1"/>
-      <c r="R291" s="1"/>
-      <c r="S291" s="1"/>
-      <c r="T291" s="1"/>
-      <c r="U291" s="1"/>
+      <c r="B291" s="3"/>
+      <c r="C291" s="3"/>
+      <c r="D291" s="3"/>
+      <c r="E291" s="3"/>
+      <c r="F291" s="3"/>
+      <c r="G291" s="4"/>
+      <c r="H291" s="4"/>
+      <c r="I291" s="3"/>
+      <c r="J291" s="3"/>
+      <c r="K291" s="4"/>
+      <c r="L291" s="4"/>
+      <c r="M291" s="3"/>
+      <c r="N291" s="3"/>
+      <c r="O291" s="3"/>
+      <c r="P291" s="3"/>
+      <c r="Q291" s="3"/>
+      <c r="R291" s="3"/>
+      <c r="S291" s="3"/>
+      <c r="T291" s="3"/>
+      <c r="U291" s="3"/>
     </row>
     <row r="292" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
@@ -26185,29 +26237,29 @@
       <c r="R294" s="1"/>
       <c r="S294" s="1"/>
       <c r="T294" s="1"/>
-      <c r="U294" s="2"/>
+      <c r="U294" s="1"/>
     </row>
     <row r="295" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
-      <c r="B295" s="3"/>
-      <c r="C295" s="3"/>
-      <c r="D295" s="3"/>
-      <c r="E295" s="3"/>
-      <c r="F295" s="3"/>
-      <c r="G295" s="4"/>
-      <c r="H295" s="4"/>
-      <c r="I295" s="3"/>
-      <c r="J295" s="3"/>
-      <c r="K295" s="4"/>
-      <c r="L295" s="4"/>
-      <c r="M295" s="3"/>
-      <c r="N295" s="3"/>
-      <c r="O295" s="3"/>
-      <c r="P295" s="3"/>
-      <c r="Q295" s="3"/>
-      <c r="R295" s="3"/>
-      <c r="S295" s="3"/>
-      <c r="T295" s="3"/>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+      <c r="E295" s="1"/>
+      <c r="F295" s="1"/>
+      <c r="G295" s="2"/>
+      <c r="H295" s="2"/>
+      <c r="I295" s="1"/>
+      <c r="J295" s="1"/>
+      <c r="K295" s="2"/>
+      <c r="L295" s="2"/>
+      <c r="M295" s="1"/>
+      <c r="N295" s="1"/>
+      <c r="O295" s="1"/>
+      <c r="P295" s="1"/>
+      <c r="Q295" s="1"/>
+      <c r="R295" s="1"/>
+      <c r="S295" s="1"/>
+      <c r="T295" s="1"/>
       <c r="U295" s="2"/>
     </row>
     <row r="296" spans="1:21" x14ac:dyDescent="0.25">
@@ -26235,71 +26287,71 @@
     </row>
     <row r="297" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
-      <c r="B297" s="1"/>
-      <c r="C297" s="1"/>
-      <c r="D297" s="1"/>
-      <c r="E297" s="1"/>
-      <c r="F297" s="1"/>
-      <c r="G297" s="2"/>
-      <c r="H297" s="2"/>
-      <c r="I297" s="1"/>
-      <c r="J297" s="1"/>
-      <c r="K297" s="2"/>
-      <c r="L297" s="2"/>
-      <c r="M297" s="1"/>
-      <c r="N297" s="1"/>
-      <c r="O297" s="1"/>
-      <c r="P297" s="1"/>
-      <c r="Q297" s="1"/>
-      <c r="R297" s="1"/>
-      <c r="S297" s="1"/>
-      <c r="T297" s="1"/>
+      <c r="B297" s="3"/>
+      <c r="C297" s="3"/>
+      <c r="D297" s="3"/>
+      <c r="E297" s="3"/>
+      <c r="F297" s="3"/>
+      <c r="G297" s="4"/>
+      <c r="H297" s="4"/>
+      <c r="I297" s="3"/>
+      <c r="J297" s="3"/>
+      <c r="K297" s="4"/>
+      <c r="L297" s="4"/>
+      <c r="M297" s="3"/>
+      <c r="N297" s="3"/>
+      <c r="O297" s="3"/>
+      <c r="P297" s="3"/>
+      <c r="Q297" s="3"/>
+      <c r="R297" s="3"/>
+      <c r="S297" s="3"/>
+      <c r="T297" s="3"/>
       <c r="U297" s="2"/>
     </row>
     <row r="298" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
-      <c r="B298" s="3"/>
-      <c r="C298" s="3"/>
-      <c r="D298" s="3"/>
-      <c r="E298" s="3"/>
-      <c r="F298" s="3"/>
-      <c r="G298" s="4"/>
-      <c r="H298" s="4"/>
-      <c r="I298" s="3"/>
-      <c r="J298" s="3"/>
-      <c r="K298" s="4"/>
-      <c r="L298" s="4"/>
-      <c r="M298" s="3"/>
-      <c r="N298" s="3"/>
-      <c r="O298" s="3"/>
-      <c r="P298" s="3"/>
-      <c r="Q298" s="3"/>
-      <c r="R298" s="3"/>
-      <c r="S298" s="3"/>
-      <c r="T298" s="3"/>
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
+      <c r="E298" s="1"/>
+      <c r="F298" s="1"/>
+      <c r="G298" s="2"/>
+      <c r="H298" s="2"/>
+      <c r="I298" s="1"/>
+      <c r="J298" s="1"/>
+      <c r="K298" s="2"/>
+      <c r="L298" s="2"/>
+      <c r="M298" s="1"/>
+      <c r="N298" s="1"/>
+      <c r="O298" s="1"/>
+      <c r="P298" s="1"/>
+      <c r="Q298" s="1"/>
+      <c r="R298" s="1"/>
+      <c r="S298" s="1"/>
+      <c r="T298" s="1"/>
       <c r="U298" s="2"/>
     </row>
     <row r="299" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
-      <c r="B299" s="1"/>
-      <c r="C299" s="1"/>
-      <c r="D299" s="1"/>
-      <c r="E299" s="1"/>
-      <c r="F299" s="1"/>
-      <c r="G299" s="2"/>
-      <c r="H299" s="2"/>
-      <c r="I299" s="1"/>
-      <c r="J299" s="1"/>
-      <c r="K299" s="2"/>
-      <c r="L299" s="2"/>
-      <c r="M299" s="1"/>
-      <c r="N299" s="1"/>
-      <c r="O299" s="1"/>
-      <c r="P299" s="1"/>
-      <c r="Q299" s="1"/>
-      <c r="R299" s="1"/>
-      <c r="S299" s="1"/>
-      <c r="T299" s="1"/>
+      <c r="B299" s="3"/>
+      <c r="C299" s="3"/>
+      <c r="D299" s="3"/>
+      <c r="E299" s="3"/>
+      <c r="F299" s="3"/>
+      <c r="G299" s="4"/>
+      <c r="H299" s="4"/>
+      <c r="I299" s="3"/>
+      <c r="J299" s="3"/>
+      <c r="K299" s="4"/>
+      <c r="L299" s="4"/>
+      <c r="M299" s="3"/>
+      <c r="N299" s="3"/>
+      <c r="O299" s="3"/>
+      <c r="P299" s="3"/>
+      <c r="Q299" s="3"/>
+      <c r="R299" s="3"/>
+      <c r="S299" s="3"/>
+      <c r="T299" s="3"/>
       <c r="U299" s="2"/>
     </row>
     <row r="300" spans="1:21" x14ac:dyDescent="0.25">
@@ -26344,7 +26396,7 @@
       <c r="P301" s="1"/>
       <c r="Q301" s="1"/>
       <c r="R301" s="1"/>
-      <c r="S301" s="2"/>
+      <c r="S301" s="1"/>
       <c r="T301" s="1"/>
       <c r="U301" s="2"/>
     </row>
@@ -26367,31 +26419,31 @@
       <c r="P302" s="1"/>
       <c r="Q302" s="1"/>
       <c r="R302" s="1"/>
-      <c r="S302" s="1"/>
+      <c r="S302" s="2"/>
       <c r="T302" s="1"/>
       <c r="U302" s="2"/>
     </row>
     <row r="303" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
-      <c r="B303" s="3"/>
-      <c r="C303" s="3"/>
-      <c r="D303" s="3"/>
-      <c r="E303" s="3"/>
-      <c r="F303" s="3"/>
-      <c r="G303" s="4"/>
-      <c r="H303" s="4"/>
+      <c r="B303" s="1"/>
+      <c r="C303" s="1"/>
+      <c r="D303" s="1"/>
+      <c r="E303" s="1"/>
+      <c r="F303" s="1"/>
+      <c r="G303" s="2"/>
+      <c r="H303" s="2"/>
       <c r="I303" s="1"/>
       <c r="J303" s="1"/>
       <c r="K303" s="2"/>
-      <c r="L303" s="4"/>
-      <c r="M303" s="3"/>
-      <c r="N303" s="3"/>
-      <c r="O303" s="3"/>
-      <c r="P303" s="3"/>
-      <c r="Q303" s="3"/>
-      <c r="R303" s="3"/>
-      <c r="S303" s="3"/>
-      <c r="T303" s="3"/>
+      <c r="L303" s="2"/>
+      <c r="M303" s="1"/>
+      <c r="N303" s="1"/>
+      <c r="O303" s="1"/>
+      <c r="P303" s="1"/>
+      <c r="Q303" s="1"/>
+      <c r="R303" s="1"/>
+      <c r="S303" s="1"/>
+      <c r="T303" s="1"/>
       <c r="U303" s="2"/>
     </row>
     <row r="304" spans="1:21" x14ac:dyDescent="0.25">
@@ -26403,9 +26455,9 @@
       <c r="F304" s="3"/>
       <c r="G304" s="4"/>
       <c r="H304" s="4"/>
-      <c r="I304" s="3"/>
-      <c r="J304" s="3"/>
-      <c r="K304" s="4"/>
+      <c r="I304" s="1"/>
+      <c r="J304" s="1"/>
+      <c r="K304" s="2"/>
       <c r="L304" s="4"/>
       <c r="M304" s="3"/>
       <c r="N304" s="3"/>
@@ -26419,25 +26471,25 @@
     </row>
     <row r="305" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
-      <c r="B305" s="1"/>
-      <c r="C305" s="1"/>
-      <c r="D305" s="1"/>
-      <c r="E305" s="1"/>
-      <c r="F305" s="1"/>
-      <c r="G305" s="2"/>
-      <c r="H305" s="2"/>
-      <c r="I305" s="1"/>
-      <c r="J305" s="1"/>
-      <c r="K305" s="2"/>
-      <c r="L305" s="2"/>
-      <c r="M305" s="1"/>
-      <c r="N305" s="1"/>
-      <c r="O305" s="1"/>
-      <c r="P305" s="1"/>
-      <c r="Q305" s="1"/>
-      <c r="R305" s="1"/>
-      <c r="S305" s="1"/>
-      <c r="T305" s="1"/>
+      <c r="B305" s="3"/>
+      <c r="C305" s="3"/>
+      <c r="D305" s="3"/>
+      <c r="E305" s="3"/>
+      <c r="F305" s="3"/>
+      <c r="G305" s="4"/>
+      <c r="H305" s="4"/>
+      <c r="I305" s="3"/>
+      <c r="J305" s="3"/>
+      <c r="K305" s="4"/>
+      <c r="L305" s="4"/>
+      <c r="M305" s="3"/>
+      <c r="N305" s="3"/>
+      <c r="O305" s="3"/>
+      <c r="P305" s="3"/>
+      <c r="Q305" s="3"/>
+      <c r="R305" s="3"/>
+      <c r="S305" s="3"/>
+      <c r="T305" s="3"/>
       <c r="U305" s="2"/>
     </row>
     <row r="306" spans="1:21" x14ac:dyDescent="0.25">
@@ -26534,49 +26586,49 @@
     </row>
     <row r="310" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
-      <c r="B310" s="3"/>
-      <c r="C310" s="3"/>
-      <c r="D310" s="3"/>
-      <c r="E310" s="3"/>
-      <c r="F310" s="3"/>
-      <c r="G310" s="4"/>
-      <c r="H310" s="4"/>
-      <c r="I310" s="3"/>
-      <c r="J310" s="3"/>
-      <c r="K310" s="4"/>
-      <c r="L310" s="4"/>
-      <c r="M310" s="3"/>
-      <c r="N310" s="3"/>
-      <c r="O310" s="3"/>
-      <c r="P310" s="3"/>
-      <c r="Q310" s="3"/>
-      <c r="R310" s="3"/>
-      <c r="S310" s="4"/>
-      <c r="T310" s="3"/>
+      <c r="B310" s="1"/>
+      <c r="C310" s="1"/>
+      <c r="D310" s="1"/>
+      <c r="E310" s="1"/>
+      <c r="F310" s="1"/>
+      <c r="G310" s="2"/>
+      <c r="H310" s="2"/>
+      <c r="I310" s="1"/>
+      <c r="J310" s="1"/>
+      <c r="K310" s="2"/>
+      <c r="L310" s="2"/>
+      <c r="M310" s="1"/>
+      <c r="N310" s="1"/>
+      <c r="O310" s="1"/>
+      <c r="P310" s="1"/>
+      <c r="Q310" s="1"/>
+      <c r="R310" s="1"/>
+      <c r="S310" s="1"/>
+      <c r="T310" s="1"/>
       <c r="U310" s="2"/>
     </row>
     <row r="311" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
-      <c r="B311" s="1"/>
-      <c r="C311" s="1"/>
-      <c r="D311" s="1"/>
-      <c r="E311" s="1"/>
-      <c r="F311" s="1"/>
-      <c r="G311" s="2"/>
-      <c r="H311" s="2"/>
-      <c r="I311" s="1"/>
-      <c r="J311" s="1"/>
-      <c r="K311" s="2"/>
-      <c r="L311" s="2"/>
-      <c r="M311" s="1"/>
-      <c r="N311" s="1"/>
-      <c r="O311" s="1"/>
-      <c r="P311" s="1"/>
-      <c r="Q311" s="1"/>
-      <c r="R311" s="1"/>
-      <c r="S311" s="1"/>
-      <c r="T311" s="1"/>
-      <c r="U311" s="1"/>
+      <c r="B311" s="3"/>
+      <c r="C311" s="3"/>
+      <c r="D311" s="3"/>
+      <c r="E311" s="3"/>
+      <c r="F311" s="3"/>
+      <c r="G311" s="4"/>
+      <c r="H311" s="4"/>
+      <c r="I311" s="3"/>
+      <c r="J311" s="3"/>
+      <c r="K311" s="4"/>
+      <c r="L311" s="4"/>
+      <c r="M311" s="3"/>
+      <c r="N311" s="3"/>
+      <c r="O311" s="3"/>
+      <c r="P311" s="3"/>
+      <c r="Q311" s="3"/>
+      <c r="R311" s="3"/>
+      <c r="S311" s="4"/>
+      <c r="T311" s="3"/>
+      <c r="U311" s="2"/>
     </row>
     <row r="312" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
@@ -26616,35 +26668,35 @@
       <c r="L313" s="2"/>
       <c r="M313" s="1"/>
       <c r="N313" s="1"/>
-      <c r="O313" s="2"/>
+      <c r="O313" s="1"/>
       <c r="P313" s="1"/>
       <c r="Q313" s="1"/>
       <c r="R313" s="1"/>
-      <c r="S313" s="2"/>
+      <c r="S313" s="1"/>
       <c r="T313" s="1"/>
-      <c r="U313" s="2"/>
+      <c r="U313" s="1"/>
     </row>
     <row r="314" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
-      <c r="B314" s="3"/>
-      <c r="C314" s="3"/>
-      <c r="D314" s="3"/>
-      <c r="E314" s="3"/>
-      <c r="F314" s="3"/>
-      <c r="G314" s="4"/>
-      <c r="H314" s="4"/>
-      <c r="I314" s="3"/>
-      <c r="J314" s="3"/>
-      <c r="K314" s="4"/>
-      <c r="L314" s="4"/>
-      <c r="M314" s="3"/>
-      <c r="N314" s="3"/>
+      <c r="B314" s="1"/>
+      <c r="C314" s="1"/>
+      <c r="D314" s="1"/>
+      <c r="E314" s="1"/>
+      <c r="F314" s="1"/>
+      <c r="G314" s="2"/>
+      <c r="H314" s="2"/>
+      <c r="I314" s="1"/>
+      <c r="J314" s="1"/>
+      <c r="K314" s="2"/>
+      <c r="L314" s="2"/>
+      <c r="M314" s="1"/>
+      <c r="N314" s="1"/>
       <c r="O314" s="2"/>
-      <c r="P314" s="3"/>
-      <c r="Q314" s="3"/>
-      <c r="R314" s="3"/>
-      <c r="S314" s="4"/>
-      <c r="T314" s="3"/>
+      <c r="P314" s="1"/>
+      <c r="Q314" s="1"/>
+      <c r="R314" s="1"/>
+      <c r="S314" s="2"/>
+      <c r="T314" s="1"/>
       <c r="U314" s="2"/>
     </row>
     <row r="315" spans="1:21" x14ac:dyDescent="0.25">
@@ -26672,71 +26724,71 @@
     </row>
     <row r="316" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
-      <c r="B316" s="1"/>
-      <c r="C316" s="1"/>
-      <c r="D316" s="1"/>
-      <c r="E316" s="1"/>
-      <c r="F316" s="1"/>
-      <c r="G316" s="2"/>
-      <c r="H316" s="2"/>
-      <c r="I316" s="1"/>
-      <c r="J316" s="1"/>
-      <c r="K316" s="2"/>
-      <c r="L316" s="2"/>
-      <c r="M316" s="1"/>
-      <c r="N316" s="1"/>
+      <c r="B316" s="3"/>
+      <c r="C316" s="3"/>
+      <c r="D316" s="3"/>
+      <c r="E316" s="3"/>
+      <c r="F316" s="3"/>
+      <c r="G316" s="4"/>
+      <c r="H316" s="4"/>
+      <c r="I316" s="3"/>
+      <c r="J316" s="3"/>
+      <c r="K316" s="4"/>
+      <c r="L316" s="4"/>
+      <c r="M316" s="3"/>
+      <c r="N316" s="3"/>
       <c r="O316" s="2"/>
-      <c r="P316" s="1"/>
-      <c r="Q316" s="1"/>
-      <c r="R316" s="1"/>
-      <c r="S316" s="2"/>
-      <c r="T316" s="1"/>
+      <c r="P316" s="3"/>
+      <c r="Q316" s="3"/>
+      <c r="R316" s="3"/>
+      <c r="S316" s="4"/>
+      <c r="T316" s="3"/>
       <c r="U316" s="2"/>
     </row>
     <row r="317" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
-      <c r="B317" s="3"/>
-      <c r="C317" s="3"/>
-      <c r="D317" s="3"/>
-      <c r="E317" s="3"/>
-      <c r="F317" s="3"/>
-      <c r="G317" s="4"/>
-      <c r="H317" s="4"/>
-      <c r="I317" s="3"/>
-      <c r="J317" s="3"/>
-      <c r="K317" s="4"/>
-      <c r="L317" s="4"/>
-      <c r="M317" s="3"/>
-      <c r="N317" s="3"/>
+      <c r="B317" s="1"/>
+      <c r="C317" s="1"/>
+      <c r="D317" s="1"/>
+      <c r="E317" s="1"/>
+      <c r="F317" s="1"/>
+      <c r="G317" s="2"/>
+      <c r="H317" s="2"/>
+      <c r="I317" s="1"/>
+      <c r="J317" s="1"/>
+      <c r="K317" s="2"/>
+      <c r="L317" s="2"/>
+      <c r="M317" s="1"/>
+      <c r="N317" s="1"/>
       <c r="O317" s="2"/>
-      <c r="P317" s="3"/>
-      <c r="Q317" s="3"/>
-      <c r="R317" s="3"/>
-      <c r="S317" s="4"/>
-      <c r="T317" s="3"/>
+      <c r="P317" s="1"/>
+      <c r="Q317" s="1"/>
+      <c r="R317" s="1"/>
+      <c r="S317" s="2"/>
+      <c r="T317" s="1"/>
       <c r="U317" s="2"/>
     </row>
     <row r="318" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
-      <c r="B318" s="1"/>
-      <c r="C318" s="1"/>
-      <c r="D318" s="1"/>
-      <c r="E318" s="1"/>
-      <c r="F318" s="1"/>
-      <c r="G318" s="2"/>
-      <c r="H318" s="2"/>
-      <c r="I318" s="1"/>
-      <c r="J318" s="1"/>
-      <c r="K318" s="2"/>
-      <c r="L318" s="2"/>
-      <c r="M318" s="1"/>
-      <c r="N318" s="1"/>
+      <c r="B318" s="3"/>
+      <c r="C318" s="3"/>
+      <c r="D318" s="3"/>
+      <c r="E318" s="3"/>
+      <c r="F318" s="3"/>
+      <c r="G318" s="4"/>
+      <c r="H318" s="4"/>
+      <c r="I318" s="3"/>
+      <c r="J318" s="3"/>
+      <c r="K318" s="4"/>
+      <c r="L318" s="4"/>
+      <c r="M318" s="3"/>
+      <c r="N318" s="3"/>
       <c r="O318" s="2"/>
-      <c r="P318" s="1"/>
-      <c r="Q318" s="1"/>
-      <c r="R318" s="1"/>
-      <c r="S318" s="2"/>
-      <c r="T318" s="1"/>
+      <c r="P318" s="3"/>
+      <c r="Q318" s="3"/>
+      <c r="R318" s="3"/>
+      <c r="S318" s="4"/>
+      <c r="T318" s="3"/>
       <c r="U318" s="2"/>
     </row>
     <row r="319" spans="1:21" x14ac:dyDescent="0.25">
@@ -26810,25 +26862,25 @@
     </row>
     <row r="322" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
-      <c r="B322" s="3"/>
-      <c r="C322" s="3"/>
-      <c r="D322" s="3"/>
-      <c r="E322" s="3"/>
-      <c r="F322" s="3"/>
-      <c r="G322" s="4"/>
-      <c r="H322" s="4"/>
-      <c r="I322" s="3"/>
-      <c r="J322" s="3"/>
-      <c r="K322" s="4"/>
-      <c r="L322" s="4"/>
-      <c r="M322" s="3"/>
-      <c r="N322" s="3"/>
+      <c r="B322" s="1"/>
+      <c r="C322" s="1"/>
+      <c r="D322" s="1"/>
+      <c r="E322" s="1"/>
+      <c r="F322" s="1"/>
+      <c r="G322" s="2"/>
+      <c r="H322" s="2"/>
+      <c r="I322" s="1"/>
+      <c r="J322" s="1"/>
+      <c r="K322" s="2"/>
+      <c r="L322" s="2"/>
+      <c r="M322" s="1"/>
+      <c r="N322" s="1"/>
       <c r="O322" s="2"/>
-      <c r="P322" s="3"/>
-      <c r="Q322" s="3"/>
-      <c r="R322" s="3"/>
-      <c r="S322" s="4"/>
-      <c r="T322" s="3"/>
+      <c r="P322" s="1"/>
+      <c r="Q322" s="1"/>
+      <c r="R322" s="1"/>
+      <c r="S322" s="2"/>
+      <c r="T322" s="1"/>
       <c r="U322" s="2"/>
     </row>
     <row r="323" spans="1:21" x14ac:dyDescent="0.25">
@@ -26856,25 +26908,25 @@
     </row>
     <row r="324" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
-      <c r="B324" s="1"/>
-      <c r="C324" s="1"/>
-      <c r="D324" s="1"/>
-      <c r="E324" s="1"/>
-      <c r="F324" s="1"/>
-      <c r="G324" s="2"/>
-      <c r="H324" s="2"/>
-      <c r="I324" s="1"/>
-      <c r="J324" s="1"/>
-      <c r="K324" s="2"/>
-      <c r="L324" s="2"/>
-      <c r="M324" s="1"/>
-      <c r="N324" s="1"/>
+      <c r="B324" s="3"/>
+      <c r="C324" s="3"/>
+      <c r="D324" s="3"/>
+      <c r="E324" s="3"/>
+      <c r="F324" s="3"/>
+      <c r="G324" s="4"/>
+      <c r="H324" s="4"/>
+      <c r="I324" s="3"/>
+      <c r="J324" s="3"/>
+      <c r="K324" s="4"/>
+      <c r="L324" s="4"/>
+      <c r="M324" s="3"/>
+      <c r="N324" s="3"/>
       <c r="O324" s="2"/>
-      <c r="P324" s="1"/>
-      <c r="Q324" s="1"/>
-      <c r="R324" s="1"/>
-      <c r="S324" s="2"/>
-      <c r="T324" s="1"/>
+      <c r="P324" s="3"/>
+      <c r="Q324" s="3"/>
+      <c r="R324" s="3"/>
+      <c r="S324" s="4"/>
+      <c r="T324" s="3"/>
       <c r="U324" s="2"/>
     </row>
     <row r="325" spans="1:21" x14ac:dyDescent="0.25">
@@ -26896,7 +26948,7 @@
       <c r="P325" s="1"/>
       <c r="Q325" s="1"/>
       <c r="R325" s="1"/>
-      <c r="S325" s="1"/>
+      <c r="S325" s="2"/>
       <c r="T325" s="1"/>
       <c r="U325" s="2"/>
     </row>
@@ -26919,7 +26971,7 @@
       <c r="P326" s="1"/>
       <c r="Q326" s="1"/>
       <c r="R326" s="1"/>
-      <c r="S326" s="2"/>
+      <c r="S326" s="1"/>
       <c r="T326" s="1"/>
       <c r="U326" s="2"/>
     </row>
@@ -26971,49 +27023,49 @@
     </row>
     <row r="329" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
-      <c r="B329" s="3"/>
-      <c r="C329" s="3"/>
-      <c r="D329" s="3"/>
-      <c r="E329" s="3"/>
-      <c r="F329" s="3"/>
-      <c r="G329" s="4"/>
-      <c r="H329" s="4"/>
-      <c r="I329" s="3"/>
-      <c r="J329" s="3"/>
-      <c r="K329" s="4"/>
-      <c r="L329" s="4"/>
-      <c r="M329" s="3"/>
-      <c r="N329" s="3"/>
+      <c r="B329" s="1"/>
+      <c r="C329" s="1"/>
+      <c r="D329" s="1"/>
+      <c r="E329" s="1"/>
+      <c r="F329" s="1"/>
+      <c r="G329" s="2"/>
+      <c r="H329" s="2"/>
+      <c r="I329" s="1"/>
+      <c r="J329" s="1"/>
+      <c r="K329" s="2"/>
+      <c r="L329" s="2"/>
+      <c r="M329" s="1"/>
+      <c r="N329" s="1"/>
       <c r="O329" s="2"/>
-      <c r="P329" s="3"/>
-      <c r="Q329" s="3"/>
-      <c r="R329" s="3"/>
-      <c r="S329" s="4"/>
-      <c r="T329" s="3"/>
+      <c r="P329" s="1"/>
+      <c r="Q329" s="1"/>
+      <c r="R329" s="1"/>
+      <c r="S329" s="2"/>
+      <c r="T329" s="1"/>
       <c r="U329" s="2"/>
     </row>
     <row r="330" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
-      <c r="B330" s="1"/>
-      <c r="C330" s="1"/>
-      <c r="D330" s="1"/>
-      <c r="E330" s="1"/>
-      <c r="F330" s="1"/>
-      <c r="G330" s="2"/>
-      <c r="H330" s="2"/>
-      <c r="I330" s="1"/>
-      <c r="J330" s="1"/>
-      <c r="K330" s="2"/>
-      <c r="L330" s="2"/>
-      <c r="M330" s="1"/>
-      <c r="N330" s="1"/>
+      <c r="B330" s="3"/>
+      <c r="C330" s="3"/>
+      <c r="D330" s="3"/>
+      <c r="E330" s="3"/>
+      <c r="F330" s="3"/>
+      <c r="G330" s="4"/>
+      <c r="H330" s="4"/>
+      <c r="I330" s="3"/>
+      <c r="J330" s="3"/>
+      <c r="K330" s="4"/>
+      <c r="L330" s="4"/>
+      <c r="M330" s="3"/>
+      <c r="N330" s="3"/>
       <c r="O330" s="2"/>
-      <c r="P330" s="1"/>
-      <c r="Q330" s="1"/>
-      <c r="R330" s="1"/>
-      <c r="S330" s="1"/>
-      <c r="T330" s="1"/>
-      <c r="U330" s="1"/>
+      <c r="P330" s="3"/>
+      <c r="Q330" s="3"/>
+      <c r="R330" s="3"/>
+      <c r="S330" s="4"/>
+      <c r="T330" s="3"/>
+      <c r="U330" s="2"/>
     </row>
     <row r="331" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
@@ -27030,7 +27082,7 @@
       <c r="L331" s="2"/>
       <c r="M331" s="1"/>
       <c r="N331" s="1"/>
-      <c r="O331" s="1"/>
+      <c r="O331" s="2"/>
       <c r="P331" s="1"/>
       <c r="Q331" s="1"/>
       <c r="R331" s="1"/>
@@ -27095,7 +27147,7 @@
       <c r="H334" s="2"/>
       <c r="I334" s="1"/>
       <c r="J334" s="1"/>
-      <c r="K334" s="1"/>
+      <c r="K334" s="2"/>
       <c r="L334" s="2"/>
       <c r="M334" s="1"/>
       <c r="N334" s="1"/>
@@ -27105,29 +27157,29 @@
       <c r="R334" s="1"/>
       <c r="S334" s="1"/>
       <c r="T334" s="1"/>
-      <c r="U334" s="2"/>
+      <c r="U334" s="1"/>
     </row>
     <row r="335" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
-      <c r="B335" s="3"/>
-      <c r="C335" s="3"/>
-      <c r="D335" s="3"/>
-      <c r="E335" s="3"/>
-      <c r="F335" s="3"/>
-      <c r="G335" s="4"/>
-      <c r="H335" s="4"/>
-      <c r="I335" s="3"/>
-      <c r="J335" s="3"/>
-      <c r="K335" s="3"/>
-      <c r="L335" s="4"/>
-      <c r="M335" s="3"/>
-      <c r="N335" s="3"/>
-      <c r="O335" s="3"/>
-      <c r="P335" s="3"/>
-      <c r="Q335" s="3"/>
-      <c r="R335" s="3"/>
-      <c r="S335" s="4"/>
-      <c r="T335" s="3"/>
+      <c r="B335" s="1"/>
+      <c r="C335" s="1"/>
+      <c r="D335" s="1"/>
+      <c r="E335" s="1"/>
+      <c r="F335" s="1"/>
+      <c r="G335" s="2"/>
+      <c r="H335" s="2"/>
+      <c r="I335" s="1"/>
+      <c r="J335" s="1"/>
+      <c r="K335" s="1"/>
+      <c r="L335" s="2"/>
+      <c r="M335" s="1"/>
+      <c r="N335" s="1"/>
+      <c r="O335" s="1"/>
+      <c r="P335" s="1"/>
+      <c r="Q335" s="1"/>
+      <c r="R335" s="1"/>
+      <c r="S335" s="1"/>
+      <c r="T335" s="1"/>
       <c r="U335" s="2"/>
     </row>
     <row r="336" spans="1:21" x14ac:dyDescent="0.25">
@@ -27155,71 +27207,71 @@
     </row>
     <row r="337" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
-      <c r="B337" s="1"/>
-      <c r="C337" s="1"/>
-      <c r="D337" s="1"/>
-      <c r="E337" s="1"/>
-      <c r="F337" s="1"/>
-      <c r="G337" s="2"/>
-      <c r="H337" s="2"/>
-      <c r="I337" s="1"/>
-      <c r="J337" s="1"/>
-      <c r="K337" s="1"/>
-      <c r="L337" s="2"/>
-      <c r="M337" s="1"/>
-      <c r="N337" s="1"/>
-      <c r="O337" s="1"/>
-      <c r="P337" s="1"/>
-      <c r="Q337" s="1"/>
-      <c r="R337" s="1"/>
-      <c r="S337" s="2"/>
-      <c r="T337" s="1"/>
+      <c r="B337" s="3"/>
+      <c r="C337" s="3"/>
+      <c r="D337" s="3"/>
+      <c r="E337" s="3"/>
+      <c r="F337" s="3"/>
+      <c r="G337" s="4"/>
+      <c r="H337" s="4"/>
+      <c r="I337" s="3"/>
+      <c r="J337" s="3"/>
+      <c r="K337" s="3"/>
+      <c r="L337" s="4"/>
+      <c r="M337" s="3"/>
+      <c r="N337" s="3"/>
+      <c r="O337" s="3"/>
+      <c r="P337" s="3"/>
+      <c r="Q337" s="3"/>
+      <c r="R337" s="3"/>
+      <c r="S337" s="4"/>
+      <c r="T337" s="3"/>
       <c r="U337" s="2"/>
     </row>
     <row r="338" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
-      <c r="B338" s="3"/>
-      <c r="C338" s="3"/>
-      <c r="D338" s="3"/>
-      <c r="E338" s="3"/>
-      <c r="F338" s="3"/>
-      <c r="G338" s="4"/>
-      <c r="H338" s="4"/>
-      <c r="I338" s="3"/>
-      <c r="J338" s="3"/>
-      <c r="K338" s="3"/>
-      <c r="L338" s="4"/>
-      <c r="M338" s="3"/>
-      <c r="N338" s="3"/>
-      <c r="O338" s="3"/>
-      <c r="P338" s="3"/>
-      <c r="Q338" s="3"/>
-      <c r="R338" s="3"/>
-      <c r="S338" s="4"/>
-      <c r="T338" s="3"/>
+      <c r="B338" s="1"/>
+      <c r="C338" s="1"/>
+      <c r="D338" s="1"/>
+      <c r="E338" s="1"/>
+      <c r="F338" s="1"/>
+      <c r="G338" s="2"/>
+      <c r="H338" s="2"/>
+      <c r="I338" s="1"/>
+      <c r="J338" s="1"/>
+      <c r="K338" s="1"/>
+      <c r="L338" s="2"/>
+      <c r="M338" s="1"/>
+      <c r="N338" s="1"/>
+      <c r="O338" s="1"/>
+      <c r="P338" s="1"/>
+      <c r="Q338" s="1"/>
+      <c r="R338" s="1"/>
+      <c r="S338" s="2"/>
+      <c r="T338" s="1"/>
       <c r="U338" s="2"/>
     </row>
     <row r="339" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
-      <c r="B339" s="1"/>
-      <c r="C339" s="1"/>
-      <c r="D339" s="1"/>
-      <c r="E339" s="1"/>
-      <c r="F339" s="1"/>
-      <c r="G339" s="2"/>
-      <c r="H339" s="2"/>
-      <c r="I339" s="1"/>
-      <c r="J339" s="1"/>
-      <c r="K339" s="1"/>
-      <c r="L339" s="2"/>
-      <c r="M339" s="1"/>
-      <c r="N339" s="1"/>
-      <c r="O339" s="1"/>
-      <c r="P339" s="1"/>
-      <c r="Q339" s="1"/>
-      <c r="R339" s="1"/>
-      <c r="S339" s="2"/>
-      <c r="T339" s="1"/>
+      <c r="B339" s="3"/>
+      <c r="C339" s="3"/>
+      <c r="D339" s="3"/>
+      <c r="E339" s="3"/>
+      <c r="F339" s="3"/>
+      <c r="G339" s="4"/>
+      <c r="H339" s="4"/>
+      <c r="I339" s="3"/>
+      <c r="J339" s="3"/>
+      <c r="K339" s="3"/>
+      <c r="L339" s="4"/>
+      <c r="M339" s="3"/>
+      <c r="N339" s="3"/>
+      <c r="O339" s="3"/>
+      <c r="P339" s="3"/>
+      <c r="Q339" s="3"/>
+      <c r="R339" s="3"/>
+      <c r="S339" s="4"/>
+      <c r="T339" s="3"/>
       <c r="U339" s="2"/>
     </row>
     <row r="340" spans="1:21" x14ac:dyDescent="0.25">
@@ -27287,31 +27339,31 @@
       <c r="P342" s="1"/>
       <c r="Q342" s="1"/>
       <c r="R342" s="1"/>
-      <c r="S342" s="1"/>
+      <c r="S342" s="2"/>
       <c r="T342" s="1"/>
       <c r="U342" s="2"/>
     </row>
     <row r="343" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
-      <c r="B343" s="3"/>
-      <c r="C343" s="3"/>
-      <c r="D343" s="3"/>
-      <c r="E343" s="3"/>
-      <c r="F343" s="3"/>
-      <c r="G343" s="4"/>
-      <c r="H343" s="4"/>
-      <c r="I343" s="3"/>
-      <c r="J343" s="3"/>
-      <c r="K343" s="3"/>
-      <c r="L343" s="4"/>
-      <c r="M343" s="3"/>
-      <c r="N343" s="3"/>
-      <c r="O343" s="3"/>
-      <c r="P343" s="3"/>
-      <c r="Q343" s="3"/>
-      <c r="R343" s="3"/>
-      <c r="S343" s="4"/>
-      <c r="T343" s="3"/>
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
+      <c r="D343" s="1"/>
+      <c r="E343" s="1"/>
+      <c r="F343" s="1"/>
+      <c r="G343" s="2"/>
+      <c r="H343" s="2"/>
+      <c r="I343" s="1"/>
+      <c r="J343" s="1"/>
+      <c r="K343" s="1"/>
+      <c r="L343" s="2"/>
+      <c r="M343" s="1"/>
+      <c r="N343" s="1"/>
+      <c r="O343" s="1"/>
+      <c r="P343" s="1"/>
+      <c r="Q343" s="1"/>
+      <c r="R343" s="1"/>
+      <c r="S343" s="1"/>
+      <c r="T343" s="1"/>
       <c r="U343" s="2"/>
     </row>
     <row r="344" spans="1:21" x14ac:dyDescent="0.25">
@@ -27339,25 +27391,25 @@
     </row>
     <row r="345" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
-      <c r="B345" s="1"/>
-      <c r="C345" s="1"/>
-      <c r="D345" s="1"/>
-      <c r="E345" s="1"/>
-      <c r="F345" s="1"/>
-      <c r="G345" s="2"/>
-      <c r="H345" s="2"/>
-      <c r="I345" s="1"/>
-      <c r="J345" s="1"/>
-      <c r="K345" s="1"/>
-      <c r="L345" s="2"/>
-      <c r="M345" s="1"/>
-      <c r="N345" s="1"/>
-      <c r="O345" s="1"/>
-      <c r="P345" s="1"/>
-      <c r="Q345" s="1"/>
-      <c r="R345" s="1"/>
-      <c r="S345" s="2"/>
-      <c r="T345" s="1"/>
+      <c r="B345" s="3"/>
+      <c r="C345" s="3"/>
+      <c r="D345" s="3"/>
+      <c r="E345" s="3"/>
+      <c r="F345" s="3"/>
+      <c r="G345" s="4"/>
+      <c r="H345" s="4"/>
+      <c r="I345" s="3"/>
+      <c r="J345" s="3"/>
+      <c r="K345" s="3"/>
+      <c r="L345" s="4"/>
+      <c r="M345" s="3"/>
+      <c r="N345" s="3"/>
+      <c r="O345" s="3"/>
+      <c r="P345" s="3"/>
+      <c r="Q345" s="3"/>
+      <c r="R345" s="3"/>
+      <c r="S345" s="4"/>
+      <c r="T345" s="3"/>
       <c r="U345" s="2"/>
     </row>
     <row r="346" spans="1:21" x14ac:dyDescent="0.25">
@@ -27379,7 +27431,7 @@
       <c r="P346" s="1"/>
       <c r="Q346" s="1"/>
       <c r="R346" s="1"/>
-      <c r="S346" s="1"/>
+      <c r="S346" s="2"/>
       <c r="T346" s="1"/>
       <c r="U346" s="2"/>
     </row>
@@ -27402,7 +27454,7 @@
       <c r="P347" s="1"/>
       <c r="Q347" s="1"/>
       <c r="R347" s="1"/>
-      <c r="S347" s="2"/>
+      <c r="S347" s="1"/>
       <c r="T347" s="1"/>
       <c r="U347" s="2"/>
     </row>
@@ -27454,49 +27506,49 @@
     </row>
     <row r="350" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
-      <c r="B350" s="3"/>
-      <c r="C350" s="3"/>
-      <c r="D350" s="3"/>
-      <c r="E350" s="3"/>
-      <c r="F350" s="3"/>
-      <c r="G350" s="4"/>
-      <c r="H350" s="4"/>
-      <c r="I350" s="3"/>
-      <c r="J350" s="3"/>
-      <c r="K350" s="3"/>
-      <c r="L350" s="4"/>
-      <c r="M350" s="3"/>
-      <c r="N350" s="3"/>
-      <c r="O350" s="3"/>
-      <c r="P350" s="3"/>
-      <c r="Q350" s="3"/>
-      <c r="R350" s="3"/>
-      <c r="S350" s="4"/>
-      <c r="T350" s="3"/>
+      <c r="B350" s="1"/>
+      <c r="C350" s="1"/>
+      <c r="D350" s="1"/>
+      <c r="E350" s="1"/>
+      <c r="F350" s="1"/>
+      <c r="G350" s="2"/>
+      <c r="H350" s="2"/>
+      <c r="I350" s="1"/>
+      <c r="J350" s="1"/>
+      <c r="K350" s="1"/>
+      <c r="L350" s="2"/>
+      <c r="M350" s="1"/>
+      <c r="N350" s="1"/>
+      <c r="O350" s="1"/>
+      <c r="P350" s="1"/>
+      <c r="Q350" s="1"/>
+      <c r="R350" s="1"/>
+      <c r="S350" s="2"/>
+      <c r="T350" s="1"/>
       <c r="U350" s="2"/>
     </row>
     <row r="351" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
-      <c r="B351" s="1"/>
-      <c r="C351" s="1"/>
-      <c r="D351" s="1"/>
-      <c r="E351" s="1"/>
-      <c r="F351" s="1"/>
-      <c r="G351" s="2"/>
-      <c r="H351" s="2"/>
-      <c r="I351" s="1"/>
-      <c r="J351" s="1"/>
-      <c r="K351" s="1"/>
-      <c r="L351" s="2"/>
-      <c r="M351" s="1"/>
-      <c r="N351" s="1"/>
-      <c r="O351" s="1"/>
-      <c r="P351" s="1"/>
-      <c r="Q351" s="1"/>
-      <c r="R351" s="1"/>
-      <c r="S351" s="1"/>
-      <c r="T351" s="1"/>
-      <c r="U351" s="1"/>
+      <c r="B351" s="3"/>
+      <c r="C351" s="3"/>
+      <c r="D351" s="3"/>
+      <c r="E351" s="3"/>
+      <c r="F351" s="3"/>
+      <c r="G351" s="4"/>
+      <c r="H351" s="4"/>
+      <c r="I351" s="3"/>
+      <c r="J351" s="3"/>
+      <c r="K351" s="3"/>
+      <c r="L351" s="4"/>
+      <c r="M351" s="3"/>
+      <c r="N351" s="3"/>
+      <c r="O351" s="3"/>
+      <c r="P351" s="3"/>
+      <c r="Q351" s="3"/>
+      <c r="R351" s="3"/>
+      <c r="S351" s="4"/>
+      <c r="T351" s="3"/>
+      <c r="U351" s="2"/>
     </row>
     <row r="352" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
@@ -27536,35 +27588,35 @@
       <c r="L353" s="2"/>
       <c r="M353" s="1"/>
       <c r="N353" s="1"/>
-      <c r="O353" s="2"/>
+      <c r="O353" s="1"/>
       <c r="P353" s="1"/>
       <c r="Q353" s="1"/>
       <c r="R353" s="1"/>
-      <c r="S353" s="2"/>
+      <c r="S353" s="1"/>
       <c r="T353" s="1"/>
-      <c r="U353" s="2"/>
+      <c r="U353" s="1"/>
     </row>
     <row r="354" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
-      <c r="B354" s="3"/>
-      <c r="C354" s="3"/>
-      <c r="D354" s="3"/>
-      <c r="E354" s="3"/>
-      <c r="F354" s="3"/>
-      <c r="G354" s="4"/>
-      <c r="H354" s="4"/>
-      <c r="I354" s="3"/>
-      <c r="J354" s="3"/>
-      <c r="K354" s="3"/>
-      <c r="L354" s="4"/>
-      <c r="M354" s="3"/>
-      <c r="N354" s="3"/>
+      <c r="B354" s="1"/>
+      <c r="C354" s="1"/>
+      <c r="D354" s="1"/>
+      <c r="E354" s="1"/>
+      <c r="F354" s="1"/>
+      <c r="G354" s="2"/>
+      <c r="H354" s="2"/>
+      <c r="I354" s="1"/>
+      <c r="J354" s="1"/>
+      <c r="K354" s="1"/>
+      <c r="L354" s="2"/>
+      <c r="M354" s="1"/>
+      <c r="N354" s="1"/>
       <c r="O354" s="2"/>
-      <c r="P354" s="3"/>
-      <c r="Q354" s="3"/>
-      <c r="R354" s="3"/>
-      <c r="S354" s="4"/>
-      <c r="T354" s="3"/>
+      <c r="P354" s="1"/>
+      <c r="Q354" s="1"/>
+      <c r="R354" s="1"/>
+      <c r="S354" s="2"/>
+      <c r="T354" s="1"/>
       <c r="U354" s="2"/>
     </row>
     <row r="355" spans="1:21" x14ac:dyDescent="0.25">
@@ -27592,71 +27644,71 @@
     </row>
     <row r="356" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
-      <c r="B356" s="1"/>
-      <c r="C356" s="1"/>
-      <c r="D356" s="1"/>
-      <c r="E356" s="1"/>
-      <c r="F356" s="1"/>
-      <c r="G356" s="2"/>
-      <c r="H356" s="2"/>
-      <c r="I356" s="1"/>
-      <c r="J356" s="1"/>
-      <c r="K356" s="1"/>
-      <c r="L356" s="2"/>
-      <c r="M356" s="1"/>
-      <c r="N356" s="1"/>
+      <c r="B356" s="3"/>
+      <c r="C356" s="3"/>
+      <c r="D356" s="3"/>
+      <c r="E356" s="3"/>
+      <c r="F356" s="3"/>
+      <c r="G356" s="4"/>
+      <c r="H356" s="4"/>
+      <c r="I356" s="3"/>
+      <c r="J356" s="3"/>
+      <c r="K356" s="3"/>
+      <c r="L356" s="4"/>
+      <c r="M356" s="3"/>
+      <c r="N356" s="3"/>
       <c r="O356" s="2"/>
-      <c r="P356" s="1"/>
-      <c r="Q356" s="1"/>
-      <c r="R356" s="1"/>
-      <c r="S356" s="2"/>
-      <c r="T356" s="1"/>
+      <c r="P356" s="3"/>
+      <c r="Q356" s="3"/>
+      <c r="R356" s="3"/>
+      <c r="S356" s="4"/>
+      <c r="T356" s="3"/>
       <c r="U356" s="2"/>
     </row>
     <row r="357" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
-      <c r="B357" s="3"/>
-      <c r="C357" s="3"/>
-      <c r="D357" s="3"/>
-      <c r="E357" s="3"/>
-      <c r="F357" s="3"/>
-      <c r="G357" s="4"/>
-      <c r="H357" s="4"/>
-      <c r="I357" s="3"/>
-      <c r="J357" s="3"/>
-      <c r="K357" s="3"/>
-      <c r="L357" s="4"/>
-      <c r="M357" s="3"/>
-      <c r="N357" s="3"/>
+      <c r="B357" s="1"/>
+      <c r="C357" s="1"/>
+      <c r="D357" s="1"/>
+      <c r="E357" s="1"/>
+      <c r="F357" s="1"/>
+      <c r="G357" s="2"/>
+      <c r="H357" s="2"/>
+      <c r="I357" s="1"/>
+      <c r="J357" s="1"/>
+      <c r="K357" s="1"/>
+      <c r="L357" s="2"/>
+      <c r="M357" s="1"/>
+      <c r="N357" s="1"/>
       <c r="O357" s="2"/>
-      <c r="P357" s="3"/>
-      <c r="Q357" s="3"/>
-      <c r="R357" s="3"/>
-      <c r="S357" s="4"/>
-      <c r="T357" s="3"/>
+      <c r="P357" s="1"/>
+      <c r="Q357" s="1"/>
+      <c r="R357" s="1"/>
+      <c r="S357" s="2"/>
+      <c r="T357" s="1"/>
       <c r="U357" s="2"/>
     </row>
     <row r="358" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
-      <c r="B358" s="1"/>
-      <c r="C358" s="1"/>
-      <c r="D358" s="1"/>
-      <c r="E358" s="1"/>
-      <c r="F358" s="1"/>
-      <c r="G358" s="2"/>
-      <c r="H358" s="2"/>
-      <c r="I358" s="1"/>
-      <c r="J358" s="1"/>
-      <c r="K358" s="1"/>
-      <c r="L358" s="2"/>
-      <c r="M358" s="1"/>
-      <c r="N358" s="1"/>
+      <c r="B358" s="3"/>
+      <c r="C358" s="3"/>
+      <c r="D358" s="3"/>
+      <c r="E358" s="3"/>
+      <c r="F358" s="3"/>
+      <c r="G358" s="4"/>
+      <c r="H358" s="4"/>
+      <c r="I358" s="3"/>
+      <c r="J358" s="3"/>
+      <c r="K358" s="3"/>
+      <c r="L358" s="4"/>
+      <c r="M358" s="3"/>
+      <c r="N358" s="3"/>
       <c r="O358" s="2"/>
-      <c r="P358" s="1"/>
-      <c r="Q358" s="1"/>
-      <c r="R358" s="1"/>
-      <c r="S358" s="2"/>
-      <c r="T358" s="1"/>
+      <c r="P358" s="3"/>
+      <c r="Q358" s="3"/>
+      <c r="R358" s="3"/>
+      <c r="S358" s="4"/>
+      <c r="T358" s="3"/>
       <c r="U358" s="2"/>
     </row>
     <row r="359" spans="1:21" x14ac:dyDescent="0.25">
@@ -27730,25 +27782,25 @@
     </row>
     <row r="362" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
-      <c r="B362" s="3"/>
-      <c r="C362" s="3"/>
-      <c r="D362" s="3"/>
-      <c r="E362" s="3"/>
-      <c r="F362" s="3"/>
-      <c r="G362" s="4"/>
-      <c r="H362" s="4"/>
-      <c r="I362" s="3"/>
-      <c r="J362" s="3"/>
-      <c r="K362" s="3"/>
-      <c r="L362" s="4"/>
-      <c r="M362" s="3"/>
-      <c r="N362" s="3"/>
+      <c r="B362" s="1"/>
+      <c r="C362" s="1"/>
+      <c r="D362" s="1"/>
+      <c r="E362" s="1"/>
+      <c r="F362" s="1"/>
+      <c r="G362" s="2"/>
+      <c r="H362" s="2"/>
+      <c r="I362" s="1"/>
+      <c r="J362" s="1"/>
+      <c r="K362" s="1"/>
+      <c r="L362" s="2"/>
+      <c r="M362" s="1"/>
+      <c r="N362" s="1"/>
       <c r="O362" s="2"/>
-      <c r="P362" s="3"/>
-      <c r="Q362" s="3"/>
-      <c r="R362" s="3"/>
-      <c r="S362" s="4"/>
-      <c r="T362" s="3"/>
+      <c r="P362" s="1"/>
+      <c r="Q362" s="1"/>
+      <c r="R362" s="1"/>
+      <c r="S362" s="2"/>
+      <c r="T362" s="1"/>
       <c r="U362" s="2"/>
     </row>
     <row r="363" spans="1:21" x14ac:dyDescent="0.25">
@@ -27776,25 +27828,25 @@
     </row>
     <row r="364" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
-      <c r="B364" s="1"/>
-      <c r="C364" s="1"/>
-      <c r="D364" s="1"/>
-      <c r="E364" s="1"/>
-      <c r="F364" s="1"/>
-      <c r="G364" s="2"/>
-      <c r="H364" s="2"/>
-      <c r="I364" s="1"/>
-      <c r="J364" s="1"/>
-      <c r="K364" s="1"/>
-      <c r="L364" s="2"/>
-      <c r="M364" s="1"/>
-      <c r="N364" s="1"/>
+      <c r="B364" s="3"/>
+      <c r="C364" s="3"/>
+      <c r="D364" s="3"/>
+      <c r="E364" s="3"/>
+      <c r="F364" s="3"/>
+      <c r="G364" s="4"/>
+      <c r="H364" s="4"/>
+      <c r="I364" s="3"/>
+      <c r="J364" s="3"/>
+      <c r="K364" s="3"/>
+      <c r="L364" s="4"/>
+      <c r="M364" s="3"/>
+      <c r="N364" s="3"/>
       <c r="O364" s="2"/>
-      <c r="P364" s="1"/>
-      <c r="Q364" s="1"/>
-      <c r="R364" s="1"/>
-      <c r="S364" s="2"/>
-      <c r="T364" s="1"/>
+      <c r="P364" s="3"/>
+      <c r="Q364" s="3"/>
+      <c r="R364" s="3"/>
+      <c r="S364" s="4"/>
+      <c r="T364" s="3"/>
       <c r="U364" s="2"/>
     </row>
     <row r="365" spans="1:21" x14ac:dyDescent="0.25">
@@ -27816,7 +27868,7 @@
       <c r="P365" s="1"/>
       <c r="Q365" s="1"/>
       <c r="R365" s="1"/>
-      <c r="S365" s="1"/>
+      <c r="S365" s="2"/>
       <c r="T365" s="1"/>
       <c r="U365" s="2"/>
     </row>
@@ -27839,7 +27891,7 @@
       <c r="P366" s="1"/>
       <c r="Q366" s="1"/>
       <c r="R366" s="1"/>
-      <c r="S366" s="2"/>
+      <c r="S366" s="1"/>
       <c r="T366" s="1"/>
       <c r="U366" s="2"/>
     </row>
@@ -27891,49 +27943,49 @@
     </row>
     <row r="369" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
-      <c r="B369" s="3"/>
-      <c r="C369" s="3"/>
-      <c r="D369" s="3"/>
-      <c r="E369" s="3"/>
-      <c r="F369" s="3"/>
-      <c r="G369" s="4"/>
-      <c r="H369" s="4"/>
-      <c r="I369" s="3"/>
-      <c r="J369" s="3"/>
-      <c r="K369" s="3"/>
-      <c r="L369" s="4"/>
-      <c r="M369" s="3"/>
-      <c r="N369" s="3"/>
+      <c r="B369" s="1"/>
+      <c r="C369" s="1"/>
+      <c r="D369" s="1"/>
+      <c r="E369" s="1"/>
+      <c r="F369" s="1"/>
+      <c r="G369" s="2"/>
+      <c r="H369" s="2"/>
+      <c r="I369" s="1"/>
+      <c r="J369" s="1"/>
+      <c r="K369" s="1"/>
+      <c r="L369" s="2"/>
+      <c r="M369" s="1"/>
+      <c r="N369" s="1"/>
       <c r="O369" s="2"/>
-      <c r="P369" s="3"/>
-      <c r="Q369" s="3"/>
-      <c r="R369" s="3"/>
-      <c r="S369" s="4"/>
-      <c r="T369" s="3"/>
+      <c r="P369" s="1"/>
+      <c r="Q369" s="1"/>
+      <c r="R369" s="1"/>
+      <c r="S369" s="2"/>
+      <c r="T369" s="1"/>
       <c r="U369" s="2"/>
     </row>
     <row r="370" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
-      <c r="B370" s="1"/>
-      <c r="C370" s="1"/>
-      <c r="D370" s="1"/>
-      <c r="E370" s="1"/>
-      <c r="F370" s="1"/>
-      <c r="G370" s="2"/>
-      <c r="H370" s="2"/>
-      <c r="I370" s="1"/>
-      <c r="J370" s="1"/>
-      <c r="K370" s="2"/>
-      <c r="L370" s="2"/>
-      <c r="M370" s="1"/>
-      <c r="N370" s="1"/>
-      <c r="O370" s="1"/>
-      <c r="P370" s="1"/>
-      <c r="Q370" s="1"/>
-      <c r="R370" s="1"/>
-      <c r="S370" s="1"/>
-      <c r="T370" s="1"/>
-      <c r="U370" s="1"/>
+      <c r="B370" s="3"/>
+      <c r="C370" s="3"/>
+      <c r="D370" s="3"/>
+      <c r="E370" s="3"/>
+      <c r="F370" s="3"/>
+      <c r="G370" s="4"/>
+      <c r="H370" s="4"/>
+      <c r="I370" s="3"/>
+      <c r="J370" s="3"/>
+      <c r="K370" s="3"/>
+      <c r="L370" s="4"/>
+      <c r="M370" s="3"/>
+      <c r="N370" s="3"/>
+      <c r="O370" s="2"/>
+      <c r="P370" s="3"/>
+      <c r="Q370" s="3"/>
+      <c r="R370" s="3"/>
+      <c r="S370" s="4"/>
+      <c r="T370" s="3"/>
+      <c r="U370" s="2"/>
     </row>
     <row r="371" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
@@ -28016,38 +28068,38 @@
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
       <c r="K374" s="2"/>
-      <c r="L374" s="1"/>
+      <c r="L374" s="2"/>
       <c r="M374" s="1"/>
       <c r="N374" s="1"/>
       <c r="O374" s="1"/>
       <c r="P374" s="1"/>
       <c r="Q374" s="1"/>
       <c r="R374" s="1"/>
-      <c r="S374" s="2"/>
+      <c r="S374" s="1"/>
       <c r="T374" s="1"/>
-      <c r="U374" s="2"/>
+      <c r="U374" s="1"/>
     </row>
     <row r="375" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
-      <c r="B375" s="3"/>
-      <c r="C375" s="3"/>
-      <c r="D375" s="3"/>
-      <c r="E375" s="3"/>
-      <c r="F375" s="3"/>
-      <c r="G375" s="4"/>
-      <c r="H375" s="4"/>
-      <c r="I375" s="3"/>
-      <c r="J375" s="3"/>
-      <c r="K375" s="4"/>
-      <c r="L375" s="3"/>
-      <c r="M375" s="3"/>
-      <c r="N375" s="3"/>
-      <c r="O375" s="3"/>
-      <c r="P375" s="3"/>
-      <c r="Q375" s="3"/>
-      <c r="R375" s="3"/>
-      <c r="S375" s="4"/>
-      <c r="T375" s="3"/>
+      <c r="B375" s="1"/>
+      <c r="C375" s="1"/>
+      <c r="D375" s="1"/>
+      <c r="E375" s="1"/>
+      <c r="F375" s="1"/>
+      <c r="G375" s="2"/>
+      <c r="H375" s="2"/>
+      <c r="I375" s="1"/>
+      <c r="J375" s="1"/>
+      <c r="K375" s="2"/>
+      <c r="L375" s="1"/>
+      <c r="M375" s="1"/>
+      <c r="N375" s="1"/>
+      <c r="O375" s="1"/>
+      <c r="P375" s="1"/>
+      <c r="Q375" s="1"/>
+      <c r="R375" s="1"/>
+      <c r="S375" s="2"/>
+      <c r="T375" s="1"/>
       <c r="U375" s="2"/>
     </row>
     <row r="376" spans="1:21" x14ac:dyDescent="0.25">
@@ -28075,71 +28127,71 @@
     </row>
     <row r="377" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
-      <c r="B377" s="1"/>
-      <c r="C377" s="1"/>
-      <c r="D377" s="1"/>
-      <c r="E377" s="1"/>
-      <c r="F377" s="1"/>
-      <c r="G377" s="2"/>
-      <c r="H377" s="2"/>
-      <c r="I377" s="1"/>
-      <c r="J377" s="1"/>
-      <c r="K377" s="2"/>
-      <c r="L377" s="1"/>
-      <c r="M377" s="1"/>
-      <c r="N377" s="1"/>
-      <c r="O377" s="1"/>
-      <c r="P377" s="1"/>
-      <c r="Q377" s="1"/>
-      <c r="R377" s="1"/>
-      <c r="S377" s="2"/>
-      <c r="T377" s="1"/>
+      <c r="B377" s="3"/>
+      <c r="C377" s="3"/>
+      <c r="D377" s="3"/>
+      <c r="E377" s="3"/>
+      <c r="F377" s="3"/>
+      <c r="G377" s="4"/>
+      <c r="H377" s="4"/>
+      <c r="I377" s="3"/>
+      <c r="J377" s="3"/>
+      <c r="K377" s="4"/>
+      <c r="L377" s="3"/>
+      <c r="M377" s="3"/>
+      <c r="N377" s="3"/>
+      <c r="O377" s="3"/>
+      <c r="P377" s="3"/>
+      <c r="Q377" s="3"/>
+      <c r="R377" s="3"/>
+      <c r="S377" s="4"/>
+      <c r="T377" s="3"/>
       <c r="U377" s="2"/>
     </row>
     <row r="378" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
-      <c r="B378" s="3"/>
-      <c r="C378" s="3"/>
-      <c r="D378" s="3"/>
-      <c r="E378" s="3"/>
-      <c r="F378" s="3"/>
-      <c r="G378" s="4"/>
-      <c r="H378" s="4"/>
-      <c r="I378" s="3"/>
-      <c r="J378" s="3"/>
-      <c r="K378" s="4"/>
-      <c r="L378" s="3"/>
-      <c r="M378" s="3"/>
-      <c r="N378" s="3"/>
-      <c r="O378" s="3"/>
-      <c r="P378" s="3"/>
-      <c r="Q378" s="3"/>
-      <c r="R378" s="3"/>
-      <c r="S378" s="4"/>
-      <c r="T378" s="3"/>
+      <c r="B378" s="1"/>
+      <c r="C378" s="1"/>
+      <c r="D378" s="1"/>
+      <c r="E378" s="1"/>
+      <c r="F378" s="1"/>
+      <c r="G378" s="2"/>
+      <c r="H378" s="2"/>
+      <c r="I378" s="1"/>
+      <c r="J378" s="1"/>
+      <c r="K378" s="2"/>
+      <c r="L378" s="1"/>
+      <c r="M378" s="1"/>
+      <c r="N378" s="1"/>
+      <c r="O378" s="1"/>
+      <c r="P378" s="1"/>
+      <c r="Q378" s="1"/>
+      <c r="R378" s="1"/>
+      <c r="S378" s="2"/>
+      <c r="T378" s="1"/>
       <c r="U378" s="2"/>
     </row>
     <row r="379" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
-      <c r="B379" s="1"/>
-      <c r="C379" s="1"/>
-      <c r="D379" s="1"/>
-      <c r="E379" s="1"/>
-      <c r="F379" s="1"/>
-      <c r="G379" s="2"/>
-      <c r="H379" s="2"/>
-      <c r="I379" s="1"/>
-      <c r="J379" s="1"/>
-      <c r="K379" s="2"/>
-      <c r="L379" s="1"/>
-      <c r="M379" s="1"/>
-      <c r="N379" s="1"/>
-      <c r="O379" s="1"/>
-      <c r="P379" s="1"/>
-      <c r="Q379" s="1"/>
-      <c r="R379" s="1"/>
-      <c r="S379" s="2"/>
-      <c r="T379" s="1"/>
+      <c r="B379" s="3"/>
+      <c r="C379" s="3"/>
+      <c r="D379" s="3"/>
+      <c r="E379" s="3"/>
+      <c r="F379" s="3"/>
+      <c r="G379" s="4"/>
+      <c r="H379" s="4"/>
+      <c r="I379" s="3"/>
+      <c r="J379" s="3"/>
+      <c r="K379" s="4"/>
+      <c r="L379" s="3"/>
+      <c r="M379" s="3"/>
+      <c r="N379" s="3"/>
+      <c r="O379" s="3"/>
+      <c r="P379" s="3"/>
+      <c r="Q379" s="3"/>
+      <c r="R379" s="3"/>
+      <c r="S379" s="4"/>
+      <c r="T379" s="3"/>
       <c r="U379" s="2"/>
     </row>
     <row r="380" spans="1:21" x14ac:dyDescent="0.25">
@@ -28213,25 +28265,25 @@
     </row>
     <row r="383" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
-      <c r="B383" s="3"/>
-      <c r="C383" s="3"/>
-      <c r="D383" s="3"/>
-      <c r="E383" s="3"/>
-      <c r="F383" s="3"/>
-      <c r="G383" s="4"/>
-      <c r="H383" s="4"/>
-      <c r="I383" s="3"/>
-      <c r="J383" s="3"/>
-      <c r="K383" s="4"/>
-      <c r="L383" s="3"/>
-      <c r="M383" s="3"/>
-      <c r="N383" s="3"/>
-      <c r="O383" s="3"/>
-      <c r="P383" s="3"/>
-      <c r="Q383" s="3"/>
-      <c r="R383" s="3"/>
-      <c r="S383" s="4"/>
-      <c r="T383" s="3"/>
+      <c r="B383" s="1"/>
+      <c r="C383" s="1"/>
+      <c r="D383" s="1"/>
+      <c r="E383" s="1"/>
+      <c r="F383" s="1"/>
+      <c r="G383" s="2"/>
+      <c r="H383" s="2"/>
+      <c r="I383" s="1"/>
+      <c r="J383" s="1"/>
+      <c r="K383" s="2"/>
+      <c r="L383" s="1"/>
+      <c r="M383" s="1"/>
+      <c r="N383" s="1"/>
+      <c r="O383" s="1"/>
+      <c r="P383" s="1"/>
+      <c r="Q383" s="1"/>
+      <c r="R383" s="1"/>
+      <c r="S383" s="2"/>
+      <c r="T383" s="1"/>
       <c r="U383" s="2"/>
     </row>
     <row r="384" spans="1:21" x14ac:dyDescent="0.25">
@@ -28259,25 +28311,25 @@
     </row>
     <row r="385" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
-      <c r="B385" s="1"/>
-      <c r="C385" s="1"/>
-      <c r="D385" s="1"/>
-      <c r="E385" s="1"/>
-      <c r="F385" s="1"/>
-      <c r="G385" s="2"/>
-      <c r="H385" s="2"/>
-      <c r="I385" s="1"/>
-      <c r="J385" s="1"/>
-      <c r="K385" s="2"/>
-      <c r="L385" s="1"/>
-      <c r="M385" s="1"/>
-      <c r="N385" s="1"/>
-      <c r="O385" s="1"/>
-      <c r="P385" s="1"/>
-      <c r="Q385" s="1"/>
-      <c r="R385" s="1"/>
-      <c r="S385" s="2"/>
-      <c r="T385" s="1"/>
+      <c r="B385" s="3"/>
+      <c r="C385" s="3"/>
+      <c r="D385" s="3"/>
+      <c r="E385" s="3"/>
+      <c r="F385" s="3"/>
+      <c r="G385" s="4"/>
+      <c r="H385" s="4"/>
+      <c r="I385" s="3"/>
+      <c r="J385" s="3"/>
+      <c r="K385" s="4"/>
+      <c r="L385" s="3"/>
+      <c r="M385" s="3"/>
+      <c r="N385" s="3"/>
+      <c r="O385" s="3"/>
+      <c r="P385" s="3"/>
+      <c r="Q385" s="3"/>
+      <c r="R385" s="3"/>
+      <c r="S385" s="4"/>
+      <c r="T385" s="3"/>
       <c r="U385" s="2"/>
     </row>
     <row r="386" spans="1:21" x14ac:dyDescent="0.25">
@@ -28299,7 +28351,7 @@
       <c r="P386" s="1"/>
       <c r="Q386" s="1"/>
       <c r="R386" s="1"/>
-      <c r="S386" s="1"/>
+      <c r="S386" s="2"/>
       <c r="T386" s="1"/>
       <c r="U386" s="2"/>
     </row>
@@ -28322,7 +28374,7 @@
       <c r="P387" s="1"/>
       <c r="Q387" s="1"/>
       <c r="R387" s="1"/>
-      <c r="S387" s="2"/>
+      <c r="S387" s="1"/>
       <c r="T387" s="1"/>
       <c r="U387" s="2"/>
     </row>
@@ -28374,49 +28426,49 @@
     </row>
     <row r="390" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
-      <c r="B390" s="3"/>
-      <c r="C390" s="3"/>
-      <c r="D390" s="3"/>
-      <c r="E390" s="3"/>
-      <c r="F390" s="3"/>
-      <c r="G390" s="4"/>
-      <c r="H390" s="4"/>
-      <c r="I390" s="3"/>
-      <c r="J390" s="3"/>
-      <c r="K390" s="4"/>
-      <c r="L390" s="3"/>
-      <c r="M390" s="3"/>
-      <c r="N390" s="3"/>
-      <c r="O390" s="3"/>
-      <c r="P390" s="3"/>
-      <c r="Q390" s="3"/>
-      <c r="R390" s="3"/>
-      <c r="S390" s="4"/>
-      <c r="T390" s="3"/>
+      <c r="B390" s="1"/>
+      <c r="C390" s="1"/>
+      <c r="D390" s="1"/>
+      <c r="E390" s="1"/>
+      <c r="F390" s="1"/>
+      <c r="G390" s="2"/>
+      <c r="H390" s="2"/>
+      <c r="I390" s="1"/>
+      <c r="J390" s="1"/>
+      <c r="K390" s="2"/>
+      <c r="L390" s="1"/>
+      <c r="M390" s="1"/>
+      <c r="N390" s="1"/>
+      <c r="O390" s="1"/>
+      <c r="P390" s="1"/>
+      <c r="Q390" s="1"/>
+      <c r="R390" s="1"/>
+      <c r="S390" s="2"/>
+      <c r="T390" s="1"/>
       <c r="U390" s="2"/>
     </row>
     <row r="391" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
-      <c r="B391" s="1"/>
-      <c r="C391" s="1"/>
-      <c r="D391" s="1"/>
-      <c r="E391" s="1"/>
-      <c r="F391" s="1"/>
-      <c r="G391" s="2"/>
-      <c r="H391" s="2"/>
-      <c r="I391" s="1"/>
-      <c r="J391" s="1"/>
-      <c r="K391" s="2"/>
-      <c r="L391" s="1"/>
-      <c r="M391" s="1"/>
-      <c r="N391" s="1"/>
-      <c r="O391" s="1"/>
-      <c r="P391" s="1"/>
-      <c r="Q391" s="1"/>
-      <c r="R391" s="1"/>
-      <c r="S391" s="1"/>
-      <c r="T391" s="1"/>
-      <c r="U391" s="1"/>
+      <c r="B391" s="3"/>
+      <c r="C391" s="3"/>
+      <c r="D391" s="3"/>
+      <c r="E391" s="3"/>
+      <c r="F391" s="3"/>
+      <c r="G391" s="4"/>
+      <c r="H391" s="4"/>
+      <c r="I391" s="3"/>
+      <c r="J391" s="3"/>
+      <c r="K391" s="4"/>
+      <c r="L391" s="3"/>
+      <c r="M391" s="3"/>
+      <c r="N391" s="3"/>
+      <c r="O391" s="3"/>
+      <c r="P391" s="3"/>
+      <c r="Q391" s="3"/>
+      <c r="R391" s="3"/>
+      <c r="S391" s="4"/>
+      <c r="T391" s="3"/>
+      <c r="U391" s="2"/>
     </row>
     <row r="392" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
@@ -28429,7 +28481,7 @@
       <c r="H392" s="2"/>
       <c r="I392" s="1"/>
       <c r="J392" s="1"/>
-      <c r="K392" s="1"/>
+      <c r="K392" s="2"/>
       <c r="L392" s="1"/>
       <c r="M392" s="1"/>
       <c r="N392" s="1"/>
@@ -28456,34 +28508,34 @@
       <c r="L393" s="1"/>
       <c r="M393" s="1"/>
       <c r="N393" s="1"/>
-      <c r="O393" s="2"/>
+      <c r="O393" s="1"/>
+      <c r="P393" s="1"/>
       <c r="Q393" s="1"/>
       <c r="R393" s="1"/>
-      <c r="S393" s="2"/>
+      <c r="S393" s="1"/>
       <c r="T393" s="1"/>
-      <c r="U393" s="2"/>
+      <c r="U393" s="1"/>
     </row>
     <row r="394" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
-      <c r="B394" s="3"/>
-      <c r="C394" s="3"/>
-      <c r="D394" s="3"/>
-      <c r="E394" s="3"/>
-      <c r="F394" s="3"/>
-      <c r="G394" s="4"/>
-      <c r="H394" s="4"/>
-      <c r="I394" s="3"/>
-      <c r="J394" s="3"/>
-      <c r="K394" s="3"/>
-      <c r="L394" s="3"/>
-      <c r="M394" s="3"/>
-      <c r="N394" s="3"/>
+      <c r="B394" s="1"/>
+      <c r="C394" s="1"/>
+      <c r="D394" s="1"/>
+      <c r="E394" s="1"/>
+      <c r="F394" s="1"/>
+      <c r="G394" s="2"/>
+      <c r="H394" s="2"/>
+      <c r="I394" s="1"/>
+      <c r="J394" s="1"/>
+      <c r="K394" s="1"/>
+      <c r="L394" s="1"/>
+      <c r="M394" s="1"/>
+      <c r="N394" s="1"/>
       <c r="O394" s="2"/>
-      <c r="P394" s="3"/>
-      <c r="Q394" s="3"/>
-      <c r="R394" s="3"/>
-      <c r="S394" s="4"/>
-      <c r="T394" s="3"/>
+      <c r="Q394" s="1"/>
+      <c r="R394" s="1"/>
+      <c r="S394" s="2"/>
+      <c r="T394" s="1"/>
       <c r="U394" s="2"/>
     </row>
     <row r="395" spans="1:21" x14ac:dyDescent="0.25">
@@ -28511,71 +28563,71 @@
     </row>
     <row r="396" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
-      <c r="B396" s="1"/>
-      <c r="C396" s="1"/>
-      <c r="D396" s="1"/>
-      <c r="E396" s="1"/>
-      <c r="F396" s="1"/>
-      <c r="G396" s="2"/>
-      <c r="H396" s="2"/>
-      <c r="I396" s="1"/>
-      <c r="J396" s="1"/>
-      <c r="K396" s="1"/>
-      <c r="L396" s="1"/>
-      <c r="M396" s="1"/>
-      <c r="N396" s="1"/>
+      <c r="B396" s="3"/>
+      <c r="C396" s="3"/>
+      <c r="D396" s="3"/>
+      <c r="E396" s="3"/>
+      <c r="F396" s="3"/>
+      <c r="G396" s="4"/>
+      <c r="H396" s="4"/>
+      <c r="I396" s="3"/>
+      <c r="J396" s="3"/>
+      <c r="K396" s="3"/>
+      <c r="L396" s="3"/>
+      <c r="M396" s="3"/>
+      <c r="N396" s="3"/>
       <c r="O396" s="2"/>
-      <c r="P396" s="1"/>
-      <c r="Q396" s="1"/>
-      <c r="R396" s="1"/>
-      <c r="S396" s="2"/>
-      <c r="T396" s="1"/>
+      <c r="P396" s="3"/>
+      <c r="Q396" s="3"/>
+      <c r="R396" s="3"/>
+      <c r="S396" s="4"/>
+      <c r="T396" s="3"/>
       <c r="U396" s="2"/>
     </row>
     <row r="397" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
-      <c r="B397" s="3"/>
-      <c r="C397" s="3"/>
-      <c r="D397" s="3"/>
-      <c r="E397" s="3"/>
-      <c r="F397" s="3"/>
-      <c r="G397" s="4"/>
-      <c r="H397" s="4"/>
-      <c r="I397" s="3"/>
-      <c r="J397" s="3"/>
-      <c r="K397" s="3"/>
-      <c r="L397" s="3"/>
-      <c r="M397" s="3"/>
-      <c r="N397" s="3"/>
+      <c r="B397" s="1"/>
+      <c r="C397" s="1"/>
+      <c r="D397" s="1"/>
+      <c r="E397" s="1"/>
+      <c r="F397" s="1"/>
+      <c r="G397" s="2"/>
+      <c r="H397" s="2"/>
+      <c r="I397" s="1"/>
+      <c r="J397" s="1"/>
+      <c r="K397" s="1"/>
+      <c r="L397" s="1"/>
+      <c r="M397" s="1"/>
+      <c r="N397" s="1"/>
       <c r="O397" s="2"/>
-      <c r="P397" s="3"/>
-      <c r="Q397" s="3"/>
-      <c r="R397" s="3"/>
-      <c r="S397" s="4"/>
-      <c r="T397" s="3"/>
+      <c r="P397" s="1"/>
+      <c r="Q397" s="1"/>
+      <c r="R397" s="1"/>
+      <c r="S397" s="2"/>
+      <c r="T397" s="1"/>
       <c r="U397" s="2"/>
     </row>
     <row r="398" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
-      <c r="B398" s="1"/>
-      <c r="C398" s="1"/>
-      <c r="D398" s="1"/>
-      <c r="E398" s="1"/>
-      <c r="F398" s="1"/>
-      <c r="G398" s="2"/>
-      <c r="H398" s="2"/>
-      <c r="I398" s="1"/>
-      <c r="J398" s="1"/>
-      <c r="K398" s="1"/>
-      <c r="L398" s="1"/>
-      <c r="M398" s="1"/>
-      <c r="N398" s="1"/>
+      <c r="B398" s="3"/>
+      <c r="C398" s="3"/>
+      <c r="D398" s="3"/>
+      <c r="E398" s="3"/>
+      <c r="F398" s="3"/>
+      <c r="G398" s="4"/>
+      <c r="H398" s="4"/>
+      <c r="I398" s="3"/>
+      <c r="J398" s="3"/>
+      <c r="K398" s="3"/>
+      <c r="L398" s="3"/>
+      <c r="M398" s="3"/>
+      <c r="N398" s="3"/>
       <c r="O398" s="2"/>
-      <c r="P398" s="1"/>
-      <c r="Q398" s="1"/>
-      <c r="R398" s="1"/>
-      <c r="S398" s="2"/>
-      <c r="T398" s="1"/>
+      <c r="P398" s="3"/>
+      <c r="Q398" s="3"/>
+      <c r="R398" s="3"/>
+      <c r="S398" s="4"/>
+      <c r="T398" s="3"/>
       <c r="U398" s="2"/>
     </row>
     <row r="399" spans="1:21" x14ac:dyDescent="0.25">
@@ -28605,7 +28657,7 @@
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
-      <c r="D400" s="2"/>
+      <c r="D400" s="1"/>
       <c r="E400" s="1"/>
       <c r="F400" s="1"/>
       <c r="G400" s="2"/>
@@ -28628,7 +28680,7 @@
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
-      <c r="D401" s="1"/>
+      <c r="D401" s="2"/>
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
       <c r="G401" s="2"/>
@@ -28666,31 +28718,31 @@
       <c r="P402" s="1"/>
       <c r="Q402" s="1"/>
       <c r="R402" s="1"/>
-      <c r="S402" s="4"/>
+      <c r="S402" s="2"/>
       <c r="T402" s="1"/>
       <c r="U402" s="2"/>
     </row>
     <row r="403" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
-      <c r="B403" s="3"/>
-      <c r="C403" s="3"/>
-      <c r="D403" s="3"/>
-      <c r="E403" s="3"/>
-      <c r="F403" s="3"/>
-      <c r="G403" s="4"/>
-      <c r="H403" s="4"/>
-      <c r="I403" s="3"/>
-      <c r="J403" s="3"/>
-      <c r="K403" s="3"/>
-      <c r="L403" s="3"/>
-      <c r="M403" s="3"/>
-      <c r="N403" s="3"/>
+      <c r="B403" s="1"/>
+      <c r="C403" s="1"/>
+      <c r="D403" s="1"/>
+      <c r="E403" s="1"/>
+      <c r="F403" s="1"/>
+      <c r="G403" s="2"/>
+      <c r="H403" s="2"/>
+      <c r="I403" s="1"/>
+      <c r="J403" s="1"/>
+      <c r="K403" s="1"/>
+      <c r="L403" s="1"/>
+      <c r="M403" s="1"/>
+      <c r="N403" s="1"/>
       <c r="O403" s="2"/>
-      <c r="P403" s="3"/>
-      <c r="Q403" s="3"/>
-      <c r="R403" s="3"/>
+      <c r="P403" s="1"/>
+      <c r="Q403" s="1"/>
+      <c r="R403" s="1"/>
       <c r="S403" s="4"/>
-      <c r="T403" s="3"/>
+      <c r="T403" s="1"/>
       <c r="U403" s="2"/>
     </row>
     <row r="404" spans="1:21" x14ac:dyDescent="0.25">
@@ -28712,31 +28764,31 @@
       <c r="P404" s="3"/>
       <c r="Q404" s="3"/>
       <c r="R404" s="3"/>
-      <c r="S404" s="2"/>
+      <c r="S404" s="4"/>
       <c r="T404" s="3"/>
       <c r="U404" s="2"/>
     </row>
     <row r="405" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
-      <c r="B405" s="1"/>
-      <c r="C405" s="1"/>
-      <c r="D405" s="1"/>
-      <c r="E405" s="1"/>
-      <c r="F405" s="1"/>
-      <c r="G405" s="2"/>
-      <c r="H405" s="2"/>
-      <c r="I405" s="1"/>
-      <c r="J405" s="1"/>
-      <c r="K405" s="1"/>
-      <c r="L405" s="1"/>
-      <c r="M405" s="1"/>
-      <c r="N405" s="1"/>
+      <c r="B405" s="3"/>
+      <c r="C405" s="3"/>
+      <c r="D405" s="3"/>
+      <c r="E405" s="3"/>
+      <c r="F405" s="3"/>
+      <c r="G405" s="4"/>
+      <c r="H405" s="4"/>
+      <c r="I405" s="3"/>
+      <c r="J405" s="3"/>
+      <c r="K405" s="3"/>
+      <c r="L405" s="3"/>
+      <c r="M405" s="3"/>
+      <c r="N405" s="3"/>
       <c r="O405" s="2"/>
-      <c r="P405" s="1"/>
-      <c r="Q405" s="1"/>
-      <c r="R405" s="1"/>
-      <c r="S405" s="1"/>
-      <c r="T405" s="1"/>
+      <c r="P405" s="3"/>
+      <c r="Q405" s="3"/>
+      <c r="R405" s="3"/>
+      <c r="S405" s="2"/>
+      <c r="T405" s="3"/>
       <c r="U405" s="2"/>
     </row>
     <row r="406" spans="1:21" x14ac:dyDescent="0.25">
@@ -28758,7 +28810,7 @@
       <c r="P406" s="1"/>
       <c r="Q406" s="1"/>
       <c r="R406" s="1"/>
-      <c r="S406" s="2"/>
+      <c r="S406" s="1"/>
       <c r="T406" s="1"/>
       <c r="U406" s="2"/>
     </row>
@@ -28810,49 +28862,49 @@
     </row>
     <row r="409" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
-      <c r="B409" s="3"/>
-      <c r="C409" s="3"/>
-      <c r="D409" s="3"/>
-      <c r="E409" s="3"/>
-      <c r="F409" s="3"/>
-      <c r="G409" s="4"/>
-      <c r="H409" s="4"/>
-      <c r="I409" s="3"/>
-      <c r="J409" s="3"/>
-      <c r="K409" s="3"/>
-      <c r="L409" s="3"/>
-      <c r="M409" s="3"/>
-      <c r="N409" s="3"/>
+      <c r="B409" s="1"/>
+      <c r="C409" s="1"/>
+      <c r="D409" s="1"/>
+      <c r="E409" s="1"/>
+      <c r="F409" s="1"/>
+      <c r="G409" s="2"/>
+      <c r="H409" s="2"/>
+      <c r="I409" s="1"/>
+      <c r="J409" s="1"/>
+      <c r="K409" s="1"/>
+      <c r="L409" s="1"/>
+      <c r="M409" s="1"/>
+      <c r="N409" s="1"/>
       <c r="O409" s="2"/>
-      <c r="P409" s="3"/>
-      <c r="Q409" s="3"/>
-      <c r="R409" s="3"/>
-      <c r="S409" s="4"/>
-      <c r="T409" s="3"/>
+      <c r="P409" s="1"/>
+      <c r="Q409" s="1"/>
+      <c r="R409" s="1"/>
+      <c r="S409" s="2"/>
+      <c r="T409" s="1"/>
       <c r="U409" s="2"/>
     </row>
     <row r="410" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
-      <c r="B410" s="1"/>
-      <c r="C410" s="1"/>
-      <c r="D410" s="1"/>
-      <c r="E410" s="1"/>
-      <c r="F410" s="1"/>
-      <c r="G410" s="2"/>
-      <c r="H410" s="2"/>
-      <c r="I410" s="1"/>
-      <c r="J410" s="1"/>
-      <c r="K410" s="2"/>
-      <c r="L410" s="2"/>
-      <c r="M410" s="1"/>
-      <c r="N410" s="1"/>
-      <c r="O410" s="1"/>
-      <c r="P410" s="1"/>
-      <c r="Q410" s="1"/>
-      <c r="R410" s="1"/>
-      <c r="S410" s="1"/>
-      <c r="T410" s="1"/>
-      <c r="U410" s="1"/>
+      <c r="B410" s="3"/>
+      <c r="C410" s="3"/>
+      <c r="D410" s="3"/>
+      <c r="E410" s="3"/>
+      <c r="F410" s="3"/>
+      <c r="G410" s="4"/>
+      <c r="H410" s="4"/>
+      <c r="I410" s="3"/>
+      <c r="J410" s="3"/>
+      <c r="K410" s="3"/>
+      <c r="L410" s="3"/>
+      <c r="M410" s="3"/>
+      <c r="N410" s="3"/>
+      <c r="O410" s="2"/>
+      <c r="P410" s="3"/>
+      <c r="Q410" s="3"/>
+      <c r="R410" s="3"/>
+      <c r="S410" s="4"/>
+      <c r="T410" s="3"/>
+      <c r="U410" s="2"/>
     </row>
     <row r="411" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
@@ -28935,38 +28987,38 @@
       <c r="I414" s="1"/>
       <c r="J414" s="1"/>
       <c r="K414" s="2"/>
-      <c r="L414" s="1"/>
+      <c r="L414" s="2"/>
       <c r="M414" s="1"/>
       <c r="N414" s="1"/>
       <c r="O414" s="1"/>
       <c r="P414" s="1"/>
       <c r="Q414" s="1"/>
       <c r="R414" s="1"/>
-      <c r="S414" s="2"/>
+      <c r="S414" s="1"/>
       <c r="T414" s="1"/>
-      <c r="U414" s="2"/>
+      <c r="U414" s="1"/>
     </row>
     <row r="415" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
-      <c r="B415" s="3"/>
-      <c r="C415" s="3"/>
-      <c r="D415" s="3"/>
-      <c r="E415" s="3"/>
-      <c r="F415" s="3"/>
-      <c r="G415" s="4"/>
-      <c r="H415" s="4"/>
-      <c r="I415" s="3"/>
-      <c r="J415" s="3"/>
-      <c r="K415" s="4"/>
-      <c r="L415" s="3"/>
-      <c r="M415" s="3"/>
-      <c r="N415" s="3"/>
-      <c r="O415" s="3"/>
-      <c r="P415" s="3"/>
-      <c r="Q415" s="3"/>
-      <c r="R415" s="3"/>
-      <c r="S415" s="4"/>
-      <c r="T415" s="3"/>
+      <c r="B415" s="1"/>
+      <c r="C415" s="1"/>
+      <c r="D415" s="1"/>
+      <c r="E415" s="1"/>
+      <c r="F415" s="1"/>
+      <c r="G415" s="2"/>
+      <c r="H415" s="2"/>
+      <c r="I415" s="1"/>
+      <c r="J415" s="1"/>
+      <c r="K415" s="2"/>
+      <c r="L415" s="1"/>
+      <c r="M415" s="1"/>
+      <c r="N415" s="1"/>
+      <c r="O415" s="1"/>
+      <c r="P415" s="1"/>
+      <c r="Q415" s="1"/>
+      <c r="R415" s="1"/>
+      <c r="S415" s="2"/>
+      <c r="T415" s="1"/>
       <c r="U415" s="2"/>
     </row>
     <row r="416" spans="1:21" x14ac:dyDescent="0.25">
@@ -28994,71 +29046,71 @@
     </row>
     <row r="417" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
-      <c r="B417" s="1"/>
-      <c r="C417" s="1"/>
-      <c r="D417" s="1"/>
-      <c r="E417" s="1"/>
-      <c r="F417" s="1"/>
-      <c r="G417" s="2"/>
-      <c r="H417" s="2"/>
-      <c r="I417" s="1"/>
-      <c r="J417" s="1"/>
-      <c r="K417" s="2"/>
-      <c r="L417" s="1"/>
-      <c r="M417" s="1"/>
-      <c r="N417" s="1"/>
-      <c r="O417" s="1"/>
-      <c r="P417" s="1"/>
-      <c r="Q417" s="1"/>
-      <c r="R417" s="1"/>
-      <c r="S417" s="2"/>
-      <c r="T417" s="1"/>
+      <c r="B417" s="3"/>
+      <c r="C417" s="3"/>
+      <c r="D417" s="3"/>
+      <c r="E417" s="3"/>
+      <c r="F417" s="3"/>
+      <c r="G417" s="4"/>
+      <c r="H417" s="4"/>
+      <c r="I417" s="3"/>
+      <c r="J417" s="3"/>
+      <c r="K417" s="4"/>
+      <c r="L417" s="3"/>
+      <c r="M417" s="3"/>
+      <c r="N417" s="3"/>
+      <c r="O417" s="3"/>
+      <c r="P417" s="3"/>
+      <c r="Q417" s="3"/>
+      <c r="R417" s="3"/>
+      <c r="S417" s="4"/>
+      <c r="T417" s="3"/>
       <c r="U417" s="2"/>
     </row>
     <row r="418" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
-      <c r="B418" s="3"/>
-      <c r="C418" s="3"/>
-      <c r="D418" s="3"/>
-      <c r="E418" s="3"/>
-      <c r="F418" s="3"/>
-      <c r="G418" s="4"/>
-      <c r="H418" s="4"/>
-      <c r="I418" s="3"/>
-      <c r="J418" s="3"/>
-      <c r="K418" s="4"/>
-      <c r="L418" s="3"/>
-      <c r="M418" s="3"/>
-      <c r="N418" s="3"/>
-      <c r="O418" s="3"/>
-      <c r="P418" s="3"/>
-      <c r="Q418" s="3"/>
-      <c r="R418" s="3"/>
-      <c r="S418" s="4"/>
-      <c r="T418" s="3"/>
+      <c r="B418" s="1"/>
+      <c r="C418" s="1"/>
+      <c r="D418" s="1"/>
+      <c r="E418" s="1"/>
+      <c r="F418" s="1"/>
+      <c r="G418" s="2"/>
+      <c r="H418" s="2"/>
+      <c r="I418" s="1"/>
+      <c r="J418" s="1"/>
+      <c r="K418" s="2"/>
+      <c r="L418" s="1"/>
+      <c r="M418" s="1"/>
+      <c r="N418" s="1"/>
+      <c r="O418" s="1"/>
+      <c r="P418" s="1"/>
+      <c r="Q418" s="1"/>
+      <c r="R418" s="1"/>
+      <c r="S418" s="2"/>
+      <c r="T418" s="1"/>
       <c r="U418" s="2"/>
     </row>
     <row r="419" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
-      <c r="B419" s="1"/>
-      <c r="C419" s="1"/>
-      <c r="D419" s="1"/>
-      <c r="E419" s="1"/>
-      <c r="F419" s="1"/>
-      <c r="G419" s="2"/>
-      <c r="H419" s="2"/>
-      <c r="I419" s="1"/>
-      <c r="J419" s="1"/>
-      <c r="K419" s="2"/>
-      <c r="L419" s="1"/>
-      <c r="M419" s="1"/>
-      <c r="N419" s="1"/>
-      <c r="O419" s="1"/>
-      <c r="P419" s="1"/>
-      <c r="Q419" s="1"/>
-      <c r="R419" s="1"/>
-      <c r="S419" s="2"/>
-      <c r="T419" s="1"/>
+      <c r="B419" s="3"/>
+      <c r="C419" s="3"/>
+      <c r="D419" s="3"/>
+      <c r="E419" s="3"/>
+      <c r="F419" s="3"/>
+      <c r="G419" s="4"/>
+      <c r="H419" s="4"/>
+      <c r="I419" s="3"/>
+      <c r="J419" s="3"/>
+      <c r="K419" s="4"/>
+      <c r="L419" s="3"/>
+      <c r="M419" s="3"/>
+      <c r="N419" s="3"/>
+      <c r="O419" s="3"/>
+      <c r="P419" s="3"/>
+      <c r="Q419" s="3"/>
+      <c r="R419" s="3"/>
+      <c r="S419" s="4"/>
+      <c r="T419" s="3"/>
       <c r="U419" s="2"/>
     </row>
     <row r="420" spans="1:21" x14ac:dyDescent="0.25">
@@ -29132,25 +29184,25 @@
     </row>
     <row r="423" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
-      <c r="B423" s="3"/>
-      <c r="C423" s="3"/>
-      <c r="D423" s="3"/>
-      <c r="E423" s="3"/>
-      <c r="F423" s="3"/>
-      <c r="G423" s="4"/>
-      <c r="H423" s="4"/>
-      <c r="I423" s="3"/>
-      <c r="J423" s="3"/>
-      <c r="K423" s="4"/>
-      <c r="L423" s="3"/>
-      <c r="M423" s="3"/>
-      <c r="N423" s="3"/>
-      <c r="O423" s="3"/>
-      <c r="P423" s="3"/>
-      <c r="Q423" s="3"/>
-      <c r="R423" s="3"/>
-      <c r="S423" s="4"/>
-      <c r="T423" s="3"/>
+      <c r="B423" s="1"/>
+      <c r="C423" s="1"/>
+      <c r="D423" s="1"/>
+      <c r="E423" s="1"/>
+      <c r="F423" s="1"/>
+      <c r="G423" s="2"/>
+      <c r="H423" s="2"/>
+      <c r="I423" s="1"/>
+      <c r="J423" s="1"/>
+      <c r="K423" s="2"/>
+      <c r="L423" s="1"/>
+      <c r="M423" s="1"/>
+      <c r="N423" s="1"/>
+      <c r="O423" s="1"/>
+      <c r="P423" s="1"/>
+      <c r="Q423" s="1"/>
+      <c r="R423" s="1"/>
+      <c r="S423" s="2"/>
+      <c r="T423" s="1"/>
       <c r="U423" s="2"/>
     </row>
     <row r="424" spans="1:21" x14ac:dyDescent="0.25">
@@ -29178,25 +29230,25 @@
     </row>
     <row r="425" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
-      <c r="B425" s="1"/>
-      <c r="C425" s="1"/>
-      <c r="D425" s="1"/>
-      <c r="E425" s="1"/>
-      <c r="F425" s="1"/>
-      <c r="G425" s="2"/>
-      <c r="H425" s="2"/>
-      <c r="I425" s="1"/>
-      <c r="J425" s="1"/>
-      <c r="K425" s="2"/>
-      <c r="L425" s="1"/>
-      <c r="M425" s="1"/>
-      <c r="N425" s="1"/>
-      <c r="O425" s="1"/>
-      <c r="P425" s="1"/>
-      <c r="Q425" s="1"/>
-      <c r="R425" s="1"/>
-      <c r="S425" s="2"/>
-      <c r="T425" s="1"/>
+      <c r="B425" s="3"/>
+      <c r="C425" s="3"/>
+      <c r="D425" s="3"/>
+      <c r="E425" s="3"/>
+      <c r="F425" s="3"/>
+      <c r="G425" s="4"/>
+      <c r="H425" s="4"/>
+      <c r="I425" s="3"/>
+      <c r="J425" s="3"/>
+      <c r="K425" s="4"/>
+      <c r="L425" s="3"/>
+      <c r="M425" s="3"/>
+      <c r="N425" s="3"/>
+      <c r="O425" s="3"/>
+      <c r="P425" s="3"/>
+      <c r="Q425" s="3"/>
+      <c r="R425" s="3"/>
+      <c r="S425" s="4"/>
+      <c r="T425" s="3"/>
       <c r="U425" s="2"/>
     </row>
     <row r="426" spans="1:21" x14ac:dyDescent="0.25">
@@ -29218,7 +29270,7 @@
       <c r="P426" s="1"/>
       <c r="Q426" s="1"/>
       <c r="R426" s="1"/>
-      <c r="S426" s="1"/>
+      <c r="S426" s="2"/>
       <c r="T426" s="1"/>
       <c r="U426" s="2"/>
     </row>
@@ -29241,7 +29293,7 @@
       <c r="P427" s="1"/>
       <c r="Q427" s="1"/>
       <c r="R427" s="1"/>
-      <c r="S427" s="2"/>
+      <c r="S427" s="1"/>
       <c r="T427" s="1"/>
       <c r="U427" s="2"/>
     </row>
@@ -29293,49 +29345,49 @@
     </row>
     <row r="430" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
-      <c r="B430" s="3"/>
-      <c r="C430" s="3"/>
-      <c r="D430" s="3"/>
-      <c r="E430" s="3"/>
-      <c r="F430" s="3"/>
-      <c r="G430" s="4"/>
-      <c r="H430" s="4"/>
-      <c r="I430" s="3"/>
-      <c r="J430" s="3"/>
-      <c r="K430" s="4"/>
-      <c r="L430" s="3"/>
-      <c r="M430" s="3"/>
-      <c r="N430" s="3"/>
-      <c r="O430" s="3"/>
-      <c r="P430" s="3"/>
-      <c r="Q430" s="3"/>
-      <c r="R430" s="3"/>
-      <c r="S430" s="4"/>
-      <c r="T430" s="3"/>
+      <c r="B430" s="1"/>
+      <c r="C430" s="1"/>
+      <c r="D430" s="1"/>
+      <c r="E430" s="1"/>
+      <c r="F430" s="1"/>
+      <c r="G430" s="2"/>
+      <c r="H430" s="2"/>
+      <c r="I430" s="1"/>
+      <c r="J430" s="1"/>
+      <c r="K430" s="2"/>
+      <c r="L430" s="1"/>
+      <c r="M430" s="1"/>
+      <c r="N430" s="1"/>
+      <c r="O430" s="1"/>
+      <c r="P430" s="1"/>
+      <c r="Q430" s="1"/>
+      <c r="R430" s="1"/>
+      <c r="S430" s="2"/>
+      <c r="T430" s="1"/>
       <c r="U430" s="2"/>
     </row>
     <row r="431" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
-      <c r="B431" s="1"/>
-      <c r="C431" s="1"/>
-      <c r="D431" s="1"/>
-      <c r="E431" s="1"/>
-      <c r="F431" s="1"/>
-      <c r="G431" s="2"/>
-      <c r="H431" s="2"/>
-      <c r="I431" s="1"/>
-      <c r="J431" s="1"/>
-      <c r="K431" s="2"/>
-      <c r="L431" s="1"/>
-      <c r="M431" s="1"/>
-      <c r="N431" s="1"/>
-      <c r="O431" s="1"/>
-      <c r="P431" s="1"/>
-      <c r="Q431" s="1"/>
-      <c r="R431" s="1"/>
-      <c r="S431" s="1"/>
-      <c r="T431" s="1"/>
-      <c r="U431" s="1"/>
+      <c r="B431" s="3"/>
+      <c r="C431" s="3"/>
+      <c r="D431" s="3"/>
+      <c r="E431" s="3"/>
+      <c r="F431" s="3"/>
+      <c r="G431" s="4"/>
+      <c r="H431" s="4"/>
+      <c r="I431" s="3"/>
+      <c r="J431" s="3"/>
+      <c r="K431" s="4"/>
+      <c r="L431" s="3"/>
+      <c r="M431" s="3"/>
+      <c r="N431" s="3"/>
+      <c r="O431" s="3"/>
+      <c r="P431" s="3"/>
+      <c r="Q431" s="3"/>
+      <c r="R431" s="3"/>
+      <c r="S431" s="4"/>
+      <c r="T431" s="3"/>
+      <c r="U431" s="2"/>
     </row>
     <row r="432" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
@@ -29375,35 +29427,35 @@
       <c r="L433" s="1"/>
       <c r="M433" s="1"/>
       <c r="N433" s="1"/>
-      <c r="O433" s="2"/>
+      <c r="O433" s="1"/>
       <c r="P433" s="1"/>
       <c r="Q433" s="1"/>
       <c r="R433" s="1"/>
-      <c r="S433" s="2"/>
+      <c r="S433" s="1"/>
       <c r="T433" s="1"/>
-      <c r="U433" s="2"/>
+      <c r="U433" s="1"/>
     </row>
     <row r="434" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
-      <c r="B434" s="3"/>
-      <c r="C434" s="3"/>
-      <c r="D434" s="3"/>
-      <c r="E434" s="3"/>
-      <c r="F434" s="3"/>
-      <c r="G434" s="4"/>
-      <c r="H434" s="4"/>
-      <c r="I434" s="3"/>
-      <c r="J434" s="3"/>
-      <c r="K434" s="4"/>
-      <c r="L434" s="3"/>
-      <c r="M434" s="3"/>
-      <c r="N434" s="3"/>
+      <c r="B434" s="1"/>
+      <c r="C434" s="1"/>
+      <c r="D434" s="1"/>
+      <c r="E434" s="1"/>
+      <c r="F434" s="1"/>
+      <c r="G434" s="2"/>
+      <c r="H434" s="2"/>
+      <c r="I434" s="1"/>
+      <c r="J434" s="1"/>
+      <c r="K434" s="2"/>
+      <c r="L434" s="1"/>
+      <c r="M434" s="1"/>
+      <c r="N434" s="1"/>
       <c r="O434" s="2"/>
-      <c r="P434" s="3"/>
-      <c r="Q434" s="3"/>
-      <c r="R434" s="3"/>
-      <c r="S434" s="4"/>
-      <c r="T434" s="3"/>
+      <c r="P434" s="1"/>
+      <c r="Q434" s="1"/>
+      <c r="R434" s="1"/>
+      <c r="S434" s="2"/>
+      <c r="T434" s="1"/>
       <c r="U434" s="2"/>
     </row>
     <row r="435" spans="1:21" x14ac:dyDescent="0.25">
@@ -29431,71 +29483,71 @@
     </row>
     <row r="436" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
-      <c r="B436" s="1"/>
-      <c r="C436" s="1"/>
-      <c r="D436" s="1"/>
-      <c r="E436" s="1"/>
-      <c r="F436" s="1"/>
-      <c r="G436" s="2"/>
-      <c r="H436" s="2"/>
-      <c r="I436" s="1"/>
-      <c r="J436" s="1"/>
-      <c r="K436" s="2"/>
-      <c r="L436" s="1"/>
-      <c r="M436" s="1"/>
-      <c r="N436" s="1"/>
+      <c r="B436" s="3"/>
+      <c r="C436" s="3"/>
+      <c r="D436" s="3"/>
+      <c r="E436" s="3"/>
+      <c r="F436" s="3"/>
+      <c r="G436" s="4"/>
+      <c r="H436" s="4"/>
+      <c r="I436" s="3"/>
+      <c r="J436" s="3"/>
+      <c r="K436" s="4"/>
+      <c r="L436" s="3"/>
+      <c r="M436" s="3"/>
+      <c r="N436" s="3"/>
       <c r="O436" s="2"/>
-      <c r="P436" s="1"/>
-      <c r="Q436" s="1"/>
-      <c r="R436" s="1"/>
-      <c r="S436" s="2"/>
-      <c r="T436" s="1"/>
+      <c r="P436" s="3"/>
+      <c r="Q436" s="3"/>
+      <c r="R436" s="3"/>
+      <c r="S436" s="4"/>
+      <c r="T436" s="3"/>
       <c r="U436" s="2"/>
     </row>
     <row r="437" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
-      <c r="B437" s="3"/>
-      <c r="C437" s="3"/>
-      <c r="D437" s="3"/>
-      <c r="E437" s="3"/>
-      <c r="F437" s="3"/>
-      <c r="G437" s="4"/>
-      <c r="H437" s="4"/>
-      <c r="I437" s="3"/>
-      <c r="J437" s="3"/>
-      <c r="K437" s="4"/>
-      <c r="L437" s="3"/>
-      <c r="M437" s="3"/>
-      <c r="N437" s="3"/>
+      <c r="B437" s="1"/>
+      <c r="C437" s="1"/>
+      <c r="D437" s="1"/>
+      <c r="E437" s="1"/>
+      <c r="F437" s="1"/>
+      <c r="G437" s="2"/>
+      <c r="H437" s="2"/>
+      <c r="I437" s="1"/>
+      <c r="J437" s="1"/>
+      <c r="K437" s="2"/>
+      <c r="L437" s="1"/>
+      <c r="M437" s="1"/>
+      <c r="N437" s="1"/>
       <c r="O437" s="2"/>
-      <c r="P437" s="3"/>
-      <c r="Q437" s="3"/>
-      <c r="R437" s="3"/>
-      <c r="S437" s="4"/>
-      <c r="T437" s="3"/>
+      <c r="P437" s="1"/>
+      <c r="Q437" s="1"/>
+      <c r="R437" s="1"/>
+      <c r="S437" s="2"/>
+      <c r="T437" s="1"/>
       <c r="U437" s="2"/>
     </row>
     <row r="438" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
-      <c r="B438" s="1"/>
-      <c r="C438" s="1"/>
-      <c r="D438" s="1"/>
-      <c r="E438" s="1"/>
-      <c r="F438" s="1"/>
-      <c r="G438" s="2"/>
-      <c r="H438" s="2"/>
-      <c r="I438" s="1"/>
-      <c r="J438" s="1"/>
-      <c r="K438" s="2"/>
-      <c r="L438" s="1"/>
-      <c r="M438" s="1"/>
-      <c r="N438" s="1"/>
+      <c r="B438" s="3"/>
+      <c r="C438" s="3"/>
+      <c r="D438" s="3"/>
+      <c r="E438" s="3"/>
+      <c r="F438" s="3"/>
+      <c r="G438" s="4"/>
+      <c r="H438" s="4"/>
+      <c r="I438" s="3"/>
+      <c r="J438" s="3"/>
+      <c r="K438" s="4"/>
+      <c r="L438" s="3"/>
+      <c r="M438" s="3"/>
+      <c r="N438" s="3"/>
       <c r="O438" s="2"/>
-      <c r="P438" s="1"/>
-      <c r="Q438" s="1"/>
-      <c r="R438" s="1"/>
-      <c r="S438" s="2"/>
-      <c r="T438" s="1"/>
+      <c r="P438" s="3"/>
+      <c r="Q438" s="3"/>
+      <c r="R438" s="3"/>
+      <c r="S438" s="4"/>
+      <c r="T438" s="3"/>
       <c r="U438" s="2"/>
     </row>
     <row r="439" spans="1:21" x14ac:dyDescent="0.25">
@@ -29569,25 +29621,25 @@
     </row>
     <row r="442" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
-      <c r="B442" s="3"/>
-      <c r="C442" s="3"/>
-      <c r="D442" s="3"/>
-      <c r="E442" s="3"/>
-      <c r="F442" s="3"/>
-      <c r="G442" s="4"/>
-      <c r="H442" s="4"/>
-      <c r="I442" s="3"/>
-      <c r="J442" s="3"/>
-      <c r="K442" s="4"/>
-      <c r="L442" s="3"/>
-      <c r="M442" s="3"/>
-      <c r="N442" s="3"/>
+      <c r="B442" s="1"/>
+      <c r="C442" s="1"/>
+      <c r="D442" s="1"/>
+      <c r="E442" s="1"/>
+      <c r="F442" s="1"/>
+      <c r="G442" s="2"/>
+      <c r="H442" s="2"/>
+      <c r="I442" s="1"/>
+      <c r="J442" s="1"/>
+      <c r="K442" s="2"/>
+      <c r="L442" s="1"/>
+      <c r="M442" s="1"/>
+      <c r="N442" s="1"/>
       <c r="O442" s="2"/>
-      <c r="P442" s="3"/>
-      <c r="Q442" s="3"/>
-      <c r="R442" s="3"/>
-      <c r="S442" s="4"/>
-      <c r="T442" s="3"/>
+      <c r="P442" s="1"/>
+      <c r="Q442" s="1"/>
+      <c r="R442" s="1"/>
+      <c r="S442" s="2"/>
+      <c r="T442" s="1"/>
       <c r="U442" s="2"/>
     </row>
     <row r="443" spans="1:21" x14ac:dyDescent="0.25">
@@ -29615,25 +29667,25 @@
     </row>
     <row r="444" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
-      <c r="B444" s="1"/>
-      <c r="C444" s="1"/>
-      <c r="D444" s="1"/>
-      <c r="E444" s="1"/>
-      <c r="F444" s="1"/>
-      <c r="G444" s="2"/>
-      <c r="H444" s="2"/>
-      <c r="I444" s="1"/>
-      <c r="J444" s="1"/>
-      <c r="K444" s="2"/>
-      <c r="L444" s="1"/>
-      <c r="M444" s="1"/>
-      <c r="N444" s="1"/>
+      <c r="B444" s="3"/>
+      <c r="C444" s="3"/>
+      <c r="D444" s="3"/>
+      <c r="E444" s="3"/>
+      <c r="F444" s="3"/>
+      <c r="G444" s="4"/>
+      <c r="H444" s="4"/>
+      <c r="I444" s="3"/>
+      <c r="J444" s="3"/>
+      <c r="K444" s="4"/>
+      <c r="L444" s="3"/>
+      <c r="M444" s="3"/>
+      <c r="N444" s="3"/>
       <c r="O444" s="2"/>
-      <c r="P444" s="1"/>
-      <c r="Q444" s="1"/>
-      <c r="R444" s="1"/>
-      <c r="S444" s="2"/>
-      <c r="T444" s="1"/>
+      <c r="P444" s="3"/>
+      <c r="Q444" s="3"/>
+      <c r="R444" s="3"/>
+      <c r="S444" s="4"/>
+      <c r="T444" s="3"/>
       <c r="U444" s="2"/>
     </row>
     <row r="445" spans="1:21" x14ac:dyDescent="0.25">
@@ -29655,7 +29707,7 @@
       <c r="P445" s="1"/>
       <c r="Q445" s="1"/>
       <c r="R445" s="1"/>
-      <c r="S445" s="1"/>
+      <c r="S445" s="2"/>
       <c r="T445" s="1"/>
       <c r="U445" s="2"/>
     </row>
@@ -29678,7 +29730,7 @@
       <c r="P446" s="1"/>
       <c r="Q446" s="1"/>
       <c r="R446" s="1"/>
-      <c r="S446" s="2"/>
+      <c r="S446" s="1"/>
       <c r="T446" s="1"/>
       <c r="U446" s="2"/>
     </row>
@@ -29730,49 +29782,49 @@
     </row>
     <row r="449" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
-      <c r="B449" s="3"/>
-      <c r="C449" s="3"/>
-      <c r="D449" s="3"/>
-      <c r="E449" s="3"/>
-      <c r="F449" s="3"/>
-      <c r="G449" s="4"/>
-      <c r="H449" s="4"/>
-      <c r="I449" s="3"/>
-      <c r="J449" s="3"/>
-      <c r="K449" s="4"/>
-      <c r="L449" s="3"/>
-      <c r="M449" s="3"/>
-      <c r="N449" s="3"/>
+      <c r="B449" s="1"/>
+      <c r="C449" s="1"/>
+      <c r="D449" s="1"/>
+      <c r="E449" s="1"/>
+      <c r="F449" s="1"/>
+      <c r="G449" s="2"/>
+      <c r="H449" s="2"/>
+      <c r="I449" s="1"/>
+      <c r="J449" s="1"/>
+      <c r="K449" s="2"/>
+      <c r="L449" s="1"/>
+      <c r="M449" s="1"/>
+      <c r="N449" s="1"/>
       <c r="O449" s="2"/>
-      <c r="P449" s="3"/>
-      <c r="Q449" s="3"/>
-      <c r="R449" s="3"/>
-      <c r="S449" s="4"/>
-      <c r="T449" s="3"/>
+      <c r="P449" s="1"/>
+      <c r="Q449" s="1"/>
+      <c r="R449" s="1"/>
+      <c r="S449" s="2"/>
+      <c r="T449" s="1"/>
       <c r="U449" s="2"/>
     </row>
     <row r="450" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
-      <c r="B450" s="1"/>
-      <c r="C450" s="1"/>
-      <c r="D450" s="1"/>
-      <c r="E450" s="1"/>
-      <c r="F450" s="1"/>
-      <c r="G450" s="1"/>
-      <c r="H450" s="1"/>
-      <c r="I450" s="1"/>
-      <c r="J450" s="1"/>
-      <c r="K450" s="1"/>
-      <c r="L450" s="1"/>
-      <c r="M450" s="1"/>
-      <c r="N450" s="1"/>
-      <c r="O450" s="1"/>
-      <c r="P450" s="1"/>
-      <c r="Q450" s="1"/>
-      <c r="R450" s="1"/>
-      <c r="S450" s="1"/>
-      <c r="T450" s="1"/>
-      <c r="U450" s="1"/>
+      <c r="B450" s="3"/>
+      <c r="C450" s="3"/>
+      <c r="D450" s="3"/>
+      <c r="E450" s="3"/>
+      <c r="F450" s="3"/>
+      <c r="G450" s="4"/>
+      <c r="H450" s="4"/>
+      <c r="I450" s="3"/>
+      <c r="J450" s="3"/>
+      <c r="K450" s="4"/>
+      <c r="L450" s="3"/>
+      <c r="M450" s="3"/>
+      <c r="N450" s="3"/>
+      <c r="O450" s="2"/>
+      <c r="P450" s="3"/>
+      <c r="Q450" s="3"/>
+      <c r="R450" s="3"/>
+      <c r="S450" s="4"/>
+      <c r="T450" s="3"/>
+      <c r="U450" s="2"/>
     </row>
     <row r="451" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
@@ -29781,12 +29833,12 @@
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
       <c r="F451" s="1"/>
-      <c r="G451" s="2"/>
-      <c r="H451" s="2"/>
+      <c r="G451" s="1"/>
+      <c r="H451" s="1"/>
       <c r="I451" s="1"/>
       <c r="J451" s="1"/>
-      <c r="K451" s="2"/>
-      <c r="L451" s="2"/>
+      <c r="K451" s="1"/>
+      <c r="L451" s="1"/>
       <c r="M451" s="1"/>
       <c r="N451" s="1"/>
       <c r="O451" s="1"/>
@@ -29862,31 +29914,31 @@
       <c r="P454" s="1"/>
       <c r="Q454" s="1"/>
       <c r="R454" s="1"/>
-      <c r="S454" s="2"/>
+      <c r="S454" s="1"/>
       <c r="T454" s="1"/>
-      <c r="U454" s="2"/>
+      <c r="U454" s="1"/>
     </row>
     <row r="455" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
-      <c r="B455" s="3"/>
-      <c r="C455" s="3"/>
-      <c r="D455" s="3"/>
-      <c r="E455" s="3"/>
-      <c r="F455" s="3"/>
-      <c r="G455" s="4"/>
-      <c r="H455" s="4"/>
-      <c r="I455" s="3"/>
-      <c r="J455" s="3"/>
+      <c r="B455" s="1"/>
+      <c r="C455" s="1"/>
+      <c r="D455" s="1"/>
+      <c r="E455" s="1"/>
+      <c r="F455" s="1"/>
+      <c r="G455" s="2"/>
+      <c r="H455" s="2"/>
+      <c r="I455" s="1"/>
+      <c r="J455" s="1"/>
       <c r="K455" s="2"/>
-      <c r="L455" s="4"/>
-      <c r="M455" s="3"/>
-      <c r="N455" s="3"/>
-      <c r="O455" s="3"/>
-      <c r="P455" s="3"/>
-      <c r="Q455" s="3"/>
-      <c r="R455" s="3"/>
-      <c r="S455" s="4"/>
-      <c r="T455" s="3"/>
+      <c r="L455" s="2"/>
+      <c r="M455" s="1"/>
+      <c r="N455" s="1"/>
+      <c r="O455" s="1"/>
+      <c r="P455" s="1"/>
+      <c r="Q455" s="1"/>
+      <c r="R455" s="1"/>
+      <c r="S455" s="2"/>
+      <c r="T455" s="1"/>
       <c r="U455" s="2"/>
     </row>
     <row r="456" spans="1:21" x14ac:dyDescent="0.25">
@@ -29914,71 +29966,71 @@
     </row>
     <row r="457" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
-      <c r="B457" s="1"/>
-      <c r="C457" s="1"/>
-      <c r="D457" s="1"/>
-      <c r="E457" s="1"/>
-      <c r="F457" s="1"/>
-      <c r="G457" s="2"/>
-      <c r="H457" s="2"/>
-      <c r="I457" s="1"/>
-      <c r="J457" s="1"/>
+      <c r="B457" s="3"/>
+      <c r="C457" s="3"/>
+      <c r="D457" s="3"/>
+      <c r="E457" s="3"/>
+      <c r="F457" s="3"/>
+      <c r="G457" s="4"/>
+      <c r="H457" s="4"/>
+      <c r="I457" s="3"/>
+      <c r="J457" s="3"/>
       <c r="K457" s="2"/>
-      <c r="L457" s="2"/>
-      <c r="M457" s="1"/>
-      <c r="N457" s="1"/>
-      <c r="O457" s="1"/>
-      <c r="P457" s="1"/>
-      <c r="Q457" s="1"/>
-      <c r="R457" s="1"/>
-      <c r="S457" s="2"/>
-      <c r="T457" s="1"/>
+      <c r="L457" s="4"/>
+      <c r="M457" s="3"/>
+      <c r="N457" s="3"/>
+      <c r="O457" s="3"/>
+      <c r="P457" s="3"/>
+      <c r="Q457" s="3"/>
+      <c r="R457" s="3"/>
+      <c r="S457" s="4"/>
+      <c r="T457" s="3"/>
       <c r="U457" s="2"/>
     </row>
     <row r="458" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
-      <c r="B458" s="3"/>
-      <c r="C458" s="3"/>
-      <c r="D458" s="3"/>
-      <c r="E458" s="3"/>
-      <c r="F458" s="3"/>
-      <c r="G458" s="4"/>
-      <c r="H458" s="4"/>
-      <c r="I458" s="3"/>
-      <c r="J458" s="3"/>
+      <c r="B458" s="1"/>
+      <c r="C458" s="1"/>
+      <c r="D458" s="1"/>
+      <c r="E458" s="1"/>
+      <c r="F458" s="1"/>
+      <c r="G458" s="2"/>
+      <c r="H458" s="2"/>
+      <c r="I458" s="1"/>
+      <c r="J458" s="1"/>
       <c r="K458" s="2"/>
-      <c r="L458" s="4"/>
-      <c r="M458" s="3"/>
-      <c r="N458" s="3"/>
-      <c r="O458" s="3"/>
-      <c r="P458" s="3"/>
-      <c r="Q458" s="3"/>
-      <c r="R458" s="3"/>
-      <c r="S458" s="4"/>
-      <c r="T458" s="3"/>
+      <c r="L458" s="2"/>
+      <c r="M458" s="1"/>
+      <c r="N458" s="1"/>
+      <c r="O458" s="1"/>
+      <c r="P458" s="1"/>
+      <c r="Q458" s="1"/>
+      <c r="R458" s="1"/>
+      <c r="S458" s="2"/>
+      <c r="T458" s="1"/>
       <c r="U458" s="2"/>
     </row>
     <row r="459" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
-      <c r="B459" s="1"/>
-      <c r="C459" s="1"/>
-      <c r="D459" s="1"/>
-      <c r="E459" s="1"/>
-      <c r="F459" s="1"/>
-      <c r="G459" s="2"/>
-      <c r="H459" s="2"/>
-      <c r="I459" s="1"/>
-      <c r="J459" s="1"/>
+      <c r="B459" s="3"/>
+      <c r="C459" s="3"/>
+      <c r="D459" s="3"/>
+      <c r="E459" s="3"/>
+      <c r="F459" s="3"/>
+      <c r="G459" s="4"/>
+      <c r="H459" s="4"/>
+      <c r="I459" s="3"/>
+      <c r="J459" s="3"/>
       <c r="K459" s="2"/>
-      <c r="L459" s="2"/>
-      <c r="M459" s="1"/>
-      <c r="N459" s="1"/>
-      <c r="O459" s="1"/>
-      <c r="P459" s="1"/>
-      <c r="Q459" s="1"/>
-      <c r="R459" s="1"/>
-      <c r="S459" s="2"/>
-      <c r="T459" s="1"/>
+      <c r="L459" s="4"/>
+      <c r="M459" s="3"/>
+      <c r="N459" s="3"/>
+      <c r="O459" s="3"/>
+      <c r="P459" s="3"/>
+      <c r="Q459" s="3"/>
+      <c r="R459" s="3"/>
+      <c r="S459" s="4"/>
+      <c r="T459" s="3"/>
       <c r="U459" s="2"/>
     </row>
     <row r="460" spans="1:21" x14ac:dyDescent="0.25">
@@ -30052,25 +30104,25 @@
     </row>
     <row r="463" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
-      <c r="B463" s="3"/>
-      <c r="C463" s="3"/>
-      <c r="D463" s="3"/>
-      <c r="E463" s="3"/>
-      <c r="F463" s="3"/>
-      <c r="G463" s="4"/>
-      <c r="H463" s="4"/>
-      <c r="I463" s="3"/>
-      <c r="J463" s="3"/>
+      <c r="B463" s="1"/>
+      <c r="C463" s="1"/>
+      <c r="D463" s="1"/>
+      <c r="E463" s="1"/>
+      <c r="F463" s="1"/>
+      <c r="G463" s="2"/>
+      <c r="H463" s="2"/>
+      <c r="I463" s="1"/>
+      <c r="J463" s="1"/>
       <c r="K463" s="2"/>
-      <c r="L463" s="4"/>
-      <c r="M463" s="3"/>
-      <c r="N463" s="3"/>
-      <c r="O463" s="3"/>
-      <c r="P463" s="3"/>
-      <c r="Q463" s="3"/>
-      <c r="R463" s="3"/>
-      <c r="S463" s="4"/>
-      <c r="T463" s="3"/>
+      <c r="L463" s="2"/>
+      <c r="M463" s="1"/>
+      <c r="N463" s="1"/>
+      <c r="O463" s="1"/>
+      <c r="P463" s="1"/>
+      <c r="Q463" s="1"/>
+      <c r="R463" s="1"/>
+      <c r="S463" s="2"/>
+      <c r="T463" s="1"/>
       <c r="U463" s="2"/>
     </row>
     <row r="464" spans="1:21" x14ac:dyDescent="0.25">
@@ -30098,25 +30150,25 @@
     </row>
     <row r="465" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
-      <c r="B465" s="1"/>
-      <c r="C465" s="1"/>
-      <c r="D465" s="1"/>
-      <c r="E465" s="1"/>
-      <c r="F465" s="1"/>
-      <c r="G465" s="2"/>
-      <c r="H465" s="2"/>
-      <c r="I465" s="1"/>
-      <c r="J465" s="1"/>
+      <c r="B465" s="3"/>
+      <c r="C465" s="3"/>
+      <c r="D465" s="3"/>
+      <c r="E465" s="3"/>
+      <c r="F465" s="3"/>
+      <c r="G465" s="4"/>
+      <c r="H465" s="4"/>
+      <c r="I465" s="3"/>
+      <c r="J465" s="3"/>
       <c r="K465" s="2"/>
-      <c r="L465" s="2"/>
-      <c r="M465" s="1"/>
-      <c r="N465" s="1"/>
-      <c r="O465" s="1"/>
-      <c r="P465" s="1"/>
-      <c r="Q465" s="1"/>
-      <c r="R465" s="1"/>
-      <c r="S465" s="2"/>
-      <c r="T465" s="1"/>
+      <c r="L465" s="4"/>
+      <c r="M465" s="3"/>
+      <c r="N465" s="3"/>
+      <c r="O465" s="3"/>
+      <c r="P465" s="3"/>
+      <c r="Q465" s="3"/>
+      <c r="R465" s="3"/>
+      <c r="S465" s="4"/>
+      <c r="T465" s="3"/>
       <c r="U465" s="2"/>
     </row>
     <row r="466" spans="1:21" x14ac:dyDescent="0.25">
@@ -30138,7 +30190,7 @@
       <c r="P466" s="1"/>
       <c r="Q466" s="1"/>
       <c r="R466" s="1"/>
-      <c r="S466" s="1"/>
+      <c r="S466" s="2"/>
       <c r="T466" s="1"/>
       <c r="U466" s="2"/>
     </row>
@@ -30161,7 +30213,7 @@
       <c r="P467" s="1"/>
       <c r="Q467" s="1"/>
       <c r="R467" s="1"/>
-      <c r="S467" s="2"/>
+      <c r="S467" s="1"/>
       <c r="T467" s="1"/>
       <c r="U467" s="2"/>
     </row>
@@ -30172,12 +30224,12 @@
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
       <c r="F468" s="1"/>
-      <c r="G468" s="1"/>
-      <c r="H468" s="1"/>
+      <c r="G468" s="2"/>
+      <c r="H468" s="2"/>
       <c r="I468" s="1"/>
       <c r="J468" s="1"/>
       <c r="K468" s="2"/>
-      <c r="L468" s="1"/>
+      <c r="L468" s="2"/>
       <c r="M468" s="1"/>
       <c r="N468" s="1"/>
       <c r="O468" s="1"/>
@@ -30195,12 +30247,12 @@
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
       <c r="F469" s="1"/>
-      <c r="G469" s="2"/>
-      <c r="H469" s="2"/>
+      <c r="G469" s="1"/>
+      <c r="H469" s="1"/>
       <c r="I469" s="1"/>
       <c r="J469" s="1"/>
       <c r="K469" s="2"/>
-      <c r="L469" s="2"/>
+      <c r="L469" s="1"/>
       <c r="M469" s="1"/>
       <c r="N469" s="1"/>
       <c r="O469" s="1"/>
@@ -30213,49 +30265,49 @@
     </row>
     <row r="470" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
-      <c r="B470" s="3"/>
-      <c r="C470" s="3"/>
-      <c r="D470" s="3"/>
-      <c r="E470" s="3"/>
-      <c r="F470" s="3"/>
-      <c r="G470" s="4"/>
-      <c r="H470" s="4"/>
-      <c r="I470" s="3"/>
-      <c r="J470" s="3"/>
+      <c r="B470" s="1"/>
+      <c r="C470" s="1"/>
+      <c r="D470" s="1"/>
+      <c r="E470" s="1"/>
+      <c r="F470" s="1"/>
+      <c r="G470" s="2"/>
+      <c r="H470" s="2"/>
+      <c r="I470" s="1"/>
+      <c r="J470" s="1"/>
       <c r="K470" s="2"/>
-      <c r="L470" s="4"/>
-      <c r="M470" s="3"/>
-      <c r="N470" s="3"/>
-      <c r="O470" s="3"/>
-      <c r="P470" s="3"/>
-      <c r="Q470" s="3"/>
-      <c r="R470" s="3"/>
-      <c r="S470" s="4"/>
-      <c r="T470" s="3"/>
+      <c r="L470" s="2"/>
+      <c r="M470" s="1"/>
+      <c r="N470" s="1"/>
+      <c r="O470" s="1"/>
+      <c r="P470" s="1"/>
+      <c r="Q470" s="1"/>
+      <c r="R470" s="1"/>
+      <c r="S470" s="2"/>
+      <c r="T470" s="1"/>
       <c r="U470" s="2"/>
     </row>
     <row r="471" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
-      <c r="B471" s="1"/>
-      <c r="C471" s="1"/>
-      <c r="D471" s="1"/>
-      <c r="E471" s="1"/>
-      <c r="F471" s="1"/>
-      <c r="G471" s="2"/>
-      <c r="H471" s="2"/>
-      <c r="I471" s="1"/>
-      <c r="J471" s="1"/>
+      <c r="B471" s="3"/>
+      <c r="C471" s="3"/>
+      <c r="D471" s="3"/>
+      <c r="E471" s="3"/>
+      <c r="F471" s="3"/>
+      <c r="G471" s="4"/>
+      <c r="H471" s="4"/>
+      <c r="I471" s="3"/>
+      <c r="J471" s="3"/>
       <c r="K471" s="2"/>
-      <c r="L471" s="2"/>
-      <c r="M471" s="1"/>
-      <c r="N471" s="1"/>
-      <c r="O471" s="1"/>
-      <c r="P471" s="1"/>
-      <c r="Q471" s="1"/>
-      <c r="R471" s="1"/>
-      <c r="S471" s="1"/>
-      <c r="T471" s="1"/>
-      <c r="U471" s="1"/>
+      <c r="L471" s="4"/>
+      <c r="M471" s="3"/>
+      <c r="N471" s="3"/>
+      <c r="O471" s="3"/>
+      <c r="P471" s="3"/>
+      <c r="Q471" s="3"/>
+      <c r="R471" s="3"/>
+      <c r="S471" s="4"/>
+      <c r="T471" s="3"/>
+      <c r="U471" s="2"/>
     </row>
     <row r="472" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
@@ -30287,43 +30339,43 @@
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
       <c r="F473" s="1"/>
-      <c r="G473" s="1"/>
+      <c r="G473" s="2"/>
       <c r="H473" s="2"/>
       <c r="I473" s="1"/>
       <c r="J473" s="1"/>
       <c r="K473" s="2"/>
-      <c r="L473" s="1"/>
+      <c r="L473" s="2"/>
       <c r="M473" s="1"/>
       <c r="N473" s="1"/>
-      <c r="O473" s="2"/>
+      <c r="O473" s="1"/>
       <c r="P473" s="1"/>
       <c r="Q473" s="1"/>
       <c r="R473" s="1"/>
-      <c r="S473" s="2"/>
+      <c r="S473" s="1"/>
       <c r="T473" s="1"/>
-      <c r="U473" s="2"/>
+      <c r="U473" s="1"/>
     </row>
     <row r="474" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
-      <c r="B474" s="3"/>
-      <c r="C474" s="3"/>
-      <c r="D474" s="3"/>
-      <c r="E474" s="3"/>
-      <c r="F474" s="3"/>
-      <c r="G474" s="3"/>
-      <c r="H474" s="4"/>
-      <c r="I474" s="3"/>
-      <c r="J474" s="3"/>
+      <c r="B474" s="1"/>
+      <c r="C474" s="1"/>
+      <c r="D474" s="1"/>
+      <c r="E474" s="1"/>
+      <c r="F474" s="1"/>
+      <c r="G474" s="1"/>
+      <c r="H474" s="2"/>
+      <c r="I474" s="1"/>
+      <c r="J474" s="1"/>
       <c r="K474" s="2"/>
-      <c r="L474" s="3"/>
-      <c r="M474" s="3"/>
-      <c r="N474" s="3"/>
+      <c r="L474" s="1"/>
+      <c r="M474" s="1"/>
+      <c r="N474" s="1"/>
       <c r="O474" s="2"/>
-      <c r="P474" s="3"/>
-      <c r="Q474" s="3"/>
-      <c r="R474" s="3"/>
-      <c r="S474" s="4"/>
-      <c r="T474" s="3"/>
+      <c r="P474" s="1"/>
+      <c r="Q474" s="1"/>
+      <c r="R474" s="1"/>
+      <c r="S474" s="2"/>
+      <c r="T474" s="1"/>
       <c r="U474" s="2"/>
     </row>
     <row r="475" spans="1:21" x14ac:dyDescent="0.25">
@@ -30333,12 +30385,12 @@
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
       <c r="F475" s="3"/>
-      <c r="G475" s="4"/>
+      <c r="G475" s="3"/>
       <c r="H475" s="4"/>
       <c r="I475" s="3"/>
       <c r="J475" s="3"/>
       <c r="K475" s="2"/>
-      <c r="L475" s="4"/>
+      <c r="L475" s="3"/>
       <c r="M475" s="3"/>
       <c r="N475" s="3"/>
       <c r="O475" s="2"/>
@@ -30351,71 +30403,71 @@
     </row>
     <row r="476" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
-      <c r="B476" s="1"/>
-      <c r="C476" s="1"/>
-      <c r="D476" s="1"/>
-      <c r="E476" s="1"/>
-      <c r="F476" s="1"/>
-      <c r="G476" s="2"/>
-      <c r="H476" s="2"/>
-      <c r="I476" s="1"/>
-      <c r="J476" s="1"/>
+      <c r="B476" s="3"/>
+      <c r="C476" s="3"/>
+      <c r="D476" s="3"/>
+      <c r="E476" s="3"/>
+      <c r="F476" s="3"/>
+      <c r="G476" s="4"/>
+      <c r="H476" s="4"/>
+      <c r="I476" s="3"/>
+      <c r="J476" s="3"/>
       <c r="K476" s="2"/>
-      <c r="L476" s="2"/>
-      <c r="M476" s="1"/>
-      <c r="N476" s="1"/>
+      <c r="L476" s="4"/>
+      <c r="M476" s="3"/>
+      <c r="N476" s="3"/>
       <c r="O476" s="2"/>
-      <c r="P476" s="1"/>
-      <c r="Q476" s="1"/>
-      <c r="R476" s="1"/>
-      <c r="S476" s="2"/>
-      <c r="T476" s="1"/>
+      <c r="P476" s="3"/>
+      <c r="Q476" s="3"/>
+      <c r="R476" s="3"/>
+      <c r="S476" s="4"/>
+      <c r="T476" s="3"/>
       <c r="U476" s="2"/>
     </row>
     <row r="477" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
-      <c r="B477" s="3"/>
-      <c r="C477" s="3"/>
-      <c r="D477" s="3"/>
-      <c r="E477" s="3"/>
-      <c r="F477" s="3"/>
-      <c r="G477" s="4"/>
-      <c r="H477" s="4"/>
-      <c r="I477" s="3"/>
-      <c r="J477" s="3"/>
+      <c r="B477" s="1"/>
+      <c r="C477" s="1"/>
+      <c r="D477" s="1"/>
+      <c r="E477" s="1"/>
+      <c r="F477" s="1"/>
+      <c r="G477" s="2"/>
+      <c r="H477" s="2"/>
+      <c r="I477" s="1"/>
+      <c r="J477" s="1"/>
       <c r="K477" s="2"/>
-      <c r="L477" s="4"/>
-      <c r="M477" s="3"/>
-      <c r="N477" s="3"/>
+      <c r="L477" s="2"/>
+      <c r="M477" s="1"/>
+      <c r="N477" s="1"/>
       <c r="O477" s="2"/>
-      <c r="P477" s="3"/>
-      <c r="Q477" s="3"/>
-      <c r="R477" s="3"/>
-      <c r="S477" s="4"/>
-      <c r="T477" s="3"/>
+      <c r="P477" s="1"/>
+      <c r="Q477" s="1"/>
+      <c r="R477" s="1"/>
+      <c r="S477" s="2"/>
+      <c r="T477" s="1"/>
       <c r="U477" s="2"/>
     </row>
     <row r="478" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
-      <c r="B478" s="1"/>
-      <c r="C478" s="1"/>
-      <c r="D478" s="1"/>
-      <c r="E478" s="1"/>
-      <c r="F478" s="1"/>
-      <c r="G478" s="2"/>
-      <c r="H478" s="2"/>
-      <c r="I478" s="1"/>
-      <c r="J478" s="1"/>
+      <c r="B478" s="3"/>
+      <c r="C478" s="3"/>
+      <c r="D478" s="3"/>
+      <c r="E478" s="3"/>
+      <c r="F478" s="3"/>
+      <c r="G478" s="4"/>
+      <c r="H478" s="4"/>
+      <c r="I478" s="3"/>
+      <c r="J478" s="3"/>
       <c r="K478" s="2"/>
-      <c r="L478" s="2"/>
-      <c r="M478" s="1"/>
-      <c r="N478" s="1"/>
+      <c r="L478" s="4"/>
+      <c r="M478" s="3"/>
+      <c r="N478" s="3"/>
       <c r="O478" s="2"/>
-      <c r="P478" s="1"/>
-      <c r="Q478" s="1"/>
-      <c r="R478" s="1"/>
-      <c r="S478" s="2"/>
-      <c r="T478" s="1"/>
+      <c r="P478" s="3"/>
+      <c r="Q478" s="3"/>
+      <c r="R478" s="3"/>
+      <c r="S478" s="4"/>
+      <c r="T478" s="3"/>
       <c r="U478" s="2"/>
     </row>
     <row r="479" spans="1:21" x14ac:dyDescent="0.25">
@@ -30425,12 +30477,12 @@
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
       <c r="F479" s="1"/>
-      <c r="G479" s="1"/>
+      <c r="G479" s="2"/>
       <c r="H479" s="2"/>
       <c r="I479" s="1"/>
       <c r="J479" s="1"/>
       <c r="K479" s="2"/>
-      <c r="L479" s="1"/>
+      <c r="L479" s="2"/>
       <c r="M479" s="1"/>
       <c r="N479" s="1"/>
       <c r="O479" s="2"/>
@@ -30471,12 +30523,12 @@
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
       <c r="F481" s="1"/>
-      <c r="G481" s="2"/>
+      <c r="G481" s="1"/>
       <c r="H481" s="2"/>
       <c r="I481" s="1"/>
       <c r="J481" s="1"/>
       <c r="K481" s="2"/>
-      <c r="L481" s="2"/>
+      <c r="L481" s="1"/>
       <c r="M481" s="1"/>
       <c r="N481" s="1"/>
       <c r="O481" s="2"/>
@@ -30489,25 +30541,25 @@
     </row>
     <row r="482" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
-      <c r="B482" s="3"/>
-      <c r="C482" s="3"/>
-      <c r="D482" s="3"/>
-      <c r="E482" s="3"/>
-      <c r="F482" s="3"/>
-      <c r="G482" s="4"/>
-      <c r="H482" s="4"/>
-      <c r="I482" s="3"/>
-      <c r="J482" s="3"/>
+      <c r="B482" s="1"/>
+      <c r="C482" s="1"/>
+      <c r="D482" s="1"/>
+      <c r="E482" s="1"/>
+      <c r="F482" s="1"/>
+      <c r="G482" s="2"/>
+      <c r="H482" s="2"/>
+      <c r="I482" s="1"/>
+      <c r="J482" s="1"/>
       <c r="K482" s="2"/>
-      <c r="L482" s="4"/>
-      <c r="M482" s="3"/>
-      <c r="N482" s="3"/>
+      <c r="L482" s="2"/>
+      <c r="M482" s="1"/>
+      <c r="N482" s="1"/>
       <c r="O482" s="2"/>
-      <c r="P482" s="3"/>
-      <c r="Q482" s="3"/>
-      <c r="R482" s="3"/>
-      <c r="S482" s="4"/>
-      <c r="T482" s="3"/>
+      <c r="P482" s="1"/>
+      <c r="Q482" s="1"/>
+      <c r="R482" s="1"/>
+      <c r="S482" s="2"/>
+      <c r="T482" s="1"/>
       <c r="U482" s="2"/>
     </row>
     <row r="483" spans="1:21" x14ac:dyDescent="0.25">
@@ -30535,25 +30587,25 @@
     </row>
     <row r="484" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
-      <c r="B484" s="1"/>
-      <c r="C484" s="1"/>
-      <c r="D484" s="1"/>
-      <c r="E484" s="1"/>
-      <c r="F484" s="1"/>
-      <c r="G484" s="2"/>
-      <c r="H484" s="2"/>
-      <c r="I484" s="1"/>
-      <c r="J484" s="1"/>
+      <c r="B484" s="3"/>
+      <c r="C484" s="3"/>
+      <c r="D484" s="3"/>
+      <c r="E484" s="3"/>
+      <c r="F484" s="3"/>
+      <c r="G484" s="4"/>
+      <c r="H484" s="4"/>
+      <c r="I484" s="3"/>
+      <c r="J484" s="3"/>
       <c r="K484" s="2"/>
-      <c r="L484" s="2"/>
-      <c r="M484" s="1"/>
-      <c r="N484" s="1"/>
+      <c r="L484" s="4"/>
+      <c r="M484" s="3"/>
+      <c r="N484" s="3"/>
       <c r="O484" s="2"/>
-      <c r="P484" s="1"/>
-      <c r="Q484" s="1"/>
-      <c r="R484" s="1"/>
-      <c r="S484" s="2"/>
-      <c r="T484" s="1"/>
+      <c r="P484" s="3"/>
+      <c r="Q484" s="3"/>
+      <c r="R484" s="3"/>
+      <c r="S484" s="4"/>
+      <c r="T484" s="3"/>
       <c r="U484" s="2"/>
     </row>
     <row r="485" spans="1:21" x14ac:dyDescent="0.25">
@@ -30563,19 +30615,19 @@
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
       <c r="F485" s="1"/>
-      <c r="G485" s="1"/>
+      <c r="G485" s="2"/>
       <c r="H485" s="2"/>
       <c r="I485" s="1"/>
       <c r="J485" s="1"/>
       <c r="K485" s="2"/>
-      <c r="L485" s="1"/>
+      <c r="L485" s="2"/>
       <c r="M485" s="1"/>
       <c r="N485" s="1"/>
       <c r="O485" s="2"/>
       <c r="P485" s="1"/>
       <c r="Q485" s="1"/>
       <c r="R485" s="1"/>
-      <c r="S485" s="1"/>
+      <c r="S485" s="2"/>
       <c r="T485" s="1"/>
       <c r="U485" s="2"/>
     </row>
@@ -30598,7 +30650,7 @@
       <c r="P486" s="1"/>
       <c r="Q486" s="1"/>
       <c r="R486" s="1"/>
-      <c r="S486" s="2"/>
+      <c r="S486" s="1"/>
       <c r="T486" s="1"/>
       <c r="U486" s="2"/>
     </row>
@@ -30609,12 +30661,12 @@
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
       <c r="F487" s="1"/>
-      <c r="G487" s="2"/>
+      <c r="G487" s="1"/>
       <c r="H487" s="2"/>
       <c r="I487" s="1"/>
       <c r="J487" s="1"/>
       <c r="K487" s="2"/>
-      <c r="L487" s="2"/>
+      <c r="L487" s="1"/>
       <c r="M487" s="1"/>
       <c r="N487" s="1"/>
       <c r="O487" s="2"/>
@@ -30650,49 +30702,49 @@
     </row>
     <row r="489" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
-      <c r="B489" s="3"/>
-      <c r="C489" s="3"/>
-      <c r="D489" s="3"/>
-      <c r="E489" s="3"/>
-      <c r="F489" s="3"/>
-      <c r="G489" s="4"/>
-      <c r="H489" s="4"/>
-      <c r="I489" s="3"/>
-      <c r="J489" s="3"/>
+      <c r="B489" s="1"/>
+      <c r="C489" s="1"/>
+      <c r="D489" s="1"/>
+      <c r="E489" s="1"/>
+      <c r="F489" s="1"/>
+      <c r="G489" s="2"/>
+      <c r="H489" s="2"/>
+      <c r="I489" s="1"/>
+      <c r="J489" s="1"/>
       <c r="K489" s="2"/>
-      <c r="L489" s="3"/>
-      <c r="M489" s="3"/>
-      <c r="N489" s="3"/>
+      <c r="L489" s="2"/>
+      <c r="M489" s="1"/>
+      <c r="N489" s="1"/>
       <c r="O489" s="2"/>
-      <c r="P489" s="3"/>
-      <c r="Q489" s="3"/>
-      <c r="R489" s="3"/>
-      <c r="S489" s="4"/>
-      <c r="T489" s="3"/>
+      <c r="P489" s="1"/>
+      <c r="Q489" s="1"/>
+      <c r="R489" s="1"/>
+      <c r="S489" s="2"/>
+      <c r="T489" s="1"/>
       <c r="U489" s="2"/>
     </row>
     <row r="490" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
-      <c r="B490" s="1"/>
-      <c r="C490" s="1"/>
-      <c r="D490" s="1"/>
-      <c r="E490" s="1"/>
-      <c r="F490" s="1"/>
-      <c r="G490" s="2"/>
-      <c r="H490" s="2"/>
-      <c r="I490" s="1"/>
-      <c r="J490" s="1"/>
+      <c r="B490" s="3"/>
+      <c r="C490" s="3"/>
+      <c r="D490" s="3"/>
+      <c r="E490" s="3"/>
+      <c r="F490" s="3"/>
+      <c r="G490" s="4"/>
+      <c r="H490" s="4"/>
+      <c r="I490" s="3"/>
+      <c r="J490" s="3"/>
       <c r="K490" s="2"/>
-      <c r="L490" s="2"/>
-      <c r="M490" s="1"/>
-      <c r="N490" s="1"/>
-      <c r="O490" s="1"/>
-      <c r="P490" s="1"/>
-      <c r="Q490" s="1"/>
-      <c r="R490" s="1"/>
-      <c r="S490" s="1"/>
-      <c r="T490" s="1"/>
-      <c r="U490" s="3"/>
+      <c r="L490" s="3"/>
+      <c r="M490" s="3"/>
+      <c r="N490" s="3"/>
+      <c r="O490" s="2"/>
+      <c r="P490" s="3"/>
+      <c r="Q490" s="3"/>
+      <c r="R490" s="3"/>
+      <c r="S490" s="4"/>
+      <c r="T490" s="3"/>
+      <c r="U490" s="2"/>
     </row>
     <row r="491" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
@@ -30701,12 +30753,12 @@
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
       <c r="F491" s="1"/>
-      <c r="G491" s="1"/>
-      <c r="H491" s="1"/>
+      <c r="G491" s="2"/>
+      <c r="H491" s="2"/>
       <c r="I491" s="1"/>
       <c r="J491" s="1"/>
-      <c r="K491" s="1"/>
-      <c r="L491" s="1"/>
+      <c r="K491" s="2"/>
+      <c r="L491" s="2"/>
       <c r="M491" s="1"/>
       <c r="N491" s="1"/>
       <c r="O491" s="1"/>
@@ -30738,7 +30790,7 @@
       <c r="R492" s="1"/>
       <c r="S492" s="1"/>
       <c r="T492" s="1"/>
-      <c r="U492" s="2"/>
+      <c r="U492" s="3"/>
     </row>
     <row r="493" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
@@ -30747,12 +30799,12 @@
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
       <c r="F493" s="1"/>
-      <c r="G493" s="2"/>
-      <c r="H493" s="2"/>
+      <c r="G493" s="1"/>
+      <c r="H493" s="1"/>
       <c r="I493" s="1"/>
       <c r="J493" s="1"/>
-      <c r="K493" s="2"/>
-      <c r="L493" s="2"/>
+      <c r="K493" s="1"/>
+      <c r="L493" s="1"/>
       <c r="M493" s="1"/>
       <c r="N493" s="1"/>
       <c r="O493" s="1"/>
@@ -30774,7 +30826,7 @@
       <c r="H494" s="2"/>
       <c r="I494" s="1"/>
       <c r="J494" s="1"/>
-      <c r="K494" s="4"/>
+      <c r="K494" s="2"/>
       <c r="L494" s="2"/>
       <c r="M494" s="1"/>
       <c r="N494" s="1"/>
@@ -30782,31 +30834,31 @@
       <c r="P494" s="1"/>
       <c r="Q494" s="1"/>
       <c r="R494" s="1"/>
-      <c r="S494" s="2"/>
+      <c r="S494" s="1"/>
       <c r="T494" s="1"/>
       <c r="U494" s="2"/>
     </row>
     <row r="495" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
-      <c r="B495" s="3"/>
-      <c r="C495" s="3"/>
-      <c r="D495" s="3"/>
-      <c r="E495" s="3"/>
-      <c r="F495" s="3"/>
-      <c r="G495" s="4"/>
-      <c r="H495" s="4"/>
-      <c r="I495" s="3"/>
-      <c r="J495" s="3"/>
+      <c r="B495" s="1"/>
+      <c r="C495" s="1"/>
+      <c r="D495" s="1"/>
+      <c r="E495" s="1"/>
+      <c r="F495" s="1"/>
+      <c r="G495" s="2"/>
+      <c r="H495" s="2"/>
+      <c r="I495" s="1"/>
+      <c r="J495" s="1"/>
       <c r="K495" s="4"/>
-      <c r="L495" s="4"/>
-      <c r="M495" s="3"/>
-      <c r="N495" s="3"/>
-      <c r="O495" s="3"/>
-      <c r="P495" s="3"/>
-      <c r="Q495" s="3"/>
-      <c r="R495" s="3"/>
-      <c r="S495" s="4"/>
-      <c r="T495" s="3"/>
+      <c r="L495" s="2"/>
+      <c r="M495" s="1"/>
+      <c r="N495" s="1"/>
+      <c r="O495" s="1"/>
+      <c r="P495" s="1"/>
+      <c r="Q495" s="1"/>
+      <c r="R495" s="1"/>
+      <c r="S495" s="2"/>
+      <c r="T495" s="1"/>
       <c r="U495" s="2"/>
     </row>
     <row r="496" spans="1:21" x14ac:dyDescent="0.25">
@@ -30834,71 +30886,71 @@
     </row>
     <row r="497" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
-      <c r="B497" s="1"/>
-      <c r="C497" s="1"/>
-      <c r="D497" s="1"/>
-      <c r="E497" s="1"/>
-      <c r="F497" s="1"/>
-      <c r="G497" s="1"/>
-      <c r="H497" s="1"/>
-      <c r="I497" s="1"/>
-      <c r="J497" s="1"/>
+      <c r="B497" s="3"/>
+      <c r="C497" s="3"/>
+      <c r="D497" s="3"/>
+      <c r="E497" s="3"/>
+      <c r="F497" s="3"/>
+      <c r="G497" s="4"/>
+      <c r="H497" s="4"/>
+      <c r="I497" s="3"/>
+      <c r="J497" s="3"/>
       <c r="K497" s="4"/>
-      <c r="L497" s="1"/>
-      <c r="M497" s="1"/>
-      <c r="N497" s="1"/>
-      <c r="O497" s="1"/>
-      <c r="P497" s="1"/>
-      <c r="Q497" s="1"/>
-      <c r="R497" s="1"/>
-      <c r="S497" s="2"/>
-      <c r="T497" s="1"/>
+      <c r="L497" s="4"/>
+      <c r="M497" s="3"/>
+      <c r="N497" s="3"/>
+      <c r="O497" s="3"/>
+      <c r="P497" s="3"/>
+      <c r="Q497" s="3"/>
+      <c r="R497" s="3"/>
+      <c r="S497" s="4"/>
+      <c r="T497" s="3"/>
       <c r="U497" s="2"/>
     </row>
     <row r="498" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
-      <c r="B498" s="3"/>
-      <c r="C498" s="3"/>
-      <c r="D498" s="3"/>
-      <c r="E498" s="3"/>
-      <c r="F498" s="3"/>
-      <c r="G498" s="4"/>
-      <c r="H498" s="4"/>
-      <c r="I498" s="3"/>
-      <c r="J498" s="3"/>
+      <c r="B498" s="1"/>
+      <c r="C498" s="1"/>
+      <c r="D498" s="1"/>
+      <c r="E498" s="1"/>
+      <c r="F498" s="1"/>
+      <c r="G498" s="1"/>
+      <c r="H498" s="1"/>
+      <c r="I498" s="1"/>
+      <c r="J498" s="1"/>
       <c r="K498" s="4"/>
-      <c r="L498" s="4"/>
-      <c r="M498" s="3"/>
-      <c r="N498" s="3"/>
-      <c r="O498" s="3"/>
-      <c r="P498" s="3"/>
-      <c r="Q498" s="3"/>
-      <c r="R498" s="3"/>
-      <c r="S498" s="4"/>
-      <c r="T498" s="3"/>
+      <c r="L498" s="1"/>
+      <c r="M498" s="1"/>
+      <c r="N498" s="1"/>
+      <c r="O498" s="1"/>
+      <c r="P498" s="1"/>
+      <c r="Q498" s="1"/>
+      <c r="R498" s="1"/>
+      <c r="S498" s="2"/>
+      <c r="T498" s="1"/>
       <c r="U498" s="2"/>
     </row>
     <row r="499" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
-      <c r="B499" s="1"/>
-      <c r="C499" s="1"/>
-      <c r="D499" s="1"/>
-      <c r="E499" s="1"/>
-      <c r="F499" s="1"/>
-      <c r="G499" s="2"/>
-      <c r="H499" s="2"/>
-      <c r="I499" s="1"/>
-      <c r="J499" s="1"/>
+      <c r="B499" s="3"/>
+      <c r="C499" s="3"/>
+      <c r="D499" s="3"/>
+      <c r="E499" s="3"/>
+      <c r="F499" s="3"/>
+      <c r="G499" s="4"/>
+      <c r="H499" s="4"/>
+      <c r="I499" s="3"/>
+      <c r="J499" s="3"/>
       <c r="K499" s="4"/>
-      <c r="L499" s="2"/>
-      <c r="M499" s="1"/>
-      <c r="N499" s="1"/>
-      <c r="O499" s="1"/>
-      <c r="P499" s="1"/>
-      <c r="Q499" s="1"/>
-      <c r="R499" s="1"/>
-      <c r="S499" s="2"/>
-      <c r="T499" s="1"/>
+      <c r="L499" s="4"/>
+      <c r="M499" s="3"/>
+      <c r="N499" s="3"/>
+      <c r="O499" s="3"/>
+      <c r="P499" s="3"/>
+      <c r="Q499" s="3"/>
+      <c r="R499" s="3"/>
+      <c r="S499" s="4"/>
+      <c r="T499" s="3"/>
       <c r="U499" s="2"/>
     </row>
     <row r="500" spans="1:21" x14ac:dyDescent="0.25">
@@ -30954,12 +31006,12 @@
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
       <c r="F502" s="1"/>
-      <c r="G502" s="1"/>
-      <c r="H502" s="1"/>
+      <c r="G502" s="2"/>
+      <c r="H502" s="2"/>
       <c r="I502" s="1"/>
       <c r="J502" s="1"/>
       <c r="K502" s="4"/>
-      <c r="L502" s="1"/>
+      <c r="L502" s="2"/>
       <c r="M502" s="1"/>
       <c r="N502" s="1"/>
       <c r="O502" s="1"/>
@@ -30972,25 +31024,25 @@
     </row>
     <row r="503" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
-      <c r="B503" s="3"/>
-      <c r="C503" s="3"/>
-      <c r="D503" s="3"/>
-      <c r="E503" s="3"/>
-      <c r="F503" s="3"/>
-      <c r="G503" s="3"/>
-      <c r="H503" s="3"/>
-      <c r="I503" s="3"/>
-      <c r="J503" s="3"/>
+      <c r="B503" s="1"/>
+      <c r="C503" s="1"/>
+      <c r="D503" s="1"/>
+      <c r="E503" s="1"/>
+      <c r="F503" s="1"/>
+      <c r="G503" s="1"/>
+      <c r="H503" s="1"/>
+      <c r="I503" s="1"/>
+      <c r="J503" s="1"/>
       <c r="K503" s="4"/>
-      <c r="L503" s="3"/>
-      <c r="M503" s="3"/>
-      <c r="N503" s="3"/>
-      <c r="O503" s="3"/>
-      <c r="P503" s="3"/>
-      <c r="Q503" s="3"/>
-      <c r="R503" s="3"/>
-      <c r="S503" s="4"/>
-      <c r="T503" s="3"/>
+      <c r="L503" s="1"/>
+      <c r="M503" s="1"/>
+      <c r="N503" s="1"/>
+      <c r="O503" s="1"/>
+      <c r="P503" s="1"/>
+      <c r="Q503" s="1"/>
+      <c r="R503" s="1"/>
+      <c r="S503" s="2"/>
+      <c r="T503" s="1"/>
       <c r="U503" s="2"/>
     </row>
     <row r="504" spans="1:21" x14ac:dyDescent="0.25">
@@ -31018,25 +31070,25 @@
     </row>
     <row r="505" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
-      <c r="B505" s="1"/>
-      <c r="C505" s="1"/>
-      <c r="D505" s="1"/>
-      <c r="E505" s="1"/>
-      <c r="F505" s="1"/>
-      <c r="G505" s="1"/>
-      <c r="H505" s="1"/>
-      <c r="I505" s="1"/>
-      <c r="J505" s="1"/>
+      <c r="B505" s="3"/>
+      <c r="C505" s="3"/>
+      <c r="D505" s="3"/>
+      <c r="E505" s="3"/>
+      <c r="F505" s="3"/>
+      <c r="G505" s="3"/>
+      <c r="H505" s="3"/>
+      <c r="I505" s="3"/>
+      <c r="J505" s="3"/>
       <c r="K505" s="4"/>
-      <c r="L505" s="1"/>
-      <c r="M505" s="1"/>
-      <c r="N505" s="1"/>
-      <c r="O505" s="1"/>
-      <c r="P505" s="1"/>
-      <c r="Q505" s="1"/>
-      <c r="R505" s="1"/>
-      <c r="S505" s="2"/>
-      <c r="T505" s="1"/>
+      <c r="L505" s="3"/>
+      <c r="M505" s="3"/>
+      <c r="N505" s="3"/>
+      <c r="O505" s="3"/>
+      <c r="P505" s="3"/>
+      <c r="Q505" s="3"/>
+      <c r="R505" s="3"/>
+      <c r="S505" s="4"/>
+      <c r="T505" s="3"/>
       <c r="U505" s="2"/>
     </row>
     <row r="506" spans="1:21" x14ac:dyDescent="0.25">
@@ -31058,7 +31110,7 @@
       <c r="P506" s="1"/>
       <c r="Q506" s="1"/>
       <c r="R506" s="1"/>
-      <c r="S506" s="1"/>
+      <c r="S506" s="2"/>
       <c r="T506" s="1"/>
       <c r="U506" s="2"/>
     </row>
@@ -31081,7 +31133,7 @@
       <c r="P507" s="1"/>
       <c r="Q507" s="1"/>
       <c r="R507" s="1"/>
-      <c r="S507" s="2"/>
+      <c r="S507" s="1"/>
       <c r="T507" s="1"/>
       <c r="U507" s="2"/>
     </row>
@@ -31133,49 +31185,49 @@
     </row>
     <row r="510" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
-      <c r="B510" s="3"/>
-      <c r="C510" s="3"/>
-      <c r="D510" s="3"/>
-      <c r="E510" s="3"/>
-      <c r="F510" s="3"/>
-      <c r="G510" s="3"/>
-      <c r="H510" s="3"/>
-      <c r="I510" s="3"/>
-      <c r="J510" s="3"/>
+      <c r="B510" s="1"/>
+      <c r="C510" s="1"/>
+      <c r="D510" s="1"/>
+      <c r="E510" s="1"/>
+      <c r="F510" s="1"/>
+      <c r="G510" s="1"/>
+      <c r="H510" s="1"/>
+      <c r="I510" s="1"/>
+      <c r="J510" s="1"/>
       <c r="K510" s="4"/>
-      <c r="L510" s="3"/>
-      <c r="M510" s="3"/>
-      <c r="N510" s="3"/>
-      <c r="O510" s="3"/>
-      <c r="P510" s="3"/>
-      <c r="Q510" s="3"/>
-      <c r="R510" s="3"/>
-      <c r="S510" s="4"/>
-      <c r="T510" s="3"/>
+      <c r="L510" s="1"/>
+      <c r="M510" s="1"/>
+      <c r="N510" s="1"/>
+      <c r="O510" s="1"/>
+      <c r="P510" s="1"/>
+      <c r="Q510" s="1"/>
+      <c r="R510" s="1"/>
+      <c r="S510" s="2"/>
+      <c r="T510" s="1"/>
       <c r="U510" s="2"/>
     </row>
     <row r="511" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
-      <c r="B511" s="1"/>
-      <c r="C511" s="1"/>
-      <c r="D511" s="1"/>
-      <c r="E511" s="1"/>
-      <c r="F511" s="1"/>
-      <c r="G511" s="1"/>
-      <c r="H511" s="1"/>
-      <c r="I511" s="1"/>
-      <c r="J511" s="1"/>
-      <c r="K511" s="1"/>
-      <c r="L511" s="1"/>
-      <c r="M511" s="1"/>
-      <c r="N511" s="1"/>
-      <c r="O511" s="1"/>
-      <c r="P511" s="1"/>
-      <c r="Q511" s="1"/>
-      <c r="R511" s="1"/>
-      <c r="S511" s="1"/>
-      <c r="T511" s="1"/>
-      <c r="U511" s="1"/>
+      <c r="B511" s="3"/>
+      <c r="C511" s="3"/>
+      <c r="D511" s="3"/>
+      <c r="E511" s="3"/>
+      <c r="F511" s="3"/>
+      <c r="G511" s="3"/>
+      <c r="H511" s="3"/>
+      <c r="I511" s="3"/>
+      <c r="J511" s="3"/>
+      <c r="K511" s="4"/>
+      <c r="L511" s="3"/>
+      <c r="M511" s="3"/>
+      <c r="N511" s="3"/>
+      <c r="O511" s="3"/>
+      <c r="P511" s="3"/>
+      <c r="Q511" s="3"/>
+      <c r="R511" s="3"/>
+      <c r="S511" s="4"/>
+      <c r="T511" s="3"/>
+      <c r="U511" s="2"/>
     </row>
     <row r="512" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
@@ -31211,7 +31263,7 @@
       <c r="H513" s="1"/>
       <c r="I513" s="1"/>
       <c r="J513" s="1"/>
-      <c r="K513" s="2"/>
+      <c r="K513" s="1"/>
       <c r="L513" s="1"/>
       <c r="M513" s="1"/>
       <c r="N513" s="1"/>
@@ -31221,7 +31273,7 @@
       <c r="R513" s="1"/>
       <c r="S513" s="1"/>
       <c r="T513" s="1"/>
-      <c r="U513" s="2"/>
+      <c r="U513" s="1"/>
     </row>
     <row r="514" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
@@ -31234,8 +31286,8 @@
       <c r="H514" s="1"/>
       <c r="I514" s="1"/>
       <c r="J514" s="1"/>
-      <c r="K514" s="1"/>
-      <c r="L514" s="2"/>
+      <c r="K514" s="2"/>
+      <c r="L514" s="1"/>
       <c r="M514" s="1"/>
       <c r="N514" s="1"/>
       <c r="O514" s="1"/>
@@ -31257,8 +31309,8 @@
       <c r="H515" s="1"/>
       <c r="I515" s="1"/>
       <c r="J515" s="1"/>
-      <c r="K515" s="2"/>
-      <c r="L515" s="1"/>
+      <c r="K515" s="1"/>
+      <c r="L515" s="2"/>
       <c r="M515" s="1"/>
       <c r="N515" s="1"/>
       <c r="O515" s="1"/>
@@ -31336,7 +31388,7 @@
       <c r="R518" s="1"/>
       <c r="S518" s="1"/>
       <c r="T518" s="1"/>
-      <c r="U518" s="1"/>
+      <c r="U518" s="2"/>
     </row>
     <row r="519" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
@@ -31346,14 +31398,14 @@
       <c r="E519" s="1"/>
       <c r="F519" s="1"/>
       <c r="G519" s="1"/>
-      <c r="H519" s="2"/>
+      <c r="H519" s="1"/>
       <c r="I519" s="1"/>
       <c r="J519" s="1"/>
       <c r="K519" s="2"/>
       <c r="L519" s="1"/>
       <c r="M519" s="1"/>
       <c r="N519" s="1"/>
-      <c r="O519" s="2"/>
+      <c r="O519" s="1"/>
       <c r="P519" s="1"/>
       <c r="Q519" s="1"/>
       <c r="R519" s="1"/>
@@ -31438,14 +31490,14 @@
       <c r="E523" s="1"/>
       <c r="F523" s="1"/>
       <c r="G523" s="1"/>
-      <c r="H523" s="1"/>
+      <c r="H523" s="2"/>
       <c r="I523" s="1"/>
       <c r="J523" s="1"/>
       <c r="K523" s="2"/>
       <c r="L523" s="1"/>
       <c r="M523" s="1"/>
       <c r="N523" s="1"/>
-      <c r="O523" s="1"/>
+      <c r="O523" s="2"/>
       <c r="P523" s="1"/>
       <c r="Q523" s="1"/>
       <c r="R523" s="1"/>
@@ -31484,14 +31536,14 @@
       <c r="E525" s="1"/>
       <c r="F525" s="1"/>
       <c r="G525" s="1"/>
-      <c r="H525" s="2"/>
+      <c r="H525" s="1"/>
       <c r="I525" s="1"/>
       <c r="J525" s="1"/>
       <c r="K525" s="2"/>
       <c r="L525" s="1"/>
       <c r="M525" s="1"/>
       <c r="N525" s="1"/>
-      <c r="O525" s="2"/>
+      <c r="O525" s="1"/>
       <c r="P525" s="1"/>
       <c r="Q525" s="1"/>
       <c r="R525" s="1"/>
@@ -31579,7 +31631,7 @@
       <c r="H529" s="2"/>
       <c r="I529" s="1"/>
       <c r="J529" s="1"/>
-      <c r="K529" s="1"/>
+      <c r="K529" s="2"/>
       <c r="L529" s="1"/>
       <c r="M529" s="1"/>
       <c r="N529" s="1"/>
@@ -31599,14 +31651,14 @@
       <c r="E530" s="1"/>
       <c r="F530" s="1"/>
       <c r="G530" s="1"/>
-      <c r="H530" s="1"/>
+      <c r="H530" s="2"/>
       <c r="I530" s="1"/>
       <c r="J530" s="1"/>
       <c r="K530" s="1"/>
       <c r="L530" s="1"/>
       <c r="M530" s="1"/>
       <c r="N530" s="1"/>
-      <c r="O530" s="1"/>
+      <c r="O530" s="2"/>
       <c r="P530" s="1"/>
       <c r="Q530" s="1"/>
       <c r="R530" s="1"/>
@@ -31648,11 +31700,11 @@
       <c r="H532" s="1"/>
       <c r="I532" s="1"/>
       <c r="J532" s="1"/>
-      <c r="K532" s="2"/>
+      <c r="K532" s="1"/>
       <c r="L532" s="1"/>
       <c r="M532" s="1"/>
       <c r="N532" s="1"/>
-      <c r="O532" s="2"/>
+      <c r="O532" s="1"/>
       <c r="P532" s="1"/>
       <c r="Q532" s="1"/>
       <c r="R532" s="1"/>
@@ -31740,7 +31792,7 @@
       <c r="H536" s="1"/>
       <c r="I536" s="1"/>
       <c r="J536" s="1"/>
-      <c r="K536" s="1"/>
+      <c r="K536" s="2"/>
       <c r="L536" s="1"/>
       <c r="M536" s="1"/>
       <c r="N536" s="1"/>
@@ -31767,7 +31819,7 @@
       <c r="L537" s="1"/>
       <c r="M537" s="1"/>
       <c r="N537" s="1"/>
-      <c r="O537" s="1"/>
+      <c r="O537" s="2"/>
       <c r="P537" s="1"/>
       <c r="Q537" s="1"/>
       <c r="R537" s="1"/>
@@ -31806,7 +31858,7 @@
       <c r="E539" s="1"/>
       <c r="F539" s="1"/>
       <c r="G539" s="1"/>
-      <c r="H539" s="2"/>
+      <c r="H539" s="1"/>
       <c r="I539" s="1"/>
       <c r="J539" s="1"/>
       <c r="K539" s="1"/>
@@ -31815,11 +31867,11 @@
       <c r="N539" s="1"/>
       <c r="O539" s="1"/>
       <c r="P539" s="1"/>
-      <c r="Q539" s="2"/>
+      <c r="Q539" s="1"/>
       <c r="R539" s="1"/>
       <c r="S539" s="1"/>
       <c r="T539" s="1"/>
-      <c r="U539" s="2"/>
+      <c r="U539" s="1"/>
     </row>
     <row r="540" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
@@ -31833,7 +31885,7 @@
       <c r="I540" s="1"/>
       <c r="J540" s="1"/>
       <c r="K540" s="1"/>
-      <c r="L540" s="2"/>
+      <c r="L540" s="1"/>
       <c r="M540" s="1"/>
       <c r="N540" s="1"/>
       <c r="O540" s="1"/>
@@ -31855,13 +31907,13 @@
       <c r="H541" s="2"/>
       <c r="I541" s="1"/>
       <c r="J541" s="1"/>
-      <c r="K541" s="2"/>
-      <c r="L541" s="1"/>
+      <c r="K541" s="1"/>
+      <c r="L541" s="2"/>
       <c r="M541" s="1"/>
       <c r="N541" s="1"/>
       <c r="O541" s="1"/>
       <c r="P541" s="1"/>
-      <c r="Q541" s="1"/>
+      <c r="Q541" s="2"/>
       <c r="R541" s="1"/>
       <c r="S541" s="1"/>
       <c r="T541" s="1"/>
@@ -31882,8 +31934,8 @@
       <c r="L542" s="1"/>
       <c r="M542" s="1"/>
       <c r="N542" s="1"/>
-      <c r="O542" s="2"/>
-      <c r="P542" s="2"/>
+      <c r="O542" s="1"/>
+      <c r="P542" s="1"/>
       <c r="Q542" s="1"/>
       <c r="R542" s="1"/>
       <c r="S542" s="1"/>
@@ -31904,9 +31956,9 @@
       <c r="K543" s="2"/>
       <c r="L543" s="1"/>
       <c r="M543" s="1"/>
-      <c r="N543" s="2"/>
-      <c r="O543" s="1"/>
-      <c r="P543" s="1"/>
+      <c r="N543" s="1"/>
+      <c r="O543" s="2"/>
+      <c r="P543" s="2"/>
       <c r="Q543" s="1"/>
       <c r="R543" s="1"/>
       <c r="S543" s="1"/>
@@ -31921,20 +31973,20 @@
       <c r="E544" s="1"/>
       <c r="F544" s="1"/>
       <c r="G544" s="1"/>
-      <c r="H544" s="1"/>
+      <c r="H544" s="2"/>
       <c r="I544" s="1"/>
       <c r="J544" s="1"/>
-      <c r="K544" s="1"/>
+      <c r="K544" s="2"/>
       <c r="L544" s="1"/>
       <c r="M544" s="1"/>
-      <c r="N544" s="1"/>
+      <c r="N544" s="2"/>
       <c r="O544" s="1"/>
       <c r="P544" s="1"/>
       <c r="Q544" s="1"/>
       <c r="R544" s="1"/>
       <c r="S544" s="1"/>
       <c r="T544" s="1"/>
-      <c r="U544" s="1"/>
+      <c r="U544" s="2"/>
     </row>
     <row r="545" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
@@ -31973,13 +32025,14 @@
       <c r="K546" s="1"/>
       <c r="L546" s="1"/>
       <c r="M546" s="1"/>
+      <c r="N546" s="1"/>
       <c r="O546" s="1"/>
       <c r="P546" s="1"/>
       <c r="Q546" s="1"/>
       <c r="R546" s="1"/>
       <c r="S546" s="1"/>
       <c r="T546" s="1"/>
-      <c r="U546" s="2"/>
+      <c r="U546" s="1"/>
     </row>
     <row r="547" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
@@ -31993,9 +32046,8 @@
       <c r="I547" s="1"/>
       <c r="J547" s="1"/>
       <c r="K547" s="1"/>
-      <c r="L547" s="2"/>
+      <c r="L547" s="1"/>
       <c r="M547" s="1"/>
-      <c r="N547" s="2"/>
       <c r="O547" s="1"/>
       <c r="P547" s="1"/>
       <c r="Q547" s="1"/>
@@ -32015,8 +32067,8 @@
       <c r="H548" s="1"/>
       <c r="I548" s="1"/>
       <c r="J548" s="1"/>
-      <c r="K548" s="2"/>
-      <c r="L548" s="1"/>
+      <c r="K548" s="1"/>
+      <c r="L548" s="2"/>
       <c r="M548" s="1"/>
       <c r="N548" s="2"/>
       <c r="O548" s="1"/>
@@ -32041,9 +32093,9 @@
       <c r="K549" s="2"/>
       <c r="L549" s="1"/>
       <c r="M549" s="1"/>
-      <c r="N549" s="1"/>
-      <c r="O549" s="2"/>
-      <c r="P549" s="2"/>
+      <c r="N549" s="2"/>
+      <c r="O549" s="1"/>
+      <c r="P549" s="1"/>
       <c r="Q549" s="1"/>
       <c r="R549" s="1"/>
       <c r="S549" s="1"/>
@@ -32065,8 +32117,8 @@
       <c r="L550" s="1"/>
       <c r="M550" s="1"/>
       <c r="N550" s="1"/>
-      <c r="O550" s="1"/>
-      <c r="P550" s="1"/>
+      <c r="O550" s="2"/>
+      <c r="P550" s="2"/>
       <c r="Q550" s="1"/>
       <c r="R550" s="1"/>
       <c r="S550" s="1"/>
@@ -32084,7 +32136,7 @@
       <c r="H551" s="1"/>
       <c r="I551" s="1"/>
       <c r="J551" s="1"/>
-      <c r="K551" s="1"/>
+      <c r="K551" s="2"/>
       <c r="L551" s="1"/>
       <c r="M551" s="1"/>
       <c r="N551" s="1"/>
@@ -32094,7 +32146,7 @@
       <c r="R551" s="1"/>
       <c r="S551" s="1"/>
       <c r="T551" s="1"/>
-      <c r="U551" s="1"/>
+      <c r="U551" s="2"/>
     </row>
     <row r="552" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
@@ -32127,10 +32179,10 @@
       <c r="E553" s="1"/>
       <c r="F553" s="1"/>
       <c r="G553" s="1"/>
-      <c r="H553" s="2"/>
+      <c r="H553" s="1"/>
       <c r="I553" s="1"/>
       <c r="J553" s="1"/>
-      <c r="K553" s="2"/>
+      <c r="K553" s="1"/>
       <c r="L553" s="1"/>
       <c r="M553" s="1"/>
       <c r="N553" s="1"/>
@@ -32140,7 +32192,7 @@
       <c r="R553" s="1"/>
       <c r="S553" s="1"/>
       <c r="T553" s="1"/>
-      <c r="U553" s="2"/>
+      <c r="U553" s="1"/>
     </row>
     <row r="554" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
@@ -32153,8 +32205,8 @@
       <c r="H554" s="2"/>
       <c r="I554" s="1"/>
       <c r="J554" s="1"/>
-      <c r="K554" s="1"/>
-      <c r="L554" s="2"/>
+      <c r="K554" s="2"/>
+      <c r="L554" s="1"/>
       <c r="M554" s="1"/>
       <c r="N554" s="1"/>
       <c r="O554" s="1"/>
@@ -32176,8 +32228,8 @@
       <c r="H555" s="2"/>
       <c r="I555" s="1"/>
       <c r="J555" s="1"/>
-      <c r="K555" s="2"/>
-      <c r="L555" s="1"/>
+      <c r="K555" s="1"/>
+      <c r="L555" s="2"/>
       <c r="M555" s="1"/>
       <c r="N555" s="1"/>
       <c r="O555" s="1"/>
@@ -32234,6 +32286,29 @@
       <c r="T557" s="1"/>
       <c r="U557" s="2"/>
     </row>
+    <row r="558" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A558" s="1"/>
+      <c r="B558" s="1"/>
+      <c r="C558" s="1"/>
+      <c r="D558" s="1"/>
+      <c r="E558" s="1"/>
+      <c r="F558" s="1"/>
+      <c r="G558" s="1"/>
+      <c r="H558" s="2"/>
+      <c r="I558" s="1"/>
+      <c r="J558" s="1"/>
+      <c r="K558" s="2"/>
+      <c r="L558" s="1"/>
+      <c r="M558" s="1"/>
+      <c r="N558" s="1"/>
+      <c r="O558" s="1"/>
+      <c r="P558" s="1"/>
+      <c r="Q558" s="1"/>
+      <c r="R558" s="1"/>
+      <c r="S558" s="1"/>
+      <c r="T558" s="1"/>
+      <c r="U558" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
